--- a/learningAgents/stableBaseline3/results.xlsx
+++ b/learningAgents/stableBaseline3/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjaha\Desktop\RL\Gym\stableBaseline3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD297BBA-7D5C-45B6-966E-94570FD59FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D167AD3C-6B04-4CE5-B456-F99D531B5C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,25 +16,12 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="509">
   <si>
     <t>name</t>
   </si>
@@ -93,18 +80,354 @@
     <t>stae_onehot</t>
   </si>
   <si>
+    <t>seed</t>
+  </si>
+  <si>
+    <t>num_procs</t>
+  </si>
+  <si>
+    <t>running_time</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>myopic</t>
+  </si>
+  <si>
+    <t>CoPPO_MP-1692616799</t>
+  </si>
+  <si>
+    <t>[5112.25, 5365.5625, 5494.515625, 5559.548532743944, 5595.037030905714, 5666.777230567532, 5645.78943471424, 5645.78280708878, 5654.638750442279, 5639.418684433402, 5655.889666140841, 5640.434178574635, 5633.053474253017, 5628.832398006494, 5643.528690722136, 5634.260537048761, 5629.629316446304, 5626.604717947042, 5657.596723261125, 5658.17123476598, 5639.7527650450875, 5684.034172330452, 5654.478565443748, 5638.503085560546, 5673.997681663725]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0]</t>
+  </si>
+  <si>
+    <t>[128.5, 130.25, 131.125, 131.4288081675768, 130.33202029392123, 132.27799964509904, 131.85640538018197, 131.63111728569493, 132.19733206997626, 131.47340144996997, 132.2056491637486, 132.0937912465015, 132.05367062478035, 131.58681373789295, 132.1234230498194, 132.0617115249097, 132.03085576245485, 131.172989600645, 131.7717045365505, 132.22081649893187, 130.7610890298767, 132.39253392963028, 132.19626696481515, 130.99062863774202, 132.32594295237016]</t>
+  </si>
+  <si>
+    <t>[135.5, 133.75, 132.875, 132.4375, 132.1853270418942, 131.72200035490096, 131.86100017745048, 131.85985147813335, 131.80266793002374, 131.90133396501187, 131.7943508362514, 131.8971754181257, 131.94632937521965, 131.97316468760982, 131.8765769501806, 131.9382884750903, 131.96914423754515, 131.98457211877258, 131.78167648924068, 131.77918350106813, 131.88959175053407, 131.60746607036972, 131.80373303518485, 131.90186651759245, 131.67405704762984]</t>
+  </si>
+  <si>
+    <t>[200.0, 203.5, 205.25, 206.125, 206.6293459162116, 207.5559992901981, 207.27799964509904, 207.2802970437333, 207.3946641399525, 207.19733206997626, 207.4112983274972, 207.2056491637486, 207.1073412495607, 207.05367062478035, 207.2468460996388, 207.1234230498194, 207.0617115249097, 207.03085576245485, 207.43664702151864, 207.44163299786373, 207.22081649893187, 207.78506785926055, 207.39253392963028, 207.19626696481512, 207.65188590474034, 0]</t>
+  </si>
+  <si>
+    <t>[200.0, 196.5, 194.75, 193.875, 193.3706540837884, 192.4440007098019, 192.72200035490096, 192.7197029562667, 192.6053358600475, 192.80266793002374, 192.5887016725028, 192.7943508362514, 192.8926587504393, 192.94632937521965, 192.7531539003612, 192.8765769501806, 192.9382884750903, 192.96914423754515, 192.56335297848136, 192.55836700213627, 192.77918350106813, 192.21493214073945, 192.60746607036972, 192.80373303518488, 192.34811409525966, 0]</t>
+  </si>
+  <si>
+    <t>CoPPO-1691757262</t>
+  </si>
+  <si>
+    <t>[3.4542100989000026, 4.9800312563077105, 6.579974097437158, 7.191703202579303, 6.769108207595672, 7.022883215489182, 7.207564723225679, 7.245847851615325, 7.388956595650069, 7.486678977834257, 7.566382419632832, 7.55564912272465, 7.615285820281863, 7.715181186638184, 7.803931367249733, 7.860910072135128, 7.980303019243517, 7.633808850736372, 7.182910748367457, 6.899738436880748, 7.195824962144796, 7.2075570586590585, 7.302315618200001, 7.6592187475367375, 7.602099014805857]</t>
+  </si>
+  <si>
+    <t>[40, 44, 39, 37, 43, 44, 45, 46, 45, 45, 44, 44, 42, 40, 38, 34, 28, 26, 29, 34, 32, 33, 32, 26, 21]</t>
+  </si>
+  <si>
+    <t>[87.78096389770508, 95.92702388763428, 107.5731987953186, 112.39247632026672, 106.51573145389557, 107.30639344453812, 108.02630463242531, 107.65640278160572, 108.51761160045862, 109.29997496679425, 110.19320991076529, 110.3459631325677, 111.28864604840055, 112.99549928610213, 115.16374047251884, 117.73049179540249, 122.58700378649519, 121.74221853372, 117.09727646885585, 112.62489498644209, 115.11399263634848, 114.88905713207805, 115.92367933813375, 122.19436549456736, 125.61146688119481]</t>
+  </si>
+  <si>
+    <t>[135.5, 123.57024097442627, 116.65943670272827, 114.38787722587585, 113.88902699947357, 112.04570311307907, 110.86087569594383, 110.1522329300642, 109.52827539294958, 109.27560944482684, 109.2817008253187, 109.50957809668034, 109.71867435565218, 110.11116727883928, 110.83225028065499, 111.91512282862095, 113.36896507031634, 115.67347474936105, 117.19066069545079, 117.16731463880205, 116.03170972571206, 115.80228045337117, 115.57397462304789, 115.66140080181935, 117.29464197500636]</t>
+  </si>
+  <si>
+    <t>[200.0, 223.85951805114746, 237.68112659454346, 242.2242455482483, 243.22194600105286, 246.90859377384186, 249.27824860811234, 250.6955341398716, 251.94344921410084, 252.44878111034632, 252.4365983493626, 251.9808438066393, 251.56265128869563, 250.77766544232145, 249.33549943869002, 247.1697543427581, 244.26206985936733, 239.6530505012779, 236.61867860909842, 236.6653707223959, 238.93658054857588, 239.39543909325766, 239.85205075390422, 239.6771983963613, 236.4107160499873, 0]</t>
+  </si>
+  <si>
+    <t>[200.0, 176.14048194885254, 162.31887340545654, 157.7757544517517, 156.77805399894714, 153.09140622615814, 150.72175139188766, 149.3044658601284, 148.05655078589916, 147.55121888965368, 147.5634016506374, 148.0191561933607, 148.43734871130437, 149.22233455767855, 150.66450056130998, 152.8302456572419, 155.73793014063267, 160.3469494987221, 163.38132139090158, 163.3346292776041, 161.06341945142412, 160.60456090674234, 160.14794924609578, 160.3228016036387, 163.5892839500127, 0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>[3.3927177418415524, 4.999358566427233, 6.477153845515346, 7.294832729991113, 6.772712982949446, 6.982602388946284, 7.172257527640929, 7.327252263188964, 7.462180590617846, 7.446812309382826, 7.594644906824211, 7.65596325982437, 7.63654640283369, 7.719066377971231, 7.771656851132334, 7.8204517318418185, 7.919058147442466, 7.646761319463706, 7.2617343591742936, 6.7474019462707355, 7.108822310731706, 7.176992536035194, 7.453010245783006, 7.8034784467024725, 7.449337896448512]</t>
+  </si>
+  <si>
+    <t>[41, 44, 41, 36, 43, 45, 46, 46, 45, 45, 44, 42, 42, 39, 37, 33, 28, 25, 27, 34, 33, 34, 30, 22, 19]</t>
+  </si>
+  <si>
+    <t>[87.03275680541992, 95.98036289215088, 106.14902448654175, 113.10448145866394, 106.37558400630951, 106.6866962313652, 107.33735617995262, 108.12397556006908, 109.13126458972692, 108.89685006067157, 110.41694805584848, 111.49343095999211, 111.90381806483492, 113.5547704368364, 115.3776278331643, 117.78741716517834, 122.16727864331915, 122.2634794095502, 118.92508706347871, 111.40158133157456, 114.07902839009148, 114.1954017988055, 117.77253515080656, 125.87911835589034, 125.60321779687217]</t>
+  </si>
+  <si>
+    <t>[135.5, 123.38318920135498, 116.53248262405396, 113.9366180896759, 113.72858393192291, 111.89033395051956, 110.58942452073097, 109.77640743553638, 109.36329946666956, 109.3052907474339, 109.20318057574332, 109.50662244576961, 110.00332457432523, 110.47844794695266, 111.2475285694236, 112.28005338535877, 113.65689433031366, 115.78449040856503, 117.40423765881133, 117.78445000997817, 116.18873284037727, 115.66130672780582, 115.29483049555574, 115.91425665936845, 118.40547208349892]</t>
+  </si>
+  <si>
+    <t>[200.0, 224.23362159729004, 237.9350347518921, 243.1267638206482, 243.54283213615417, 247.21933209896088, 249.82115095853806, 251.44718512892723, 252.27340106666088, 252.3894185051322, 252.59363884851336, 251.98675510846078, 250.99335085134953, 250.0431041060947, 248.5049428611528, 246.43989322928246, 243.68621133937268, 239.43101918286993, 236.19152468237735, 235.43109998004365, 238.62253431924546, 239.67738654438836, 240.4103390088885, 239.1714866812631, 234.18905583300216, 0]</t>
+  </si>
+  <si>
+    <t>[200.0, 175.76637840270996, 162.0649652481079, 156.8732361793518, 156.45716786384583, 152.78066790103912, 150.17884904146194, 148.55281487107277, 147.72659893333912, 147.6105814948678, 147.40636115148664, 148.01324489153922, 149.00664914865047, 149.9568958939053, 151.4950571388472, 153.56010677071754, 156.31378866062732, 160.56898081713007, 163.80847531762265, 164.56890001995635, 161.37746568075454, 160.32261345561164, 159.5896609911115, 160.8285133187369, 165.81094416699784, 0]</t>
+  </si>
+  <si>
+    <t>[3.4285130928200087, 5.071216555287745, 6.469885382746951, 7.252715487989213, 6.769034223233743, 6.938997979615876, 7.198934726121918, 7.285230772125928, 7.358761591403958, 7.6143551961723555, 7.613568314845822, 7.574254808082407, 7.590589297838634, 7.547016571717523, 7.656416600409416, 7.811768398050797, 7.9969433518154025, 7.886236334209462, 7.5473847678973565, 7.010010908782356, 6.792508999104052, 7.082585066738728, 7.200962085119752, 7.428133183308877, 7.759418803155732]</t>
+  </si>
+  <si>
+    <t>[41, 43, 40, 36, 43, 45, 45, 46, 46, 44, 43, 43, 42, 42, 40, 36, 30, 25, 24, 29, 34, 33, 33, 30, 22]</t>
+  </si>
+  <si>
+    <t>[87.46663665771484, 96.89152717590332, 106.43188381195068, 112.9932656288147, 106.55887818336487, 106.41983902454376, 107.71611076593399, 107.83939865231514, 108.05772460997105, 110.47907096892595, 110.89922729507089, 110.90478713996708, 111.4466476822272, 111.37437917711213, 113.0209374523256, 115.91553998470772, 120.76950705290074, 123.62144786238787, 122.88930192649423, 116.43195565074711, 112.1448308603467, 114.07460506640382, 114.83932069879029, 117.9381721215509, 125.68402327085846]</t>
+  </si>
+  <si>
+    <t>[135.5, 123.49165916442871, 116.84162616729736, 114.2391905784607, 113.9277093410492, 112.08550155162811, 110.66908591985703, 109.93084213137627, 109.40798126161098, 109.070417098701, 109.42258056625724, 109.79174224846065, 110.07000347133726, 110.41416452405974, 110.65421818732284, 111.24589800357353, 112.41330849885708, 114.50235813736799, 116.78213056862296, 118.30892340809078, 117.83968146875486, 116.41596881665282, 115.83062787909057, 115.5828010840155, 116.17164384339935]</t>
+  </si>
+  <si>
+    <t>[200.0, 224.01668167114258, 237.31674766540527, 242.5216188430786, 243.1445813179016, 246.82899689674377, 249.66182816028595, 251.13831573724747, 252.18403747677803, 252.859165802598, 252.15483886748552, 251.4165155030787, 250.85999305732548, 250.17167095188051, 249.69156362535432, 248.50820399285294, 246.17338300228585, 241.99528372526402, 237.43573886275408, 234.38215318381845, 235.32063706249028, 238.16806236669436, 239.33874424181886, 239.834397831969, 238.6567123132013, 0]</t>
+  </si>
+  <si>
+    <t>[200.0, 175.98331832885742, 162.68325233459473, 157.4783811569214, 156.8554186820984, 153.17100310325623, 150.33817183971405, 148.86168426275253, 147.81596252322197, 147.140834197402, 147.84516113251448, 148.5834844969213, 149.14000694267452, 149.82832904811949, 150.30843637464568, 151.49179600714706, 153.82661699771415, 158.00471627473598, 162.56426113724592, 165.61784681618155, 164.67936293750972, 161.83193763330564, 160.66125575818114, 160.165602168031, 161.3432876867987, 0]</t>
+  </si>
+  <si>
+    <t>CoA2C-1691743138</t>
+  </si>
+  <si>
+    <t>[5.11225, 5.3655625, 5.494515625, 5.55956640625, 5.5922353515625, 5.608605712890625, 5.6167998657226565, 5.620899185180664, 5.622949405670166, 5.623974656105042, 5.62448731637001, 5.6247436552643775, 5.624871826902032, 5.624935913268477, 5.624967956588604, 5.624983978282893, 5.624991989138595, 5.624995994568584, 5.6249979972841135, 5.624998998642012, 5.624999499320995, 5.624999749660494, 5.624999874830247, 5.624999937415123, 5.624999968707561]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[128.5, 130.25, 131.125, 131.5625, 131.78125, 131.890625, 131.9453125, 131.97265625, 131.986328125, 131.9931640625, 131.99658203125, 131.998291015625, 131.9991455078125, 131.99957275390625, 131.99978637695312, 131.99989318847656, 131.99994659423828, 131.99997329711914, 131.99998664855957, 131.99999332427979, 131.9999966621399, 131.99999833106995, 131.99999916553497, 131.9999995827675, 131.99999979138374]</t>
+  </si>
+  <si>
+    <t>[135.5, 133.75, 132.875, 132.4375, 132.21875, 132.109375, 132.0546875, 132.02734375, 132.013671875, 132.0068359375, 132.00341796875, 132.001708984375, 132.0008544921875, 132.00042724609375, 132.00021362304688, 132.00010681152344, 132.00005340576172, 132.00002670288086, 132.00001335144043, 132.00000667572021, 132.0000033378601, 132.00000166893005, 132.00000083446503, 132.0000004172325, 132.00000020861626]</t>
+  </si>
+  <si>
+    <t>[200.0, 203.5, 205.25, 206.125, 206.5625, 206.78125, 206.890625, 206.9453125, 206.97265625, 206.986328125, 206.9931640625, 206.99658203125, 206.998291015625, 206.9991455078125, 206.99957275390625, 206.99978637695312, 206.99989318847656, 206.99994659423828, 206.99997329711914, 206.99998664855957, 206.99999332427979, 206.9999966621399, 206.99999833106995, 206.99999916553497, 206.9999995827675, 0]</t>
+  </si>
+  <si>
+    <t>[200.0, 196.5, 194.75, 193.875, 193.4375, 193.21875, 193.109375, 193.0546875, 193.02734375, 193.013671875, 193.0068359375, 193.00341796875, 193.001708984375, 193.0008544921875, 193.00042724609375, 193.00021362304688, 193.00010681152344, 193.00005340576172, 193.00002670288086, 193.00001335144043, 193.00000667572021, 193.0000033378601, 193.00000166893005, 193.00000083446503, 193.0000004172325, 0]</t>
+  </si>
+  <si>
+    <t>CoPPO-1691743124</t>
+  </si>
+  <si>
+    <t>[3.4864525695097255, 5.060166940560617, 6.375439484100374, 6.940593690858715, 6.360704132415945, 6.869583115002464, 7.239691747955115, 7.3863848722342516, 7.50151132460361, 7.5267204613720375, 7.429699874038362, 7.356345603782539, 7.4507256248650755, 7.593076148268956, 7.5321987785380635, 7.489946949106925, 7.530806953203554, 7.525886960698709, 7.5788075967852695, 7.50978910903705, 7.6052596050333365, 8.052590950631252, 8.848285846389444, 8.667138691092715, 7.169694789472017]</t>
+  </si>
+  <si>
+    <t>[40, 43, 41, 41, 50, 50, 50, 49, 49, 49, 49, 51, 50, 49, 49, 50, 49, 49, 48, 49, 48, 42, 26, 2, 1]</t>
+  </si>
+  <si>
+    <t>[88.1788215637207, 96.92786312103271, 105.45379304885864, 108.79468083381653, 101.04875242710114, 103.46315222978592, 105.62979045510292, 106.45402486622334, 107.32696608453989, 107.58765544369817, 106.67747564055026, 105.77913031447679, 106.36237399512902, 107.65895112720318, 107.28288094385061, 106.94041450909572, 107.32505134787061, 107.35391094310035, 107.95862604192371, 107.46173298861322, 108.46972471726804, 113.72142318016722, 127.95751144054748, 147.61127854170013, 139.77377766759002]</t>
+  </si>
+  <si>
+    <t>[135.5, 123.66970539093018, 116.98424482345581, 114.10163187980652, 112.77489411830902, 109.84335869550705, 108.24830707907677, 107.5936779230833, 107.30876465886831, 107.31331501528621, 107.3819001223892, 107.20579400192946, 106.8491280800663, 106.72743955883197, 106.96031745092478, 107.04095832415624, 107.0158223703911, 107.09312961476098, 107.15832494684582, 107.3584002206153, 107.38423341261478, 107.65560623877809, 109.17206047412537, 113.8684232157309, 122.30413704722321]</t>
+  </si>
+  <si>
+    <t>[200.0, 223.66058921813965, 237.03151035308838, 242.79673624038696, 245.45021176338196, 251.3132826089859, 254.50338584184647, 255.8126441538334, 256.3824706822634, 256.3733699694276, 256.2361997552216, 256.5884119961411, 257.3017438398674, 257.54512088233605, 257.07936509815045, 256.9180833516875, 256.9683552592178, 256.81374077047803, 256.68335010630835, 256.2831995587694, 256.23153317477045, 255.68878752244382, 252.65587905174925, 243.2631535685382, 226.39172590555359, 0]</t>
+  </si>
+  <si>
+    <t>[200.0, 176.33941078186035, 162.96848964691162, 157.20326375961304, 154.54978823661804, 148.6867173910141, 145.49661415815353, 144.1873558461666, 143.61752931773663, 143.62663003057241, 143.7638002447784, 143.41158800385892, 142.6982561601326, 142.45487911766395, 142.92063490184955, 143.08191664831247, 143.0316447407822, 143.18625922952197, 143.31664989369165, 143.7168004412306, 143.76846682522955, 144.31121247755618, 147.34412094825075, 156.7368464314618, 173.60827409444641, 0]</t>
+  </si>
+  <si>
+    <t>[3.4332263474725186, 5.184255767891751, 6.312571791117509, 6.818390826765728, 6.526494489336747, 6.90295573287252, 7.14981296623582, 7.466081392461092, 7.456707250115302, 7.476435925495422, 7.389732412107374, 7.465503178094796, 7.533158353947666, 7.499575120329355, 7.50895104324051, 7.4461948696789735, 7.492439090517486, 7.5714746518681, 7.589116432659555, 7.546451804674583, 7.680288269905054, 8.117102455907895, 8.818449135203268, 8.582045715664512, 7.13401205313851]</t>
+  </si>
+  <si>
+    <t>[40, 42, 41, 42, 49, 50, 50, 49, 49, 49, 50, 50, 49, 49, 49, 50, 50, 49, 48, 48, 47, 41, 25, 2, 2]</t>
+  </si>
+  <si>
+    <t>[87.52410888671875, 98.22119522094727, 104.9320707321167, 107.35777997970581, 102.40772128105164, 103.86936032772064, 104.89408701658249, 107.1950703561306, 107.01482586562634, 107.10459902137518, 106.18015767261386, 106.66171408258379, 107.25142169278115, 106.99831426283345, 107.09109705756418, 106.48822316562291, 106.81512026506243, 107.58795525887399, 107.95161808659032, 107.75001234377123, 109.26642558259118, 114.77132199844891, 128.5194815329769, 147.00294679065837, 138.7612833661849]</t>
+  </si>
+  <si>
+    <t>[135.5, 123.50602722167969, 117.18481922149658, 114.12163209915161, 112.43066906929016, 109.92493212223053, 108.41103917360306, 107.53180113434792, 107.44761843979359, 107.33942029625177, 107.28071497753263, 107.00557565130293, 106.91961025912315, 107.00256311753765, 107.0015009038616, 107.02389994228724, 106.88998074812116, 106.87126562735648, 107.05043803523586, 107.27573304807447, 107.39430287199866, 107.86233354964679, 109.58958066184732, 114.32205587962972, 122.49227860738688]</t>
+  </si>
+  <si>
+    <t>[200.0, 223.98794555664062, 236.63036155700684, 242.75673580169678, 246.13866186141968, 251.15013575553894, 254.17792165279388, 255.93639773130417, 256.1047631204128, 256.32115940749645, 256.43857004493475, 256.98884869739413, 257.1607794817537, 256.9948737649247, 256.9969981922768, 256.9522001154255, 257.2200385037577, 257.25746874528704, 256.8991239295283, 256.44853390385106, 256.2113942560027, 255.27533290070642, 251.82083867630536, 242.35588824074057, 226.01544278522624, 0]</t>
+  </si>
+  <si>
+    <t>[200.0, 176.01205444335938, 163.36963844299316, 157.24326419830322, 153.86133813858032, 148.84986424446106, 145.82207834720612, 144.06360226869583, 143.89523687958717, 143.67884059250355, 143.56142995506525, 143.01115130260587, 142.8392205182463, 143.0051262350753, 143.0030018077232, 143.0477998845745, 142.77996149624232, 142.74253125471296, 143.1008760704717, 143.55146609614894, 143.78860574399732, 144.72466709929358, 148.17916132369464, 157.64411175925943, 173.98455721477376, 0]</t>
+  </si>
+  <si>
+    <t>[3.497521128913606, 5.16329874954009, 6.354481194171274, 6.838820908612186, 6.411092879504865, 6.857844092962615, 7.273418283384093, 7.3459176733123375, 7.440818062698852, 7.511364200494755, 7.413273799532582, 7.527149235028228, 7.504178024592238, 7.552327648814438, 7.445708952945425, 7.464969097596304, 7.46661260400997, 7.436784543261078, 7.639071733660924, 7.637848034975489, 7.675067717915584, 8.147550334732365, 8.84058424785008, 8.511880769559038, 7.087231959366397]</t>
+  </si>
+  <si>
+    <t>[40, 42, 41, 41, 49, 50, 49, 50, 49, 49, 50, 49, 49, 49, 50, 50, 50, 50, 49, 48, 47, 40, 24, 2, 1]</t>
+  </si>
+  <si>
+    <t>[88.31631088256836, 98.1662187576294, 105.59400701522827, 107.92099261283875, 101.55027902126312, 103.45988148450851, 106.05737814307213, 106.22228114306927, 106.78934701532125, 107.35059944912791, 106.39641865156591, 107.31932501029223, 107.15710570430383, 107.65451587247662, 106.71404916548636, 106.77138081443263, 106.70095415538526, 106.32392297002662, 108.19417278872425, 108.55113931947199, 109.32359288361295, 115.26979815079085, 129.5047005966967, 147.03743454593746, 139.35248134920164]</t>
+  </si>
+  <si>
+    <t>[135.5, 123.70407772064209, 117.31961297988892, 114.38821148872375, 112.7714067697525, 109.96612483263016, 108.33956399559975, 107.76901753246784, 107.3823334351182, 107.23408683016896, 107.2632149849087, 107.046515901573, 107.11471817875281, 107.12531506014057, 107.25761526322458, 107.12172373879002, 107.03413800770068, 106.95084204462182, 106.79411227597302, 107.14412740416083, 107.49588038298862, 107.9528085081447, 109.78205591880624, 114.71271708827885, 122.7938964526935]</t>
+  </si>
+  <si>
+    <t>[200.0, 223.59184455871582, 236.36077404022217, 242.2235770225525, 245.457186460495, 251.06775033473969, 254.3208720088005, 255.46196493506432, 256.2353331297636, 256.5318263396621, 256.4735700301826, 256.906968196854, 256.7705636424944, 256.74936987971887, 256.48476947355084, 256.75655252241995, 256.93172398459865, 257.09831591075636, 257.41177544805396, 256.71174519167835, 256.00823923402277, 255.0943829837106, 251.43588816238753, 241.5745658234423, 225.412207094613, 0]</t>
+  </si>
+  <si>
+    <t>[200.0, 176.40815544128418, 163.63922595977783, 157.7764229774475, 154.542813539505, 148.93224966526031, 145.6791279911995, 144.53803506493568, 143.7646668702364, 143.46817366033792, 143.5264299698174, 143.093031803146, 143.22943635750562, 143.25063012028113, 143.51523052644916, 143.24344747758005, 143.06827601540135, 142.90168408924364, 142.58822455194604, 143.28825480832165, 143.99176076597723, 144.9056170162894, 148.56411183761247, 158.4254341765577, 174.587792905387, 0]</t>
+  </si>
+  <si>
+    <t>Continous_PPO-1691599297</t>
+  </si>
+  <si>
+    <t>[3.662978275290443, 5.511138597971935, 6.431308802472907, 5.997268115079301, 6.295636042890872, 6.90656329215418, 7.156522566585096, 7.331034784101713, 7.432946053029815, 7.4177453118119825, 7.499476781058959, 7.549749503831134, 7.729137080997406, 8.06378604393541, 8.192748859079208, 7.897559231694925, 7.637802888081285, 7.530819233446019, 7.420166277749018, 7.482985329203045, 7.390069768877723, 7.387556090729678, 7.448335508207011, 7.6950570687461735, 8.072712200597314]</t>
+  </si>
+  <si>
+    <t>[38, 36, 36, 47, 51, 51, 51, 51, 51, 51, 51, 50, 48, 44, 38, 37, 37, 37, 37, 36, 37, 37, 36, 32, 21]</t>
+  </si>
+  <si>
+    <t>[90.43069839477539, 103.17099285125732, 108.72220277786255, 100.58330464363098, 100.12978136539459, 103.39489060640335, 104.46153298020363, 105.35918159782887, 105.95537433773279, 105.65445547178388, 106.2580176834017, 106.75127465743572, 108.6733401180245, 112.93342508678325, 116.5642104834551, 115.84878710360499, 114.47597016618238, 114.0649885620951, 113.19133350681659, 114.14937959825693, 113.35418313103764, 113.35800358334109, 114.21110628385804, 118.1911520875467, 128.14474272315567]</t>
+  </si>
+  <si>
+    <t>[135.5, 124.23267459869385, 118.96725416183472, 116.40599131584167, 112.450319647789, 109.3701850771904, 107.87636145949364, 107.02265433967113, 106.60678615421057, 106.44393320009112, 106.24656376801431, 106.24942724686116, 106.3748890995048, 106.94950185413472, 108.44548266229685, 110.47516461758642, 111.81857023909106, 112.48292022086389, 112.87843730617169, 112.95666135633292, 113.25484091681392, 113.27967647036985, 113.29925824861266, 113.527220257424, 114.69320321495468]</t>
+  </si>
+  <si>
+    <t>[200.0, 222.5346508026123, 233.06549167633057, 238.18801736831665, 246.099360704422, 252.2596298456192, 255.24727708101273, 256.95469132065773, 257.78642769157887, 258.11213359981775, 258.5068724639714, 258.5011455062777, 258.2502218009904, 257.10099629173055, 254.1090346754063, 250.04967076482717, 247.36285952181788, 246.03415955827222, 245.24312538765662, 245.08667728733417, 244.49031816637216, 244.4406470592603, 244.40148350277468, 243.945559485152, 241.61359357009064, 0]</t>
+  </si>
+  <si>
+    <t>[200.0, 177.4653491973877, 166.93450832366943, 161.81198263168335, 153.900639295578, 147.7403701543808, 144.75272291898727, 143.04530867934227, 142.21357230842113, 141.88786640018225, 141.49312753602862, 141.49885449372232, 141.7497781990096, 142.89900370826945, 145.8909653245937, 149.95032923517283, 152.63714047818212, 153.96584044172778, 154.75687461234338, 154.91332271266583, 155.50968183362784, 155.5593529407397, 155.59851649722532, 156.054440514848, 158.38640642990936, 0]</t>
+  </si>
+  <si>
+    <t>[3.6612609421880333, 5.499250165399561, 6.439363450364617, 5.976289250188409, 6.304257131899299, 6.80892628430204, 7.189813104771474, 7.269602925016429, 7.434637411880031, 7.529213695969742, 7.462376791525849, 7.54634616781664, 7.746900873160834, 8.010423047711717, 8.244220492900615, 7.871311343500809, 7.7011157093922185, 7.5318527541592255, 7.455057523599931, 7.4393060698596, 7.413353790195329, 7.4412384246250225, 7.449136013325108, 7.650543319530634, 8.039239225211475]</t>
+  </si>
+  <si>
+    <t>[38, 36, 36, 47, 51, 52, 51, 52, 52, 51, 51, 51, 49, 44, 39, 38, 37, 37, 37, 37, 37, 36, 36, 32, 21]</t>
+  </si>
+  <si>
+    <t>[90.40814971923828, 103.00187110900879, 108.76683807373047, 100.33894157409668, 100.14742279052734, 102.40313339233398, 104.5179386138916, 104.58314514160156, 105.64553356170654, 106.41304063796997, 105.83967137336731, 106.57059252262115, 108.68680649995804, 112.18985119462013, 116.80649156868458, 115.28184876590967, 114.93452923372388, 113.96832510270178, 113.53554366249591, 113.6029444844462, 113.49003272806294, 114.00063541310374, 114.41252721735509, 117.76963812802569, 127.36901000486978]</t>
+  </si>
+  <si>
+    <t>[135.5, 124.22703742980957, 118.92074584960938, 116.38226890563965, 112.3714370727539, 109.31543350219727, 107.58735847473145, 106.82000350952148, 106.2607889175415, 106.10697507858276, 106.18349146842957, 106.097536444664, 106.21580046415329, 106.83355197310448, 108.17262677848339, 110.33109297603369, 111.56878192350268, 112.41021875105798, 112.79974533896893, 112.98369491985068, 113.13850731099956, 113.2263886652654, 113.41995035222499, 113.66809456850751, 114.69348045838706]</t>
+  </si>
+  <si>
+    <t>[200.0, 222.54592514038086, 233.15850830078125, 238.2354621887207, 246.2571258544922, 252.36913299560547, 255.8252830505371, 257.35999298095703, 258.478422164917, 258.7860498428345, 258.63301706314087, 258.804927110672, 258.5683990716934, 257.33289605379105, 254.65474644303322, 250.33781404793262, 247.86243615299463, 246.17956249788404, 245.40050932206213, 245.03261016029865, 244.72298537800089, 244.5472226694692, 244.16009929555003, 243.66381086298497, 241.61303908322589, 0]</t>
+  </si>
+  <si>
+    <t>[200.0, 177.45407485961914, 166.84149169921875, 161.7645378112793, 153.7428741455078, 147.63086700439453, 144.1747169494629, 142.64000701904297, 141.521577835083, 141.21395015716553, 141.36698293685913, 141.195072889328, 141.43160092830658, 142.66710394620895, 145.34525355696678, 149.66218595206738, 152.13756384700537, 153.82043750211596, 154.59949067793787, 154.96738983970135, 155.27701462199911, 155.4527773305308, 155.83990070444997, 156.33618913701503, 158.38696091677411, 0]</t>
+  </si>
+  <si>
+    <t>[3.592312352580353, 5.507706312763061, 6.426456855696533, 6.0483706854070665, 6.3215001869160945, 6.848551698817182, 7.200914696926443, 7.345170367013153, 7.415196044522234, 7.467996396608464, 7.503264340314068, 7.519741769306749, 7.748796473764124, 8.057858590378565, 8.198686002080008, 7.894249361703729, 7.615360257304697, 7.554016150017364, 7.435019909755584, 7.3959946311339015, 7.437424809618265, 7.441322474784711, 7.489888937354694, 7.647444801995349, 8.027803375055337]</t>
+  </si>
+  <si>
+    <t>[38, 37, 36, 47, 51, 51, 51, 51, 51, 51, 51, 51, 48, 44, 38, 37, 38, 37, 37, 38, 37, 37, 35, 32, 22]</t>
+  </si>
+  <si>
+    <t>[89.51362228393555, 102.83844089508057, 108.29749822616577, 100.85008978843689, 100.24985110759735, 102.75479310750961, 104.68351551890373, 105.38959310948849, 105.7099189683795, 106.0269365273416, 106.29809903912246, 106.47007250692695, 108.80992925120518, 112.85177344060503, 116.59598502505105, 115.78334026032826, 114.1393546089239, 114.21578593178128, 113.32730386219191, 112.99408196191871, 113.55525040020984, 113.83061229879877, 114.77684980479489, 117.71605971379881, 127.05999900362792]</t>
+  </si>
+  <si>
+    <t>[135.5, 124.00340557098389, 118.71216440200806, 116.10849785804749, 112.29389584064484, 109.28288465738297, 107.65086176991463, 106.9090252071619, 106.52916718274355, 106.32435512915254, 106.2500004786998, 106.26202511880547, 106.31403696583584, 106.93801003717817, 108.41645088803489, 110.46133442228893, 111.79183588179876, 112.37871556358004, 112.83798315563035, 112.96031333227074, 112.96875548968274, 113.11537921731451, 113.29418748768558, 113.6648530669629, 114.67765472867188]</t>
+  </si>
+  <si>
+    <t>[200.0, 222.99318885803223, 233.5756711959839, 238.78300428390503, 246.41220831871033, 252.43423068523407, 255.69827646017075, 257.1819495856762, 257.9416656345129, 258.3512897416949, 258.4999990426004, 258.47594976238906, 258.3719260683283, 257.12397992564365, 254.16709822393022, 250.07733115542214, 247.41632823640248, 246.2425688728399, 245.3240336887393, 245.0793733354585, 245.06248902063453, 244.76924156537098, 244.41162502462885, 243.6702938660742, 241.64469054265624, 0]</t>
+  </si>
+  <si>
+    <t>[200.0, 177.00681114196777, 166.4243288040161, 161.21699571609497, 153.58779168128967, 147.56576931476593, 144.30172353982925, 142.8180504143238, 142.0583343654871, 141.64871025830507, 141.5000009573996, 141.52405023761094, 141.62807393167168, 142.87602007435635, 145.83290177606978, 149.92266884457786, 152.58367176359752, 153.7574311271601, 154.6759663112607, 154.9206266645415, 154.93751097936547, 155.23075843462902, 155.58837497537115, 156.3297061339258, 158.35530945734376, 0]</t>
+  </si>
+  <si>
+    <t>CoA2C-1691594520</t>
+  </si>
+  <si>
+    <t>[5.102853063360162, 5.469849450832568, 5.652498277230277, 5.745010429138114, 5.791478608102743, 5.8147834127093585, 5.826453467479125, 5.83229284586162, 5.835213120410583, 5.836674317349313, 5.837404275048815, 5.83776928671704, 5.837952354564919, 5.838043606171858, 5.838088807776755, 5.838111874216531, 5.838123714203813, 5.838129167524488, 5.838132100428296, 5.838133764871779, 5.838135383899412, 5.838134281991441, 5.8381351028601225, 5.83813439361424, 5.8381347133904535]</t>
+  </si>
+  <si>
+    <t>[3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[125.43455767631531, 128.08853155374527, 129.31097027659416, 129.92487393319607, 130.23054956644773, 130.38339632377028, 130.45982399396598, 130.49804623331875, 130.51713315350935, 130.52670605829917, 130.53147766913753, 130.533852686116, 130.53505759916152, 130.53566255907936, 130.5359464423891, 130.53609154309015, 130.5361790542065, 130.5362089814871, 130.53622173975555, 130.53622001265808, 130.53627118396423, 130.53623531722855, 130.53626453113472, 130.53624361371953, 130.536242036104]</t>
+  </si>
+  <si>
+    <t>[135.5, 132.98363941907883, 131.75986245274544, 131.14763940870762, 130.84194803982973, 130.68909842148423, 130.61267289705575, 130.5744606712833, 130.55535706179217, 130.54580108472146, 130.5410273281159, 130.5386399133713, 130.53744310655748, 130.5368467297085, 130.5365506870512, 130.53639962588568, 130.5363226051868, 130.53628671744173, 130.53626728345307, 130.5362558975287, 130.53624692631104, 130.53625299072434, 130.5362485723504, 130.53625256204646, 130.53625032496473]</t>
+  </si>
+  <si>
+    <t>[200.0, 205.03272116184235, 207.48027509450912, 208.70472118258476, 209.31610392034054, 209.62180315703154, 209.7746542058885, 209.8510786574334, 209.88928587641567, 209.90839783055708, 209.91794534376822, 209.9227201732574, 209.92511378688505, 209.92630654058303, 209.9268986258976, 209.92720074822864, 209.9273547896264, 209.92742656511655, 209.92746543309386, 209.92748820494262, 209.92750614737793, 209.92749401855133, 209.92750285529922, 209.92749487590706, 209.92749935007052, 0]</t>
+  </si>
+  <si>
+    <t>[200.0, 194.96727883815765, 192.51972490549088, 191.29527881741524, 190.68389607965946, 190.37819684296846, 190.2253457941115, 190.1489213425666, 190.11071412358433, 190.09160216944292, 190.08205465623178, 190.0772798267426, 190.07488621311495, 190.07369345941697, 190.0731013741024, 190.07279925177136, 190.0726452103736, 190.07257343488345, 190.07253456690614, 190.07251179505738, 190.07249385262207, 190.07250598144867, 190.07249714470078, 190.07250512409294, 190.07250064992948, 0]</t>
+  </si>
+  <si>
+    <t>[5.102853267999401, 5.4698481094476, 5.652498321269065, 5.745010516769305, 5.791478652110777, 5.8147835649265875, 5.826453457280777, 5.832293634487129, 5.835214675121437, 5.836674534925514, 5.8374057813848665, 5.837769892921482, 5.837953079300471, 5.838043460887326, 5.838088537060245, 5.838111208324836, 5.838122409506233, 5.838128147693043, 5.838131335121026, 5.83813312082754, 5.838133964365528, 5.838134034007034, 5.838133560314229, 5.838134103582898, 5.838132916931303]</t>
+  </si>
+  <si>
+    <t>[125.43459105491638, 128.088505089283, 129.31096896529198, 129.92487405240536, 130.23054664582014, 130.38339617475867, 130.45980168692768, 130.49802548345178, 130.51715180603787, 130.5266751514282, 130.53148981265258, 130.53384862508392, 130.5350751785736, 130.53566848776245, 130.53596049319458, 130.53611126428223, 130.53618015291977, 130.53620965005302, 130.53622636557293, 130.53624056458807, 130.53625571072268, 130.53626602560365, 130.53624871209306, 130.53628046728693, 130.5362314354257]</t>
+  </si>
+  <si>
+    <t>[135.5, 132.9836477637291, 131.75986209511757, 131.14763881266117, 130.84194762259722, 130.68909737840295, 130.61267207749188, 130.57445447985083, 130.55534723075107, 130.54579837457277, 130.54101756878663, 130.53863562975312, 130.53743887858582, 130.53684795358276, 130.5365530871277, 130.5364049386444, 130.53633152005386, 130.53629367827034, 130.536272671216, 130.53626109480524, 130.53625596225095, 130.53625589936888, 130.53625843092757, 130.53625600121893, 130.53626211773593]</t>
+  </si>
+  <si>
+    <t>[200.0, 205.0327044725418, 207.48027580976486, 208.70472237467766, 209.31610475480556, 209.6218052431941, 209.77465584501624, 209.85109104029834, 209.88930553849787, 209.90840325085446, 209.91796486242674, 209.92272874049377, 209.92512224282837, 209.92630409283447, 209.92689382574463, 209.92719012271118, 209.92733695989227, 209.92741264345932, 209.92745465756798, 209.92747781038952, 209.9274880754981, 209.92748820126224, 209.92748313814485, 209.9274879975621, 209.9274757645281, 0]</t>
+  </si>
+  <si>
+    <t>[200.0, 194.9672955274582, 192.51972419023514, 191.29527762532234, 190.68389524519444, 190.3781947568059, 190.22534415498376, 190.14890895970166, 190.11069446150213, 190.09159674914554, 190.08203513757326, 190.07727125950623, 190.07487775717163, 190.07369590716553, 190.07310617425537, 190.07280987728882, 190.07266304010773, 190.07258735654068, 190.07254534243202, 190.07252218961048, 190.0725119245019, 190.07251179873776, 190.07251686185515, 190.0725120024379, 190.0725242354719, 0]</t>
+  </si>
+  <si>
+    <t>[5.102853129137304, 5.469849030044199, 5.652498317289857, 5.745009605005145, 5.791479683703909, 5.814784464889606, 5.826453236006921, 5.832292153794566, 5.8352120974856305, 5.8366740289122445, 5.837404481325252, 5.837769668021915, 5.837951089201571, 5.838043866310776, 5.838088756607126, 5.83811130143047, 5.838122701429384, 5.838128302321266, 5.838131814857758, 5.838133559501419, 5.838133885932813, 5.838133006662218, 5.838133218318065, 5.838134869606093, 5.838134343867532]</t>
+  </si>
+  <si>
+    <t>[125.43456840515137, 128.0885248184204, 129.31098520755768, 129.92483228445053, 130.23054745793343, 130.38342316448689, 130.45983806997538, 130.49805660918355, 130.5171200428158, 130.52669568825513, 130.53147695446387, 130.53388636303134, 130.53502937650774, 130.53567068028497, 130.53596147024655, 130.53610591155302, 130.5361804567874, 130.53620080168548, 130.53622629252823, 130.53625352187828, 130.53627720973827, 130.53625174116064, 130.53622148310626, 130.53626369374734, 130.536259109466]</t>
+  </si>
+  <si>
+    <t>[135.5, 132.98364210128784, 131.75986278057098, 131.14764338731766, 130.84194061160088, 130.689092323184, 130.61267503350973, 130.57446579262614, 130.5553634967655, 130.54580263327807, 130.54102589702234, 130.53863866138272, 130.53745058679488, 130.5368452842231, 130.53655163323856, 130.53640409249056, 130.53632954725617, 130.53629227463898, 130.5362694064006, 130.5362586279325, 130.53625735141895, 130.53626231599878, 130.53625967228925, 130.5362501249935, 130.53625351718196]</t>
+  </si>
+  <si>
+    <t>[200.0, 205.03271579742432, 207.48027443885803, 208.70471322536469, 209.31611877679825, 209.62181535363197, 209.77464993298054, 209.85106841474771, 209.889273006469, 209.90839473344386, 209.91794820595533, 209.92272267723456, 209.92509882641025, 209.92630943155382, 209.92689673352288, 209.9271918150189, 209.92734090548765, 209.92741545072204, 209.9274611871988, 209.92748274413498, 209.9274852971621, 209.92747536800243, 209.9274806554215, 209.927499750013, 209.92749296563608, 0]</t>
+  </si>
+  <si>
+    <t>[200.0, 194.96728420257568, 192.51972556114197, 191.29528677463531, 190.68388122320175, 190.37818464636803, 190.22535006701946, 190.14893158525229, 190.110726993531, 190.09160526655614, 190.08205179404467, 190.07727732276544, 190.07490117358975, 190.07369056844618, 190.07310326647712, 190.0728081849811, 190.07265909451235, 190.07258454927796, 190.0725388128012, 190.07251725586502, 190.0725147028379, 190.07252463199757, 190.0725193445785, 190.072500249987, 190.07250703436392, 0]</t>
+  </si>
+  <si>
+    <t>Continous_PPO-1691581298</t>
+  </si>
+  <si>
+    <t>[3.70546465166517, 5.305632001208463, 5.96586714358503, 5.978698368818198, 6.832121228273243, 6.825589403390066, 7.251609848139526, 7.408852765536987, 7.368928522639664, 7.532500653387745, 7.468798892125693, 7.489741587896306, 7.469949143711805, 7.520888644719094, 7.438452982143166, 7.52548018087382, 7.449640751807772, 7.522103710211121, 7.680800500318155, 8.530232880174744, 9.442042052177346, 7.87907576593925, 7.0935053708595515, 6.750129530889958, 6.568972460671836]</t>
+  </si>
+  <si>
+    <t>[37, 39, 43, 50, 49, 53, 52, 51, 52, 51, 52, 52, 52, 52, 52, 52, 52, 52, 50, 40, 12, 11, 11, 11, 10]</t>
+  </si>
+  <si>
+    <t>[90.99286270141602, 100.61968898773193, 102.23017454147339, 98.6350953578949, 103.64904391765594, 102.07359975576401, 104.64654490351677, 105.59389470517635, 105.01017367094755, 106.2863845191896, 105.75517365150154, 105.89214657153934, 105.6870820443146, 106.11526572308503, 105.38288253347855, 106.0842883278965, 105.42708621869679, 106.01476018851099, 107.62062224360852, 117.53080634580328, 142.87652435057498, 135.2854551779883, 130.35684773860658, 128.6391832706247, 127.81389390810898]</t>
+  </si>
+  <si>
+    <t>[135.5, 124.373215675354, 118.43483400344849, 114.38366913795471, 110.44652569293976, 108.7471552491188, 107.0787663757801, 106.47071100771427, 106.25150693207979, 105.94117361679673, 106.02747634239495, 105.9594006696716, 105.94258714513853, 105.87871086993255, 105.93784958322067, 105.79910782078514, 105.87040294756298, 105.75957376534643, 105.82337037113757, 106.27268333925531, 109.0872140908923, 117.53454165581297, 121.9722700363568, 124.06841446191925, 125.21110666409561]</t>
+  </si>
+  <si>
+    <t>[200.0, 222.253568649292, 234.13033199310303, 242.23266172409058, 250.10694861412048, 253.5056895017624, 256.8424672484398, 258.05857798457146, 258.4969861358404, 259.11765276640654, 258.9450473152101, 259.0811986606568, 259.11482570972294, 259.2425782601349, 259.12430083355866, 259.4017843584297, 259.25919410487404, 259.48085246930714, 259.35325925772486, 258.4546333214894, 252.8255718182154, 235.93091668837405, 227.0554599272864, 222.8631710761615, 220.57778667180878, 0]</t>
+  </si>
+  <si>
+    <t>[200.0, 177.746431350708, 165.86966800689697, 157.76733827590942, 149.89305138587952, 146.4943104982376, 143.1575327515602, 141.94142201542854, 141.50301386415958, 140.88234723359346, 141.0549526847899, 140.9188013393432, 140.88517429027706, 140.7574217398651, 140.87569916644134, 140.59821564157028, 140.74080589512596, 140.51914753069286, 140.64674074227514, 141.54536667851062, 147.1744281817846, 164.06908331162595, 172.9445400727136, 177.1368289238385, 179.42221332819122, 0]</t>
+  </si>
+  <si>
+    <t>[3.7199376706943004, 5.279519200222808, 6.007322846502648, 6.033917421805767, 6.78820428614141, 6.834028163565729, 7.20541446489861, 7.337992932590268, 7.429960570388072, 7.514089098514787, 7.451066102033724, 7.504481398067995, 7.450880201192454, 7.456017681585177, 7.575689105019528, 7.465065048363426, 7.534130833588408, 7.557817923058692, 7.696870718425604, 8.675770508712441, 9.290931693917129, 7.811456997323606, 7.079422650414088, 6.725358187560907, 6.542186441851274]</t>
+  </si>
+  <si>
+    <t>[37, 39, 42, 50, 49, 52, 52, 52, 52, 51, 52, 52, 52, 52, 51, 52, 52, 51, 49, 37, 12, 11, 11, 11, 11]</t>
+  </si>
+  <si>
+    <t>[91.18629837036133, 100.33970546722412, 102.67522859573364, 99.25163388252258, 103.41290819644928, 102.24247533082962, 104.3151835501194, 104.92327018082142, 105.44197795540094, 106.09623407199979, 105.53234230913222, 105.9406906934455, 105.44818481663242, 105.39765541185625, 106.45309635216836, 105.57541940716328, 106.16640900625498, 106.48253082759038, 107.99774467710085, 119.80458027006898, 141.9985349470462, 134.7125870135469, 130.50830513969277, 128.3524234629433, 126.79378952268564]</t>
+  </si>
+  <si>
+    <t>[135.5, 124.42157459259033, 118.40110731124878, 114.46963763237, 110.66513669490814, 108.85207957029343, 107.19967851042747, 106.47855477035046, 106.0897336229682, 105.92779470607638, 105.96990454755723, 105.86051398795098, 105.88055816432461, 105.77246482740156, 105.67876247351523, 105.87234594317852, 105.79811430917471, 105.89018798344478, 106.03827369448118, 106.5281414401361, 109.84725114761932, 117.88507209747604, 122.09195082649376, 124.19603940479351, 125.23513541933096]</t>
+  </si>
+  <si>
+    <t>[200.0, 222.15685081481934, 234.19778537750244, 242.06072473526, 249.66972661018372, 253.29584085941315, 256.60064297914505, 258.0428904592991, 258.8205327540636, 259.14441058784723, 259.06019090488553, 259.27897202409804, 259.2388836713508, 259.4550703451969, 259.64247505296953, 259.25530811364297, 259.4037713816506, 259.21962403311045, 258.92345261103765, 257.9437171197278, 251.30549770476136, 235.22985580504792, 226.81609834701248, 222.60792119041298, 220.52972916133808, 0]</t>
+  </si>
+  <si>
+    <t>[200.0, 177.84314918518066, 165.80221462249756, 157.93927526474, 150.33027338981628, 146.70415914058685, 143.39935702085495, 141.9571095407009, 141.1794672459364, 140.85558941215277, 140.93980909511447, 140.72102797590196, 140.76111632864922, 140.54492965480313, 140.35752494703047, 140.74469188635703, 140.59622861834941, 140.78037596688955, 141.07654738896235, 142.0562828802722, 148.69450229523864, 164.77014419495208, 173.18390165298752, 177.39207880958702, 179.47027083866192, 0]</t>
+  </si>
+  <si>
+    <t>[3.714399685117052, 5.269833807189738, 6.034719175957376, 5.985907440010953, 6.752992981378826, 6.893603724221746, 7.105865660029912, 7.3831103118745665, 7.428844597014907, 7.493957000477368, 7.536341382523573, 7.475759178226437, 7.495552453080835, 7.478568121805574, 7.563136395355197, 7.501861820267146, 7.494426345947725, 7.466621456187368, 7.597877108683497, 8.210957979881321, 9.573781663341437, 8.107588822549303, 7.244857231474549, 6.808772066894288, 6.57330469179041]</t>
+  </si>
+  <si>
+    <t>[37, 39, 42, 50, 50, 52, 53, 52, 52, 52, 52, 52, 52, 52, 51, 52, 52, 52, 51, 44, 15, 11, 11, 10, 11]</t>
+  </si>
+  <si>
+    <t>[91.11216354370117, 100.19614887237549, 102.94189500808716, 98.80059838294983, 102.97853863239288, 102.65466505289078, 103.34970191121101, 105.1115079075098, 105.29299855977297, 105.76277220621705, 106.16479903645813, 105.6766168186441, 105.82011230336502, 105.65752223902382, 106.42955209698994, 105.99319363577524, 105.93357706538518, 105.66233945127169, 106.86029398558458, 113.54721432982842, 140.81319037109097, 136.01234741523604, 131.61396060146262, 129.29005353528942, 127.58010896483404]</t>
+  </si>
+  <si>
+    <t>[135.5, 124.4030408859253, 118.35131788253784, 114.49896216392517, 110.57437121868134, 108.67541307210922, 107.17022606730461, 106.21509502828121, 105.93919824808836, 105.77764832600951, 105.7739292960614, 105.87164673116058, 105.82288925303146, 105.82219501561485, 105.7810268214671, 105.9431581403478, 105.95566701420466, 105.9501445269998, 105.87819325806777, 106.12371843994697, 107.97959241241733, 116.18799190208574, 121.14408078037332, 123.76155073564564, 125.14367643555659]</t>
+  </si>
+  <si>
+    <t>[200.0, 222.1939182281494, 234.29736423492432, 242.00207567214966, 249.85125756263733, 253.64917385578156, 256.6595478653908, 258.5698099434376, 259.1216035038233, 259.444703347981, 259.4521414078772, 259.25670653767884, 259.3542214939371, 259.3556099687703, 259.4379463570658, 259.1136837193044, 259.0886659715907, 259.0997109460004, 259.24361348386446, 258.75256312010606, 255.04081517516533, 238.62401619582852, 228.71183843925337, 223.47689852870872, 220.71264712888683, 0]</t>
+  </si>
+  <si>
+    <t>[200.0, 177.8060817718506, 165.70263576507568, 157.99792432785034, 150.14874243736267, 146.35082614421844, 143.34045213460922, 141.43019005656242, 140.87839649617672, 140.55529665201902, 140.5478585921228, 140.74329346232116, 140.64577850606292, 140.6443900312297, 140.5620536429342, 140.8863162806956, 140.91133402840933, 140.9002890539996, 140.75638651613554, 141.24743687989394, 144.95918482483467, 161.37598380417148, 171.28816156074663, 176.52310147129128, 179.28735287111317, 0]</t>
+  </si>
+  <si>
     <t>PPO-1691151543</t>
   </si>
   <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>myopic</t>
-  </si>
-  <si>
     <t>[3.59125, 5.368, 6.3555625, 6.370140625, 6.91706640625, 7.1970009765625, 7.338586181640625, 7.409783264160156, 7.445482925415039, 7.46335803604126, 7.472301911354065, 7.476775429010392, 7.479012582838536, 7.4801312585026025, 7.480690621022135, 7.4809703084537755, 7.4811101537125655, 7.481180076727702, 7.4812150383317055, 7.481232519157817, 7.481241259576899, 7.4812456297879475, 7.985247814893848, 7.190998924255403, 7.335561957925567]</t>
   </si>
   <si>
+    <t>3*[13, 13, 13, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 13, 15, 15]</t>
+  </si>
+  <si>
     <t>[89.5, 101.0, 106.75, 103.625, 106.5625, 108.03125, 108.765625, 109.1328125, 109.31640625, 109.408203125, 109.4541015625, 109.47705078125, 109.488525390625, 109.4942626953125, 109.49713134765625, 109.49856567382812, 109.49928283691406, 109.49964141845703, 109.49982070922852, 109.49991035461426, 109.49995517730713, 109.49997758865356, 115.49998879432678, 107.99999439716339, 108.7499971985817]</t>
   </si>
   <si>
@@ -120,6 +443,9 @@
     <t>[3.59125, 5.368, 6.3555625, 6.370140625, 6.91706640625, 7.1970009765625, 7.338586181640625, 7.409783264160156, 7.445482925415039, 7.46335803604126, 7.472301911354065, 7.476775429010392, 7.479012582838536, 7.4801312585026025, 7.480690621022135, 7.4809703084537755, 7.4811101537125655, 7.481180076727702, 7.4812150383317055, 7.481232519157817, 7.481241259576899, 7.4812456297879475, 7.481247814893848, 7.4812489074468935, 7.481249453723438]</t>
   </si>
   <si>
+    <t>3*[13, 13, 13, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15]</t>
+  </si>
+  <si>
     <t>[89.5, 101.0, 106.75, 103.625, 106.5625, 108.03125, 108.765625, 109.1328125, 109.31640625, 109.408203125, 109.4541015625, 109.47705078125, 109.488525390625, 109.4942626953125, 109.49713134765625, 109.49856567382812, 109.49928283691406, 109.49964141845703, 109.49982070922852, 109.49991035461426, 109.49995517730713, 109.49997758865356, 109.49998879432678, 109.49999439716339, 109.4999971985817]</t>
   </si>
   <si>
@@ -138,6 +464,9 @@
     <t>[5.07625, 5.5515625, 5.797140625, 5.92191015625, 5.9847900390625, 6.016353759765625, 6.032166564941407, 6.040080703735351, 6.044039707183838, 6.046019692420959, 6.04700980591774, 6.047504892885685, 6.047752443924546, 6.047876221332699, 6.047938110508956, 6.0479690552151295, 6.047984527597728, 6.047992263796405, 6.0479961318975874, 6.04799806594864, 6.047999032974281, 6.047999516487131, 6.047999758243564, 6.0479998791217815, 6.04799993956089]</t>
   </si>
   <si>
+    <t>3*[2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+  </si>
+  <si>
     <t>[122.5, 125.75, 127.375, 128.1875, 128.59375, 128.796875, 128.8984375, 128.94921875, 128.974609375, 128.9873046875, 128.99365234375, 128.996826171875, 128.9984130859375, 128.99920654296875, 128.99960327148438, 128.9998016357422, 128.9999008178711, 128.99995040893555, 128.99997520446777, 128.9999876022339, 128.99999380111694, 128.99999690055847, 128.99999845027924, 128.99999922513962, 128.9999996125698]</t>
   </si>
   <si>
@@ -156,6 +485,9 @@
     <t>[4.02325, 5.55325, 6.39325, 6.832, 7.0560625, 7.169265625, 7.22616015625, 7.2546806640625, 7.268959228515625, 7.276103088378906, 7.279676162719727, 7.281462985992432, 7.282356469154358, 7.282803228616714, 7.283026612818241, 7.283138306036592, 7.283194152925163, 7.283222076439299, 7.283236038213828, 7.283243019105459, 7.283246509552366, 7.283248254776092, 7.283249127388023, 7.283249563694006, 8.336249781847002]</t>
   </si>
   <si>
+    <t>3*[11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 2]</t>
+  </si>
+  <si>
     <t>[95.5, 105.5, 110.5, 113.0, 114.25, 114.875, 115.1875, 115.34375, 115.421875, 115.4609375, 115.48046875, 115.490234375, 115.4951171875, 115.49755859375, 115.498779296875, 115.4993896484375, 115.49969482421875, 115.49984741210938, 115.49992370605469, 115.49996185302734, 115.49998092651367, 115.49999046325684, 115.49999523162842, 115.49999761581421, 142.4999988079071]</t>
   </si>
   <si>
@@ -171,12 +503,18 @@
     <t>[4.02325, 5.55325, 6.39325, 6.832, 7.0560625, 7.169265625, 7.22616015625, 7.2546806640625, 7.268959228515625, 7.276103088378906, 7.279676162719727, 7.281462985992432, 7.282356469154358, 7.282803228616714, 7.283026612818241, 7.283138306036592, 7.283194152925163, 7.283222076439299, 7.283236038213828, 7.283243019105459, 7.283246509552366, 7.283248254776092, 7.283249127388023, 7.283249563694006, 7.283249781847002]</t>
   </si>
   <si>
+    <t>3*[11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11]</t>
+  </si>
+  <si>
     <t>[95.5, 105.5, 110.5, 113.0, 114.25, 114.875, 115.1875, 115.34375, 115.421875, 115.4609375, 115.48046875, 115.490234375, 115.4951171875, 115.49755859375, 115.498779296875, 115.4993896484375, 115.49969482421875, 115.49984741210938, 115.49992370605469, 115.49996185302734, 115.49998092651367, 115.49999046325684, 115.49999523162842, 115.49999761581421, 115.4999988079071]</t>
   </si>
   <si>
     <t>[4.02325, 5.55325, 6.39325, 6.832, 7.0560625, 7.169265625, 7.22616015625, 7.2546806640625, 7.268959228515625, 7.276103088378906, 7.279676162719727, 7.281462985992432, 7.282356469154358, 7.282803228616714, 7.283026612818241, 7.283138306036592, 7.283194152925163, 7.283222076439299, 7.283236038213828, 7.283243019105459, 7.283246509552366, 8.291248254776091, 6.2212491846084825, 6.74324957799912, 7.010999785423281]</t>
   </si>
   <si>
+    <t>3*[11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 3, 11, 11, 11]</t>
+  </si>
+  <si>
     <t>[95.5, 105.5, 110.5, 113.0, 114.25, 114.875, 115.1875, 115.34375, 115.421875, 115.4609375, 115.48046875, 115.490234375, 115.4951171875, 115.49755859375, 115.498779296875, 115.4993896484375, 115.49969482421875, 115.49984741210938, 115.49992370605469, 115.49996185302734, 115.49998092651367, 139.49999046325684, 109.49999523162842, 112.49999761581421, 113.9999988079071]</t>
   </si>
   <si>
@@ -198,6 +536,9 @@
     <t>[4.67125, 2.91325, 5.032, 6.2085625, 6.826140625, 7.14225390625, 7.3021416015625, 7.382543212890625, 9.375858459472656, 6.384882583618164, 6.916916934967041, 10.21229612827301, 5.2761138269901275, 6.3384983053803445, 6.8930782506614925, 7.176215149823576, 7.319245331034995, 7.391125854548299, 7.4271574745318505, 7.445196124080351, 7.454221158743781, 7.4587351035477925, 7.460992432817871, 7.46212118666993, 7.462685585900213]</t>
   </si>
   <si>
+    <t>3*[7, 19, 19, 19, 19, 19, 19, 19, 12, 19, 19, 5, 19, 19, 19, 19, 19, 19, 19, 19, 19, 19, 19, 19, 19]</t>
+  </si>
+  <si>
     <t>[107.5, 78.5, 91.0, 97.25, 100.375, 101.9375, 102.71875, 103.109375, 124.3046875, 98.15234375, 100.826171875, 144.1630859375, 92.33154296875, 97.915771484375, 100.7078857421875, 102.10394287109375, 102.80197143554688, 103.15098571777344, 103.32549285888672, 103.41274642944336, 103.45637321472168, 103.47818660736084, 103.48909330368042, 103.49454665184021, 103.4972733259201]</t>
   </si>
   <si>
@@ -213,6 +554,9 @@
     <t>[4.67125, 2.91325, 5.032, 6.2085625, 6.826140625, 7.14225390625, 7.3021416015625, 7.382543212890625, 7.422858459472656, 7.443044692993164, 7.453144962310791, 7.458196885108948, 7.460723293542862, 7.461986609518528, 7.462618295446038, 7.462934145394713, 7.46309207211528, 7.46317103591212, 7.463210517919681, 7.4632302589507455, 7.463240129473099, 7.463245064735981, 7.463247532367848, 7.463248766183889, 7.463249383091935]</t>
   </si>
   <si>
+    <t>3*[7, 19, 19, 19, 19, 19, 19, 19, 19, 19, 19, 19, 19, 19, 19, 19, 19, 19, 19, 19, 19, 19, 19, 19, 19]</t>
+  </si>
+  <si>
     <t>[107.5, 78.5, 91.0, 97.25, 100.375, 101.9375, 102.71875, 103.109375, 103.3046875, 103.40234375, 103.451171875, 103.4755859375, 103.48779296875, 103.493896484375, 103.4969482421875, 103.49847412109375, 103.49923706054688, 103.49961853027344, 103.49980926513672, 103.49990463256836, 103.49995231628418, 103.49997615814209, 103.49998807907104, 103.49999403953552, 103.49999701976776]</t>
   </si>
   <si>
@@ -231,6 +575,9 @@
     <t>[2.80825, 4.9635625, 6.183015625, 6.82819140625, 7.1596416015625, 7.327582275390625, 7.412106506347656, 7.454507095336914, 7.475742008209228, 7.486368119239807, 7.491683338403702, 7.494341488897801, 7.495670699372887, 7.496335338417441, 7.4966676663914695, 7.496833832491422, 9.476916916069634, 6.068211605116041, 6.768542515765705, 7.129255436184773, 7.312248762667867, 7.404404642477804, 7.450647386524869, 7.473809959583926, 9.348401546372335]</t>
   </si>
   <si>
+    <t>3*[16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 6, 16, 16, 16, 16, 16, 16, 16, 7]</t>
+  </si>
+  <si>
     <t>[80.5, 94.25, 101.125, 104.5625, 106.28125, 107.140625, 107.5703125, 107.78515625, 107.892578125, 107.9462890625, 107.97314453125, 107.986572265625, 107.9932861328125, 107.99664306640625, 107.99832153320312, 107.99916076660156, 137.99958038330078, 100.49979019165039, 104.2498950958252, 106.1249475479126, 107.0624737739563, 107.53123688697815, 107.76561844348907, 107.88280922174454, 134.94140461087227]</t>
   </si>
   <si>
@@ -246,6 +593,9 @@
     <t>[2.80825, 4.9635625, 6.183015625, 6.82819140625, 7.1596416015625, 7.327582275390625, 7.412106506347656, 9.758507095336913, 5.246320133209228, 6.335012650489807, 6.906844471216202, 7.1996317721009255, 7.347743270173669, 7.422228481117636, 7.459578452066518, 7.4782802789101845, 7.487637902674323, 7.49231839214197, 7.494659056272186, 7.495829493186394, 7.496414737855772, 7.4967073667435296, 7.496853682825676, 7.4969268412763155, 9.359963420604027]</t>
   </si>
   <si>
+    <t>3*[16, 16, 16, 16, 16, 16, 16, 0, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 7]</t>
+  </si>
+  <si>
     <t>[80.5, 94.25, 101.125, 104.5625, 106.28125, 107.140625, 107.5703125, 155.78515625, 95.892578125, 101.9462890625, 104.97314453125, 106.486572265625, 107.2432861328125, 107.62164306640625, 107.81082153320312, 107.90541076660156, 107.95270538330078, 107.97635269165039, 107.9881763458252, 107.9940881729126, 107.9970440864563, 107.99852204322815, 107.99926102161407, 107.99963051080704, 134.99981525540352]</t>
   </si>
   <si>
@@ -261,6 +611,9 @@
     <t>[2.80825, 4.9635625, 6.183015625, 6.82819140625, 7.1596416015625, 7.327582275390625, 9.392106506347655, 6.028979751586914, 6.748110172271729, 9.341835160255432, 5.490355030298233, 6.464978161871433, 6.973814242616296, 7.233613411728292, 7.364858278469183, 7.430817032385851, 7.46388048948074, 7.480433238062323, 7.48871486736165, 7.492856995763447, 7.4949283884023785, 7.495964166831353, 7.496482076573217, 7.496741036575994, 9.359870517860344]</t>
   </si>
   <si>
+    <t>3*[16, 16, 16, 16, 16, 16, 6, 16, 16, 3, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 7]</t>
+  </si>
+  <si>
     <t>[80.5, 94.25, 101.125, 104.5625, 106.28125, 107.140625, 137.5703125, 100.28515625, 104.142578125, 145.0712890625, 97.28564453125, 102.642822265625, 105.3214111328125, 106.66070556640625, 107.33035278320312, 107.66517639160156, 107.83258819580078, 107.91629409790039, 107.9581470489502, 107.9790735244751, 107.98953676223755, 107.99476838111877, 107.99738419055939, 107.9986920952797, 134.99934604763985]</t>
   </si>
   <si>
@@ -279,6 +632,9 @@
     <t>[5.10325, 5.467, 5.6535625, 5.748015625, 5.79553515625, 5.8193681640625, 5.831302978515625, 5.837274963378906, 5.840262100219727, 5.841755954742432, 5.842502953529358, 5.842876470804215, 5.843063233911991, 5.8431566165834665, 5.843203308198601, 5.843226654076018, 5.843238327032188, 5.843244163514639, 5.843247081756956, 5.8432485408783865, 5.843249270439171, 5.843249635219579, 5.843249817609789, 5.843249908804894, 5.843249954402447]</t>
   </si>
   <si>
+    <t>3*[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+  </si>
+  <si>
     <t>[125.5, 128.0, 129.25, 129.875, 130.1875, 130.34375, 130.421875, 130.4609375, 130.48046875, 130.490234375, 130.4951171875, 130.49755859375, 130.498779296875, 130.4993896484375, 130.49969482421875, 130.49984741210938, 130.4999237060547, 130.49996185302734, 130.49998092651367, 130.49999046325684, 130.49999523162842, 130.4999976158142, 130.4999988079071, 130.49999940395355, 130.49999970197678]</t>
   </si>
   <si>
@@ -297,6 +653,9 @@
     <t>[3.59125, 5.368, 6.3555625, 6.874140625, 7.13962890625, 7.2739228515625, 7.341457275390625, 7.375321350097656, 7.392277603149414, 7.400761783599854, 7.405005387306213, 7.407127567529678, 7.408188752233982, 7.4087193682342765, 6.90498468214646, 7.19086523486767, 7.335494590882445, 7.408231538803375, 7.444705580242226, 7.4629689928312475, 7.4721072970931575, 7.476678098715962, 9.494963911900328, 7.558980026038837, 6.673583280541586]</t>
   </si>
   <si>
+    <t>3*[13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 15, 15, 15, 15, 15, 15, 15, 15, 1, 1, 1]</t>
+  </si>
+  <si>
     <t>[89.5, 101.0, 106.75, 109.625, 111.0625, 111.78125, 112.140625, 112.3203125, 112.41015625, 112.455078125, 112.4775390625, 112.48876953125, 112.494384765625, 112.4971923828125, 106.49859619140625, 107.99929809570312, 108.74964904785156, 109.12482452392578, 109.31241226196289, 109.40620613098145, 109.45310306549072, 109.47655153274536, 151.48827576637268, 140.99413788318634, 135.74706894159317]</t>
   </si>
   <si>
@@ -312,6 +671,9 @@
     <t>[3.59125, 3.973, 7.03525, 7.65325, 7.03525, 7.22125, 7.315, 7.3620625, 7.385640625, 8.34244140625, 6.7088916015625, 7.055496337890625, 7.231479553222656, 7.320141372680664, 6.860639835357666, 7.168326462745666, 7.324133617639542, 7.402528155386448, 7.4418481643348935, 7.4615388538278635, 7.471391869829036, 7.476320295643294, 9.494784988003842, 7.5589001940682214, 6.673545772050685]</t>
   </si>
   <si>
+    <t>3*[13, 18, 13, 11, 13, 13, 13, 13, 13, 8, 13, 13, 13, 13, 15, 15, 15, 15, 15, 15, 15, 15, 1, 1, 1]</t>
+  </si>
+  <si>
     <t>[89.5, 86.0, 110.5, 117.5, 110.5, 111.5, 112.0, 112.25, 112.375, 127.4375, 108.71875, 110.609375, 111.5546875, 112.02734375, 106.263671875, 107.8818359375, 108.69091796875, 109.095458984375, 109.2977294921875, 109.39886474609375, 109.44943237304688, 109.47471618652344, 151.48735809326172, 140.99367904663086, 135.74683952331543]</t>
   </si>
   <si>
@@ -327,6 +689,9 @@
     <t>[3.59125, 5.368, 6.3555625, 6.631140625, 7.27978515625, 7.3443994140625, 7.376795166015625, 7.393015197753906, 7.401130752563477, 7.405189914703369, 7.407219841957092, 7.408234892129898, 7.408742438852787, 7.408996217623353, 6.905123108360916, 7.19093554698769, 7.335530021695653, 7.408249322898278, 9.325714489461753, 5.923833172917806, 6.685136957913747, 7.078842321820584, 9.29495837162622, 7.469533437904438, 6.631499031975051]</t>
   </si>
   <si>
+    <t>3*[13, 13, 13, 14, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 15, 15, 15, 15, 4, 15, 15, 15, 1, 1, 1]</t>
+  </si>
+  <si>
     <t>[89.5, 101.0, 106.75, 106.625, 111.8125, 112.15625, 112.328125, 112.4140625, 112.45703125, 112.478515625, 112.4892578125, 112.49462890625, 112.497314453125, 112.4986572265625, 106.49932861328125, 107.99966430664062, 108.74983215332031, 109.12491607666016, 142.31245803833008, 101.15622901916504, 105.32811450958252, 107.41405725479126, 150.45702862739563, 140.47851431369781, 135.4892571568489]</t>
   </si>
   <si>
@@ -345,6 +710,9 @@
     <t>[3.34825, 4.7100625, 6.045390625, 6.75666015625, 7.1231962890625, 7.309189697265625, 7.402867736816407, 7.449877090454102, 7.473424350738525, 7.485208626747132, 7.491103426218033, 7.494051491320133, 7.495525690212846, 7.496262831244618, 7.496631412156858, 7.496815705212066, 7.496907852389442, 7.4969539261405735, 7.49697696305675, 7.4969884815249905, 7.496994240761649, 7.496997120380613, 7.496998560190254, 7.496999280095114, 7.496999640047554]</t>
   </si>
   <si>
+    <t>3*[14, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16]</t>
+  </si>
+  <si>
     <t>[86.5, 92.75, 100.375, 104.1875, 106.09375, 107.046875, 107.5234375, 107.76171875, 107.880859375, 107.9404296875, 107.97021484375, 107.985107421875, 107.9925537109375, 107.99627685546875, 107.99813842773438, 107.99906921386719, 107.9995346069336, 107.9997673034668, 107.9998836517334, 107.9999418258667, 107.99997091293335, 107.99998545646667, 107.99999272823334, 107.99999636411667, 107.99999818205833]</t>
   </si>
   <si>
@@ -363,6 +731,9 @@
     <t>[5.11225, 5.3655625, 5.494515625, 5.55956640625, 5.5922353515625, 5.608605712890625, 5.6167998657226565, 5.620899185180664, 5.622949405670166, 5.623974656105042, 5.62448731637001, 5.6247436552643775, 5.624871826902032, 5.624935913268477, 5.624967956588604, 5.624983978282893, 4.103991989138595, 7.182557973862408, 6.38001349210757, 5.9965653723478765, 5.809297342747461, 5.716777335517111, 3.645795833794401, 7.46536493339343, 6.512679108327138]</t>
   </si>
   <si>
+    <t>3*[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 13, 0, 0, 0, 0, 0, 15, 0, 0]</t>
+  </si>
+  <si>
     <t>[128.5, 130.25, 131.125, 131.5625, 131.78125, 131.890625, 131.9453125, 131.97265625, 131.986328125, 131.9931640625, 131.99658203125, 131.998291015625, 131.9991455078125, 131.99957275390625, 131.99978637695312, 131.99989318847656, 92.99994659423828, 141.74997329711914, 136.87498664855957, 134.43749332427979, 133.2187466621399, 132.60937333106995, 87.30468666553497, 143.4023433327675, 137.70117166638374]</t>
   </si>
   <si>
@@ -375,24 +746,15 @@
     <t>[200.0, 196.5, 194.75, 193.875, 193.4375, 193.21875, 193.109375, 193.0546875, 193.02734375, 193.013671875, 193.0068359375, 193.00341796875, 193.001708984375, 193.0008544921875, 193.00042724609375, 193.00021362304688, 193.00010681152344, 173.50005340576172, 183.25002670288086, 188.12501335144043, 190.56250667572021, 191.7812533378601, 192.39062666893005, 170.19531333446503, 181.5976566672325, 0]</t>
   </si>
   <si>
-    <t>[5.11225, 5.3655625, 5.494515625, 5.55956640625, 5.5922353515625, 5.608605712890625, 5.6167998657226565, 5.620899185180664, 5.622949405670166, 5.623974656105042, 5.62448731637001, 5.6247436552643775, 5.624871826902032, 5.624935913268477, 5.624967956588604, 5.624983978282893, 5.624991989138595, 5.624995994568584, 5.6249979972841135, 5.624998998642012, 5.624999499320995, 5.624999749660494, 5.624999874830247, 5.624999937415123, 5.624999968707561]</t>
-  </si>
-  <si>
-    <t>[128.5, 130.25, 131.125, 131.5625, 131.78125, 131.890625, 131.9453125, 131.97265625, 131.986328125, 131.9931640625, 131.99658203125, 131.998291015625, 131.9991455078125, 131.99957275390625, 131.99978637695312, 131.99989318847656, 131.99994659423828, 131.99997329711914, 131.99998664855957, 131.99999332427979, 131.9999966621399, 131.99999833106995, 131.99999916553497, 131.9999995827675, 131.99999979138374]</t>
-  </si>
-  <si>
-    <t>[135.5, 133.75, 132.875, 132.4375, 132.21875, 132.109375, 132.0546875, 132.02734375, 132.013671875, 132.0068359375, 132.00341796875, 132.001708984375, 132.0008544921875, 132.00042724609375, 132.00021362304688, 132.00010681152344, 132.00005340576172, 132.00002670288086, 132.00001335144043, 132.00000667572021, 132.0000033378601, 132.00000166893005, 132.00000083446503, 132.0000004172325, 132.00000020861626]</t>
-  </si>
-  <si>
-    <t>[200.0, 203.5, 205.25, 206.125, 206.5625, 206.78125, 206.890625, 206.9453125, 206.97265625, 206.986328125, 206.9931640625, 206.99658203125, 206.998291015625, 206.9991455078125, 206.99957275390625, 206.99978637695312, 206.99989318847656, 206.99994659423828, 206.99997329711914, 206.99998664855957, 206.99999332427979, 206.9999966621399, 206.99999833106995, 206.99999916553497, 206.9999995827675, 0]</t>
-  </si>
-  <si>
-    <t>[200.0, 196.5, 194.75, 193.875, 193.4375, 193.21875, 193.109375, 193.0546875, 193.02734375, 193.013671875, 193.0068359375, 193.00341796875, 193.001708984375, 193.0008544921875, 193.00042724609375, 193.00021362304688, 193.00010681152344, 193.00005340576172, 193.00002670288086, 193.00001335144043, 193.00000667572021, 193.0000033378601, 193.00000166893005, 193.00000083446503, 193.0000004172325, 0]</t>
+    <t>3*[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
   </si>
   <si>
     <t>[5.11225, 5.3655625, 5.494515625, 5.55956640625, 5.5922353515625, 5.608605712890625, 5.6167998657226565, 5.620899185180664, 5.622949405670166, 4.894974656105042, 6.682503673791885, 6.142372744619847, 5.880841599240899, 5.752209606353193, 5.688427004859783, 5.656669052850688, 5.640823414030543, 5.632908928916572, 5.62895376993361, 5.626976711335637, 5.625988312260026, 5.625494145278065, 5.625247069926045, 5.625123534284776, 5.625061766972826]</t>
   </si>
   <si>
+    <t>3*[0, 0, 0, 0, 0, 0, 0, 0, 0, 9, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
     <t>[128.5, 130.25, 131.125, 131.5625, 131.78125, 131.890625, 131.9453125, 131.97265625, 131.986328125, 104.9931640625, 138.74658203125, 135.373291015625, 133.6866455078125, 132.84332275390625, 132.42166137695312, 132.21083068847656, 132.10541534423828, 132.05270767211914, 132.02635383605957, 132.01317691802979, 132.0065884590149, 132.00329422950745, 132.00164711475372, 132.00082355737686, 132.00041177868843]</t>
   </si>
   <si>
@@ -414,6 +776,9 @@
     <t>[3.08725, 4.83625, 6.1140625, 6.792390625, 7.14141015625, 7.3183837890625, 7.407486572265625, 7.4521919555664065, 7.474583145141602, 7.4857883644104, 7.4913933801651, 7.494196489572525, 7.495598194658756, 7.496299084797502, 7.496649539265782, 7.496824768849648, 7.496912384229014, 7.4969561920655545, 7.4969780960205386, 7.49698904800721, 7.49699452400284, 7.775997262001229, 8.564061141371774, 7.912264969021094, 8.683909834094349]</t>
   </si>
   <si>
+    <t>3*[15, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 15, 11, 11, 0]</t>
+  </si>
+  <si>
     <t>[83.5, 93.5, 100.75, 104.375, 106.1875, 107.09375, 107.546875, 107.7734375, 107.88671875, 107.943359375, 107.9716796875, 107.98583984375, 107.992919921875, 107.9964599609375, 107.99822998046875, 107.99911499023438, 107.99955749511719, 107.9997787475586, 107.9998893737793, 107.99994468688965, 107.99997234344482, 110.99998617172241, 122.2499930858612, 118.8749965429306, 150.1874982714653]</t>
   </si>
   <si>
@@ -429,6 +794,9 @@
     <t>[3.08725, 5.61925, 5.70625, 6.5790625, 7.032390625, 7.26328515625, 7.3797900390625, 7.438306884765625, 7.467631408691406, 7.482310195922851, 7.489653720855713, 7.493326516151428, 7.495163172006607, 7.496081564486027, 7.496540776863694, 7.496770387087017, 7.4968851932073015, 8.036942596519598, 7.202221733114275, 7.349048257833012, 7.422883476735475, 7.7389065753224795, 7.870647635489784, 8.335161473996957, 8.89042688000389]</t>
   </si>
   <si>
+    <t>3*[15, 13, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 14, 16, 16, 16, 15, 14, 11, 0]</t>
+  </si>
+  <si>
     <t>[83.5, 102.5, 98.5, 103.25, 105.625, 106.8125, 107.40625, 107.703125, 107.8515625, 107.92578125, 107.962890625, 107.9814453125, 107.99072265625, 107.995361328125, 107.9976806640625, 107.99884033203125, 107.99942016601562, 113.99971008300781, 106.4998550415039, 107.24992752075195, 107.62496376037598, 110.81248188018799, 113.156240940094, 121.078120470047, 151.2890602350235]</t>
   </si>
   <si>
@@ -444,6 +812,9 @@
     <t>[3.08725, 4.83625, 6.1140625, 6.792390625, 7.14141015625, 7.3183837890625, 7.407486572265625, 7.4521919555664065, 7.474583145141602, 7.4857883644104, 7.4913933801651, 7.494196489572525, 7.495598194658756, 7.496299084797502, 7.496649539265782, 7.496824768849648, 7.496912384229014, 7.4969561920655545, 7.4969780960205386, 7.49698904800721, 9.575994524002839, 7.146559990167809, 7.214764364898253, 8.013972024902714, 7.683617861028764]</t>
   </si>
   <si>
+    <t>3*[15, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 5, 11, 11, 6, 0]</t>
+  </si>
+  <si>
     <t>[83.5, 93.5, 100.75, 104.375, 106.1875, 107.09375, 107.546875, 107.7734375, 107.88671875, 107.943359375, 107.9716796875, 107.98583984375, 107.992919921875, 107.9964599609375, 107.99822998046875, 107.99911499023438, 107.99955749511719, 107.9997787475586, 107.9998893737793, 107.99994468688965, 140.99997234344482, 114.74998617172241, 115.1249930858612, 130.3124965429306, 144.6562482714653]</t>
   </si>
   <si>
@@ -462,6 +833,9 @@
     <t>[3.59125, 5.368, 6.3555625, 6.631140625, 7.03678515625, 7.2431962890625, 7.347299072265625, 7.399574768066406, 7.425768692016602, 7.43887967300415, 7.445438668251038, 7.448719042062759, 7.45035944801569, 7.451179705753923, 7.451589848313481, 7.45179492301587, 7.451897461222718, 7.451948730540054, 7.451974365252201, 7.451987182621644, 7.451993591309708, 7.451996795654575, 7.451998397827219, 7.451999198913591, 7.451999599456792]</t>
   </si>
   <si>
+    <t>3*[13, 13, 13, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14]</t>
+  </si>
+  <si>
     <t>[89.5, 101.0, 106.75, 106.625, 108.8125, 109.90625, 110.453125, 110.7265625, 110.86328125, 110.931640625, 110.9658203125, 110.98291015625, 110.991455078125, 110.9957275390625, 110.99786376953125, 110.99893188476562, 110.99946594238281, 110.9997329711914, 110.9998664855957, 110.99993324279785, 110.99996662139893, 110.99998331069946, 110.99999165534973, 110.99999582767487, 110.99999791383743]</t>
   </si>
   <si>
@@ -480,6 +854,9 @@
     <t>[5.03125, 5.61925, 5.92525, 6.08125, 6.16, 6.1995625, 6.219390625, 6.22931640625, 6.2342822265625, 6.236765869140625, 6.238007873535156, 6.238628921508789, 6.238939456939697, 6.239094727516174, 6.2391723635196685, 6.23921118170023, 6.239230590835214, 6.2392402954138815, 6.23924514770601, 5.420247573852772, 7.101561206817685, 6.663514998435988, 5.009659847974781, 7.602617996871472, 6.4093028988093135]</t>
   </si>
   <si>
+    <t>3*[3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 10, 3, 3, 13, 3, 8]</t>
+  </si>
+  <si>
     <t>[119.5, 123.5, 125.5, 126.5, 127.0, 127.25, 127.375, 127.4375, 127.46875, 127.484375, 127.4921875, 127.49609375, 127.498046875, 127.4990234375, 127.49951171875, 127.499755859375, 127.4998779296875, 127.49993896484375, 127.49996948242188, 106.49998474121094, 132.74999237060547, 130.12499618530273, 98.81249809265137, 135.65624904632568, 116.57812452316284]</t>
   </si>
   <si>
@@ -495,6 +872,9 @@
     <t>[5.03125, 5.61925, 5.92525, 6.08125, 5.665, 6.808, 6.5205625, 6.379140625, 6.30900390625, 4.5910791015625, 7.638269775390625, 6.921290100097656, 6.575902603149414, 6.406484439849853, 6.322594254493714, 6.280853885889053, 6.260034882605076, 6.249638176217675, 6.244443021837622, 6.241846244351007, 6.240548055533552, 6.239899011106289, 6.239574501388022, 6.239412249652731, 5.744331124566045]</t>
   </si>
   <si>
+    <t>3*[3, 3, 3, 3, 8, 3, 3, 3, 3, 14, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 8]</t>
+  </si>
+  <si>
     <t>[119.5, 123.5, 125.5, 126.5, 112.0, 131.0, 129.25, 128.375, 127.9375, 94.71875, 135.859375, 131.6796875, 129.58984375, 128.544921875, 128.0224609375, 127.76123046875, 127.630615234375, 127.5653076171875, 127.53265380859375, 127.51632690429688, 127.50816345214844, 127.50408172607422, 127.50204086303711, 127.50102043151855, 112.50051021575928]</t>
   </si>
   <si>
@@ -510,6 +890,9 @@
     <t>[5.03125, 5.61925, 5.92525, 6.08125, 6.16, 6.1995625, 6.219390625, 6.22931640625, 3.0662822265625, 8.288390869140626, 6.012914123535157, 7.883865249633789, 7.037811038970947, 6.632593873023986, 6.4344377748966215, 6.336472847044468, 6.287768663421273, 6.263486141685396, 5.756362273336388, 6.855902717381949, 6.543988988824247, 6.390722651945442, 6.31476211535605, 6.276950005023857, 5.763085989348387]</t>
   </si>
   <si>
+    <t>3*[3, 3, 3, 3, 3, 3, 3, 3, 19, 3, 12, 3, 3, 3, 3, 3, 3, 3, 8, 3, 3, 3, 3, 3, 8]</t>
+  </si>
+  <si>
     <t>[119.5, 123.5, 125.5, 126.5, 127.0, 127.25, 127.375, 127.4375, 79.46875, 139.484375, 106.4921875, 137.24609375, 132.373046875, 129.9365234375, 128.71826171875, 128.109130859375, 127.8045654296875, 127.65228271484375, 112.57614135742188, 131.28807067871094, 129.39403533935547, 128.44701766967773, 127.97350883483887, 127.73675441741943, 112.61837720870972]</t>
   </si>
   <si>
@@ -528,6 +911,9 @@
     <t>[5.10325, 5.467, 5.6535625, 5.532015625, 5.69466015625, 6.8955712890625, 5.638541259765625, 6.3519595336914065, 6.875870742797852, 7.501321201324463, 6.430468483924866, 6.154648126840591, 6.7026749711632725, 6.6507225147634745, 6.82087136355415, 6.753688208320178, 7.080471635515103, 7.036673000736686, 7.365820796113127, 6.6171870095980445, 6.80389738888175, 6.898149665461557, 6.945500075485949, 6.816231348431767, 7.11207097024636]</t>
   </si>
   <si>
+    <t>3*[1, 1, 1, 5, 8, 1, 9, 9, 8, 1, 5, 8, 7, 8, 8, 9, 8, 8, 5, 8, 8, 8, 8, 9, 8]</t>
+  </si>
+  <si>
     <t>[125.5, 128.0, 129.25, 117.875, 112.1875, 137.09375, 109.796875, 114.1484375, 119.32421875, 140.662109375, 123.5810546875, 115.04052734375, 120.520263671875, 118.0101318359375, 119.00506591796875, 116.50253295898438, 120.50126647949219, 120.2506332397461, 129.12531661987305, 117.81265830993652, 118.90632915496826, 119.45316457748413, 119.72658228874207, 116.86329114437103, 120.68164557218552]</t>
   </si>
   <si>
@@ -543,6 +929,9 @@
     <t>[5.10325, 5.467, 5.6535625, 5.613015625, 5.57644140625, 6.2663916015625, 6.625113525390625, 6.807911193847656, 6.900169204711914, 7.513513004302978, 6.085205887794495, 6.963856647729874, 6.255692433416844, 6.619624402299523, 5.617131747547537, 7.697131569699384, 5.8921518041680105, 8.117546392967052, 7.5455413261775535, 7.266837695512284, 7.129310605862019, 7.0610032424574785, 7.026963606110357, 7.009972299275582, 7.001483773692892]</t>
   </si>
   <si>
+    <t>3*[1, 1, 1, 4, 8, 8, 8, 8, 8, 1, 8, 4, 8, 8, 14, 8, 15, 8, 8, 8, 8, 8, 8, 8, 8]</t>
+  </si>
+  <si>
     <t>[125.5, 128.0, 129.25, 120.875, 111.4375, 115.71875, 117.859375, 118.9296875, 119.46484375, 140.732421875, 114.6162109375, 129.30810546875, 115.654052734375, 117.8270263671875, 100.91351318359375, 123.95675659179688, 100.97837829589844, 126.23918914794922, 123.11959457397461, 121.5597972869873, 120.77989864349365, 120.38994932174683, 120.19497466087341, 120.0974873304367, 120.04874366521835]</t>
   </si>
   <si>
@@ -558,6 +947,9 @@
     <t>[5.10325, 5.467, 5.6535625, 5.028015625, 6.17878515625, 6.5801025390625, 6.785103759765625, 7.455690002441406, 6.624975234985351, 6.227988925933838, 5.467088540077209, 6.055594888925552, 6.723024088442326, 6.857399210587144, 6.925046396885067, 6.958984896340407, 6.975982872644672, 6.984489042440953, 6.988743922750131, 6.990871811757479, 6.991935868474343, 6.992467924886072, 6.992733960105261, 6.992866979468188, 6.992933489587982]</t>
   </si>
   <si>
+    <t>3*[1, 1, 1, 9, 8, 8, 8, 1, 1, 1, 8, 9, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8]</t>
+  </si>
+  <si>
     <t>[125.5, 128.0, 129.25, 105.875, 115.1875, 117.59375, 118.796875, 140.3984375, 135.44921875, 132.974609375, 110.7373046875, 112.36865234375, 118.434326171875, 119.2171630859375, 119.60858154296875, 119.80429077148438, 119.90214538574219, 119.9510726928711, 119.97553634643555, 119.98776817321777, 119.99388408660889, 119.99694204330444, 119.99847102165222, 119.99923551082611, 119.99961775541306]</t>
   </si>
   <si>
@@ -576,6 +968,9 @@
     <t>[4.53625, 5.7045625, 6.333765625, 6.65962890625, 6.8253759765625, 6.908953369140625, 6.950918029785156, 6.971944351196289, 6.037468509674072, 6.709068787574768, 7.055586776971817, 7.231525234282016, 7.320164328590035, 7.364651342157274, 7.386936715544201, 7.3980898688884915, 7.403669062223344, 7.4064593130564464, 7.4078546020144165, 7.408552287378757, 7.408901140282265, 7.409075569289355, 7.409162784431732, 8.35420639216263, 8.235541561303931]</t>
   </si>
   <si>
+    <t>3*[8, 8, 8, 8, 8, 8, 8, 8, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 8, 0]</t>
+  </si>
+  <si>
     <t>[104.5, 112.25, 116.125, 118.0625, 119.03125, 119.515625, 119.7578125, 119.87890625, 104.939453125, 108.7197265625, 110.60986328125, 111.554931640625, 112.0274658203125, 112.26373291015625, 112.38186645507812, 112.44093322753906, 112.47046661376953, 112.48523330688477, 112.49261665344238, 112.49630832672119, 112.4981541633606, 112.4990770816803, 112.49953854084015, 127.49976927042007, 147.74988463521004]</t>
   </si>
   <si>
@@ -591,12 +986,18 @@
     <t>[4.53625, 5.7045625, 6.333765625, 6.65962890625, 6.8253759765625, 6.908953369140625, 6.950918029785156, 6.971944351196289, 6.037468509674072, 6.709068787574768, 7.055586776971817, 7.231525234282016, 7.320164328590035, 7.364651342157274, 7.386936715544201, 7.3980898688884915, 7.403669062223344, 7.4064593130564464, 7.4078546020144165, 7.408552287378757, 7.408901140282265, 7.409075569289355, 7.409162784431732, 8.35420639216263, 8.09154156130393]</t>
   </si>
   <si>
+    <t>3*[8, 8, 8, 8, 8, 8, 8, 8, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 8, 4]</t>
+  </si>
+  <si>
     <t>[104.5, 112.25, 116.125, 118.0625, 119.03125, 119.515625, 119.7578125, 119.87890625, 104.939453125, 108.7197265625, 110.60986328125, 111.554931640625, 112.0274658203125, 112.26373291015625, 112.38186645507812, 112.44093322753906, 112.47046661376953, 112.48523330688477, 112.49261665344238, 112.49630832672119, 112.4981541633606, 112.4990770816803, 112.49953854084015, 127.49976927042007, 135.74988463521004]</t>
   </si>
   <si>
     <t>[4.53625, 5.7045625, 6.333765625, 6.65962890625, 6.8253759765625, 6.908953369140625, 6.950918029785156, 6.971944351196289, 7.414468509674072, 5.529914978981018, 6.4418608248233795, 6.918624996244907, 7.162204894080758, 7.285294296029955, 7.347163860262372, 7.378179858193034, 7.393708161111979, 7.401477388559855, 7.405363271280894, 7.407306529890689, 7.408278238507904, 7.408764112644592, 7.4090070546699565, 8.354128526921894, 8.235504173545992]</t>
   </si>
   <si>
+    <t>3*[8, 8, 8, 8, 8, 8, 8, 8, 4, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 8, 0]</t>
+  </si>
+  <si>
     <t>[104.5, 112.25, 116.125, 118.0625, 119.03125, 119.515625, 119.7578125, 119.87890625, 131.939453125, 101.9697265625, 107.23486328125, 109.867431640625, 111.1837158203125, 111.84185791015625, 112.17092895507812, 112.33546447753906, 112.41773223876953, 112.45886611938477, 112.47943305969238, 112.48971652984619, 112.4948582649231, 112.49742913246155, 112.49871456623077, 127.49935728311539, 147.7496786415577]</t>
   </si>
   <si>
@@ -615,6 +1016,9 @@
     <t>[4.96825, 5.3730625, 6.315765625, 6.23184765625, 6.5469150390625, 6.707174072265625, 6.787984924316406, 6.828560684204102, 6.848891147613525, 6.859067025184632, 6.864157625436783, 6.866703590929508, 6.867976740017533, 6.868613356146962, 6.86893167460803, 6.8690908364376515, 6.869170418002235, 6.86921020894697, 6.869230104459948, 6.86924005222659, 6.8692450261124485, 6.869247513056013, 6.869248756527954, 6.869249378263964, 5.546249689131979]</t>
   </si>
   <si>
+    <t>3*[4, 7, 5, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 14]</t>
+  </si>
+  <si>
     <t>[116.5, 112.25, 122.875, 117.6875, 119.59375, 120.546875, 121.0234375, 121.26171875, 121.380859375, 121.4404296875, 121.47021484375, 121.485107421875, 121.4925537109375, 121.49627685546875, 121.49813842773438, 121.49906921386719, 121.4995346069336, 121.4997673034668, 121.4998836517334, 121.4999418258667, 121.49997091293335, 121.49998545646667, 121.49999272823334, 121.49999636411667, 100.49999818205833]</t>
   </si>
   <si>
@@ -630,6 +1034,9 @@
     <t>[3.59125, 6.448, 6.6570625, 6.762765625, 6.81591015625, 6.8425556640625, 6.855896728515625, 6.862571838378906, 4.390910537719726, 8.346231540679932, 7.590765404701233, 7.225763860940933, 7.046445970118046, 6.957582744970917, 6.913350062463433, 6.89128345372621, 6.880262582486728, 6.87475525514927, 6.872002368551112, 6.870626119519675, 6.869938043570867, 6.869594017738191, 6.869422007857286, 6.86933600367569, 5.546293001774607]</t>
   </si>
   <si>
+    <t>3*[13, 7, 7, 7, 7, 7, 7, 7, 18, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 14]</t>
+  </si>
+  <si>
     <t>[89.5, 119.0, 120.25, 120.875, 121.1875, 121.34375, 121.421875, 121.4609375, 88.48046875, 129.740234375, 125.6201171875, 123.56005859375, 122.530029296875, 122.0150146484375, 121.75750732421875, 121.62875366210938, 121.56437683105469, 121.53218841552734, 121.51609420776367, 121.50804710388184, 121.50402355194092, 121.50201177597046, 121.50100588798523, 121.50050294399261, 100.50025147199631]</t>
   </si>
   <si>
@@ -645,6 +1052,9 @@
     <t>[4.96825, 5.3730625, 6.099765625, 6.47916015625, 6.6728681640625, 6.770724853515625, 6.819903869628906, 6.844556045532227, 6.856897800445557, 6.863072594642639, 6.866160970926285, 6.867705403864384, 6.868477681532502, 6.868863835666328, 6.869056916558184, 6.869153457960347, 6.869201728900487, 6.869225864430322, 6.86923793221018, 6.869243966103845, 6.869246983051611, 4.061248491525728, 8.489249166369458, 7.65899960303307, 5.936062306478621]</t>
   </si>
   <si>
+    <t>3*[4, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 19, 7, 7, 14]</t>
+  </si>
+  <si>
     <t>[116.5, 112.25, 116.875, 119.1875, 120.34375, 120.921875, 121.2109375, 121.35546875, 121.427734375, 121.4638671875, 121.48193359375, 121.490966796875, 121.4954833984375, 121.49774169921875, 121.49887084960938, 121.49943542480469, 121.49971771240234, 121.49985885620117, 121.49992942810059, 121.4999647140503, 121.49998235702515, 85.49999117851257, 130.4999955892563, 125.99999779462814, 102.74999889731407]</t>
   </si>
   <si>
@@ -663,6 +1073,9 @@
     <t>[3.08725, 5.11525, 6.256, 6.8580625, 7.167015625, 7.32347265625, 7.4021962890625, 7.441681884765625, 7.461455627441406, 7.471350234985351, 7.476299472808838, 7.47877457523346, 7.48001224732399, 7.48063111358881, 7.480940554276109, 7.48109527650848, 7.481172638096846, 7.481211319009075, 7.481230659494701, 7.481240329744891, 7.48124516487183, 7.481247582435762, 7.481248791217842, 7.481249395608912, 7.481249697804453]</t>
   </si>
   <si>
+    <t>3*[15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15]</t>
+  </si>
+  <si>
     <t>[83.5, 96.5, 103.0, 106.25, 107.875, 108.6875, 109.09375, 109.296875, 109.3984375, 109.44921875, 109.474609375, 109.4873046875, 109.49365234375, 109.496826171875, 109.4984130859375, 109.49920654296875, 109.49960327148438, 109.49980163574219, 109.4999008178711, 109.49995040893555, 109.49997520446777, 109.49998760223389, 109.49999380111694, 109.49999690055847, 109.49999845027924]</t>
   </si>
   <si>
@@ -681,6 +1094,9 @@
     <t>[3.81625, 4.7400625, 6.052515625, 6.75234765625, 9.1381650390625, 5.250556884765625, 6.3286743774414065, 6.895654922485352, 6.2951256446838375, 8.89848648929596, 7.63305033326149, 6.763467417299747, 7.118837130203843, 7.299163170490414, 8.11898648659233, 7.731931298772106, 6.812450163255038, 7.143801065059975, 6.087763278388102, 8.716696860646982, 8.02237529882187, 7.6845693665355315, 6.213005112548914, 9.005181162421962, 8.30804298392064]</t>
   </si>
   <si>
+    <t>3*[12, 15, 15, 15, 0, 15, 15, 15, 18, 10, 12, 15, 15, 15, 12, 12, 15, 15, 19, 12, 12, 12, 17, 7, 2]</t>
+  </si>
+  <si>
     <t>[92.5, 94.25, 101.875, 105.6875, 152.59375, 97.296875, 103.3984375, 106.44921875, 98.974609375, 125.9873046875, 115.49365234375, 105.746826171875, 107.6234130859375, 108.56170654296875, 118.03085327148438, 116.01542663574219, 106.0077133178711, 107.75385665893555, 96.62692832946777, 121.06346416473389, 117.53173208236694, 115.76586604118347, 99.88293302059174, 133.19146651029587, 142.34573325514793]</t>
   </si>
   <si>
@@ -696,6 +1112,9 @@
     <t>[3.81625, 4.7400625, 6.052515625, 6.75234765625, 7.1131650390625, 7.296299072265625, 6.497547424316406, 6.986582168579101, 7.2357431983947755, 7.361484627723694, 10.196645570993423, 6.318814468920231, 6.890559635296464, 7.183536667857319, 8.060801296480932, 7.7034213781973815, 6.79834087158792, 7.136613921586555, 8.037136582241427, 7.691813586440178, 7.521593117049955, 7.437093139482445, 8.114995714980589, 8.039308613796589, 7.15612166472265]</t>
   </si>
   <si>
+    <t>3*[12, 15, 15, 15, 15, 15, 18, 18, 18, 18, 4, 15, 15, 15, 12, 12, 15, 15, 12, 12, 12, 12, 8, 3, 2]</t>
+  </si>
+  <si>
     <t>[92.5, 94.25, 101.875, 105.6875, 107.59375, 108.546875, 100.0234375, 102.51171875, 103.755859375, 104.3779296875, 146.68896484375, 103.344482421875, 106.4222412109375, 107.96112060546875, 117.73056030273438, 115.86528015136719, 105.9326400756836, 107.7163200378418, 117.6081600189209, 115.80408000946045, 114.90204000473022, 114.45102000236511, 126.22551000118256, 138.11275500059128, 135.80637750029564]</t>
   </si>
   <si>
@@ -711,6 +1130,9 @@
     <t>[3.81625, 4.7400625, 5.476515625, 7.03566015625, 7.2571181640625, 6.477849853515625, 6.976478088378906, 7.230627334594726, 7.358910739898682, 7.423354638099671, 7.4556521360874175, 7.471819772303104, 7.479908312216401, 10.174953762624412, 7.212232688092627, 6.553471975123743, 7.011407487341726, 7.973840368615827, 7.66073056754153, 7.506192879579169, 7.429428338741685, 7.391172144108868, 8.09207556573894, 8.028227655332154, 7.150906607682721]</t>
   </si>
   <si>
+    <t>3*[12, 15, 17, 15, 15, 18, 18, 18, 18, 18, 18, 18, 18, 5, 12, 15, 15, 12, 12, 12, 12, 12, 8, 3, 2]</t>
+  </si>
+  <si>
     <t>[92.5, 94.25, 95.875, 107.1875, 108.34375, 99.921875, 102.4609375, 103.73046875, 104.365234375, 104.6826171875, 104.84130859375, 104.920654296875, 104.9603271484375, 143.98016357421875, 113.24008178710938, 104.62004089355469, 107.06002044677734, 117.28001022338867, 115.64000511169434, 114.82000255584717, 114.41000127792358, 114.20500063896179, 126.1025003194809, 138.05125015974045, 135.77562507987022]</t>
   </si>
   <si>
@@ -729,6 +1151,9 @@
     <t>[5.10325, 5.467, 5.6625625, 5.643765625, 5.63437890625, 5.0536884765625, 6.563531494140625, 6.085218811035157, 5.852847671508789, 5.729358402252197, 5.795164307594299, 5.709765197992325, 5.226303360044956, 6.462672214522958, 6.036571068767458, 5.828969274760224, 5.7265305724742355, 5.675651770010648, 5.641297505948707, 5.75083050384466, 5.687741266822676, 5.656327137136424, 5.640652694499484, 5.6328236287325595, 5.619911134736984]</t>
   </si>
   <si>
+    <t>3*[1, 1, 0, 0, 0, 8, 0, 0, 0, 1, 0, 0, 7, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1]</t>
+  </si>
+  <si>
     <t>[125.5, 128.0, 132.25, 132.125, 132.0625, 108.03125, 138.015625, 135.0078125, 133.50390625, 129.751953125, 133.1259765625, 132.56298828125, 111.281494140625, 137.3907470703125, 134.69537353515625, 133.34768676757812, 132.67384338378906, 132.33692169189453, 129.16846084594727, 132.83423042297363, 132.41711521148682, 132.2085576057434, 132.1042788028717, 132.05213940143585, 129.02606970071793]</t>
   </si>
   <si>
@@ -744,6 +1169,9 @@
     <t>[5.10325, 5.467, 5.6625625, 5.643765625, 5.62537890625, 5.7427978515625, 5.674746337890625, 5.038690490722656, 6.319565200805664, 7.032722354888916, 6.309230393409729, 5.9622075006961825, 5.7923768263459205, 5.699381682172418, 5.7800920330919325, 5.7022823771694675, 5.663575278740609, 5.644271161909273, 5.634631461589379, 5.629814700953375, 3.602407093016359, 7.4314464948098, 6.622543495235844, 6.1135988010312134, 5.86675616386893]</t>
   </si>
   <si>
+    <t>3*[1, 1, 0, 0, 1, 0, 1, 9, 7, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 15, 1, 0, 0, 0]</t>
+  </si>
+  <si>
     <t>[125.5, 128.0, 132.25, 132.125, 129.0625, 132.78125, 129.390625, 105.9453125, 118.22265625, 140.861328125, 136.4306640625, 134.21533203125, 133.107666015625, 129.5538330078125, 133.02691650390625, 132.51345825195312, 132.25672912597656, 132.12836456298828, 132.06418228149414, 132.03209114074707, 87.01604557037354, 140.25802278518677, 138.37901139259338, 135.1895056962967, 133.59475284814835]</t>
   </si>
   <si>
@@ -759,6 +1187,9 @@
     <t>[5.10325, 5.467, 5.6535625, 5.757015625, 5.69081640625, 5.6578603515625, 5.641418212890625, 5.624206115722656, 5.733205825805664, 5.797097354888916, 4.189724534034729, 7.230894756555557, 6.393773737967014, 6.124418959394097, 5.872054752055556, 5.747863694117404, 5.686265926581109, 5.655591483171156, 5.640285371555729, 5.623640093270402, 5.73292008601215, 5.796953802850312, 5.710653294510262, 4.578745745526407, 6.954261713739895]</t>
   </si>
   <si>
+    <t>3*[1, 1, 1, 0, 0, 0, 0, 1, 1, 0, 13, 0, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 11, 0]</t>
+  </si>
+  <si>
     <t>[125.5, 128.0, 129.25, 132.875, 132.4375, 132.21875, 132.109375, 129.0546875, 129.77734375, 133.138671875, 93.5693359375, 142.03466796875, 134.017333984375, 135.2586669921875, 133.62933349609375, 132.81466674804688, 132.40733337402344, 132.20366668701172, 132.10183334350586, 129.05091667175293, 129.77545833587646, 133.13772916793823, 132.56886458396912, 99.28443229198456, 140.39221614599228]</t>
   </si>
   <si>
@@ -777,6 +1208,9 @@
     <t>[2.51125, 6.955, 6.9120625, 6.890640625, 6.87994140625, 6.8745947265625, 6.871922119140625, 6.870585998535156, 6.869917984008789, 6.869583988189698, 6.869416993141174, 6.869333496332168, 7.30129174810648, 6.1200197754055266, 6.489572662357241, 6.67814577484224, 6.773381498337025, 6.821236651897489, 6.845223551630989, 6.5692318322360554, 7.121884214334191, 6.995030664665625, 6.932006221707445, 6.90059458319738, 6.884913909684605]</t>
   </si>
   <si>
+    <t>3*[17, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 1, 7, 7, 7, 7, 7, 7, 9, 7, 7, 7, 7, 7]</t>
+  </si>
+  <si>
     <t>[77.5, 122.0, 121.75, 121.625, 121.5625, 121.53125, 121.515625, 121.5078125, 121.50390625, 121.501953125, 121.5009765625, 121.50048828125, 139.500244140625, 117.0001220703125, 119.25006103515625, 120.37503051757812, 120.93751525878906, 121.21875762939453, 121.35937881469727, 115.42968940734863, 122.96484470367432, 122.23242235183716, 121.86621117591858, 121.68310558795929, 121.59155279397964]</t>
   </si>
   <si>
@@ -792,6 +1226,9 @@
     <t>[2.51125, 6.955, 6.9120625, 4.730640625, 6.05962890625, 6.7656103515625, 7.128972900390625, 7.313247131347656, 7.406032485961914, 7.452587223052978, 7.475905106544495, 7.487574177026748, 7.493411244452, 7.496330411210656, 7.4977901528514925, 7.4985200632372875, 7.498885028321529, 7.4990675133364855, 7.499158756462173, 7.499204378179569, 7.4992271890769056, 7.499238594535233, 7.499244297266811, 7.499247148633204, 9.659248574316553]</t>
   </si>
   <si>
+    <t>3*[17, 7, 7, 17, 17, 17, 17, 17, 17, 17, 17, 17, 17, 17, 17, 17, 17, 17, 17, 17, 17, 17, 17, 17, 7]</t>
+  </si>
+  <si>
     <t>[77.5, 122.0, 121.75, 91.625, 99.0625, 102.78125, 104.640625, 105.5703125, 106.03515625, 106.267578125, 106.3837890625, 106.44189453125, 106.470947265625, 106.4854736328125, 106.49273681640625, 106.49636840820312, 106.49818420410156, 106.49909210205078, 106.49954605102539, 106.4997730255127, 106.49988651275635, 106.49994325637817, 106.49997162818909, 106.49998581409454, 136.49999290704727]</t>
   </si>
   <si>
@@ -807,6 +1244,9 @@
     <t>[2.51125, 6.955, 6.9120625, 6.890640625, 6.87994140625, 6.8745947265625, 6.871922119140625, 6.870585998535156, 6.869917984008789, 6.869583988189698, 6.869416993141174, 6.869333496332168, 6.8692917481064795, 6.869270874038339, 6.869260437015444, 6.86925521850679, 6.869252609253163, 6.869251304626523, 6.4102506523132465, 7.259062834739689, 7.062890790224076, 6.965753988325596, 7.1334228924661875, 6.638644795451313, 6.7534854227090255]</t>
   </si>
   <si>
+    <t>3*[17, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 10, 7, 7, 7, 5, 7, 7]</t>
+  </si>
+  <si>
     <t>[77.5, 122.0, 121.75, 121.625, 121.5625, 121.53125, 121.515625, 121.5078125, 121.50390625, 121.501953125, 121.5009765625, 121.50048828125, 121.500244140625, 121.5001220703125, 121.50006103515625, 121.50003051757812, 121.50001525878906, 121.50000762939453, 112.50000381469727, 123.75000190734863, 122.62500095367432, 122.06250047683716, 127.78125023841858, 120.14062511920929, 120.82031255960464]</t>
   </si>
   <si>
@@ -825,6 +1265,9 @@
     <t>[3.34825, 4.7100625, 6.045390625, 6.75666015625, 7.1231962890625, 7.309189697265625, 7.402867736816407, 7.449877090454102, 7.473424350738525, 7.485208626747132, 7.491103426218033, 7.494051491320133, 7.495525690212846, 7.496262831244618, 7.496631412156858, 7.496815705212066, 7.496907852389442, 7.4969539261405735, 7.49697696305675, 7.4969884815249905, 7.496994240761649, 8.036997120380613, 8.210248582005553, 7.776561807364239, 7.563515282772485]</t>
   </si>
   <si>
+    <t>3*[14, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 14, 12, 12, 12]</t>
+  </si>
+  <si>
     <t>[86.5, 92.75, 100.375, 104.1875, 106.09375, 107.046875, 107.5234375, 107.76171875, 107.880859375, 107.9404296875, 107.97021484375, 107.985107421875, 107.9925537109375, 107.99627685546875, 107.99813842773438, 107.99906921386719, 107.9995346069336, 107.9997673034668, 107.9998836517334, 107.9999418258667, 107.99997091293335, 113.99998545646667, 118.49999272823334, 116.24999636411667, 115.12499818205833]</t>
   </si>
   <si>
@@ -843,6 +1286,9 @@
     <t>[4.02325, 4.33825, 5.8410625, 6.352890625, 6.91744140625, 7.2061884765625, 6.704179931640625, 7.080228576660156, 7.270867691040039, 7.3668409461975095, 7.414990998268127, 7.439106880426407, 7.45117503553629, 7.457211666598916, 8.405230620507151, 7.946085578710772, 7.720285356469685, 7.608328320013418, 7.5525855704513525, 7.524773137836837, 7.789881657071208, 7.895949537144923, 8.347669414010351, 7.80750019579299, 8.551385220093449]</t>
   </si>
   <si>
+    <t>3*[11, 16, 16, 17, 17, 17, 19, 19, 19, 19, 19, 19, 19, 19, 16, 16, 16, 16, 16, 16, 15, 14, 11, 11, 3]</t>
+  </si>
+  <si>
     <t>[95.5, 90.5, 99.25, 100.625, 103.5625, 105.03125, 99.765625, 101.6328125, 102.56640625, 103.033203125, 103.2666015625, 103.38330078125, 103.441650390625, 103.4708251953125, 112.48541259765625, 110.24270629882812, 109.12135314941406, 108.56067657470703, 108.28033828735352, 108.14016914367676, 111.07008457183838, 113.28504228591919, 121.1425211429596, 118.3212605714798, 140.9106302857399]</t>
   </si>
   <si>
@@ -858,6 +1304,9 @@
     <t>[4.02325, 4.33825, 5.8410625, 6.352890625, 6.91744140625, 7.2061884765625, 6.704179931640625, 7.080228576660156, 8.75586769104004, 6.60815442276001, 7.031256867408753, 7.894142097711563, 7.695749513685703, 7.894263123050332, 7.694645065430552, 7.595575908691623, 7.5462262983398976, 7.521597735168471, 7.5092950140838655, 7.5031465436668405, 8.040073030989648, 8.418763176570653, 7.841983294519364, 7.920360823818192, 8.15473854620957]</t>
   </si>
   <si>
+    <t>3*[11, 16, 16, 17, 17, 17, 19, 19, 14, 19, 19, 17, 17, 16, 16, 16, 16, 16, 16, 16, 14, 11, 11, 9, 3]</t>
+  </si>
+  <si>
     <t>[95.5, 90.5, 99.25, 100.625, 103.5625, 105.03125, 99.765625, 101.6328125, 117.56640625, 99.283203125, 101.3916015625, 108.44580078125, 107.472900390625, 109.9864501953125, 108.99322509765625, 108.49661254882812, 108.24830627441406, 108.12415313720703, 108.06207656860352, 108.03103828430176, 114.01551914215088, 121.50775957107544, 118.50387978553772, 123.00193989276886, 138.75096994638443]</t>
   </si>
   <si>
@@ -873,6 +1322,9 @@
     <t>[4.02325, 4.33825, 5.8410625, 6.352890625, 6.91744140625, 7.2061884765625, 6.704179931640625, 7.080228576660156, 7.270867691040039, 7.3668409461975095, 7.414990998268127, 7.439106880426407, 7.45117503553629, 7.457211666598916, 8.405230620507151, 7.946085578710772, 7.720285356469685, 7.608328320013418, 7.5525855704513525, 7.524773137836837, 7.789881657071208, 7.895949537144923, 8.140669414010352, 7.94954458665021, 8.621208817807753]</t>
   </si>
   <si>
+    <t>3*[11, 16, 16, 17, 17, 17, 19, 19, 19, 19, 19, 19, 19, 19, 16, 16, 16, 16, 16, 16, 15, 14, 12, 11, 3]</t>
+  </si>
+  <si>
     <t>[95.5, 90.5, 99.25, 100.625, 103.5625, 105.03125, 99.765625, 101.6328125, 102.56640625, 103.033203125, 103.2666015625, 103.38330078125, 103.441650390625, 103.4708251953125, 112.48541259765625, 110.24270629882812, 109.12135314941406, 108.56067657470703, 108.28033828735352, 108.14016914367676, 111.07008457183838, 113.28504228591919, 118.1425211429596, 119.0712605714798, 141.2856302857399]</t>
   </si>
   <si>
@@ -891,6 +1343,9 @@
     <t>[3.34825, 5.2500625, 5.476515625, 6.45966015625, 6.9723994140625, 7.234060791015625, 7.366214416503906, 7.432621963500977, 7.465908420562744, 7.482572319984436, 8.327909437417985, 7.884985171854496, 7.667250199213624, 7.559314502928406, 7.505579602294602, 7.4787703888549, 7.46538034135435, 7.4586889574089, 7.455344175387381, 7.453672011864423, 7.452835986974895, 8.487417988748119, 7.781263329439056, 7.438738998485777, 7.27011508268445]</t>
   </si>
   <si>
+    <t>3*[14, 14, 17, 17, 17, 17, 17, 17, 17, 17, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 9, 9, 9, 9]</t>
+  </si>
+  <si>
     <t>[86.5, 98.75, 95.875, 101.1875, 103.84375, 105.171875, 105.8359375, 106.16796875, 106.333984375, 106.4169921875, 115.45849609375, 113.229248046875, 112.1146240234375, 111.55731201171875, 111.27865600585938, 111.13932800292969, 111.06966400146484, 111.03483200073242, 111.01741600036621, 111.0087080001831, 111.00435400009155, 126.00217700004578, 122.25108850002289, 120.37554425001144, 119.43777212500572]</t>
   </si>
   <si>
@@ -906,6 +1361,9 @@
     <t>[3.34825, 5.2500625, 5.476515625, 6.45966015625, 6.9723994140625, 9.826060791015625, 5.114151916503906, 6.266606338500977, 6.8729045143127445, 7.183571343421936, 8.17778419327736, 7.81145386081934, 7.630867371454835, 7.5412187959887085, 7.496555675559677, 7.4742644071711695, 7.463128845933418, 7.457563583553667, 7.454781581923573, 7.453390738498471, 7.452695356133407, 8.487347674787747, 7.781229546114978, 7.438722450237765, 7.270106894413951]</t>
   </si>
   <si>
+    <t>3*[14, 14, 17, 17, 17, 1, 17, 17, 17, 17, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 9, 9, 9, 9]</t>
+  </si>
+  <si>
     <t>[86.5, 98.75, 95.875, 101.1875, 103.84375, 153.171875, 93.8359375, 100.16796875, 103.333984375, 104.9169921875, 114.70849609375, 112.854248046875, 111.9271240234375, 111.46356201171875, 111.23178100585938, 111.11589050292969, 111.05794525146484, 111.02897262573242, 111.01448631286621, 111.0072431564331, 111.00362157821655, 126.00181078910828, 122.25090539455414, 120.37545269727707, 119.43772634863853]</t>
   </si>
   <si>
@@ -921,6 +1379,9 @@
     <t>[3.34825, 6.2850625, 4.816515625, 6.10622265625, 6.7898212890625, 7.141306884765625, 7.3194712524414065, 7.409158828735351, 7.454153964996338, 7.476689370155334, 8.324966531991958, 7.88354632049799, 7.666538923874497, 7.558960902843625, 7.505403311648406, 7.478682370880851, 7.465336364204588, 7.458666976793334, 7.455333187069427, 8.641666518202904, 7.644044183013708, 7.371390577256151, 7.2367561600654, 7.169862047892031, 7.1365207659108485]</t>
   </si>
   <si>
+    <t>3*[14, 9, 17, 17, 17, 17, 17, 17, 17, 17, 14, 14, 14, 14, 14, 14, 14, 14, 14, 8, 9, 9, 9, 9, 9]</t>
+  </si>
+  <si>
     <t>[86.5, 113.75, 92.125, 99.3125, 102.90625, 104.703125, 105.6015625, 106.05078125, 106.275390625, 106.3876953125, 115.44384765625, 113.221923828125, 112.1109619140625, 111.55548095703125, 111.27774047851562, 111.13887023925781, 111.0694351196289, 111.03471755981445, 111.01735877990723, 129.0086793899536, 121.5043396949768, 120.0021698474884, 119.2510849237442, 118.8755424618721, 118.68777123093605]</t>
   </si>
   <si>
@@ -939,6 +1400,9 @@
     <t>[3.81625, 5.4690625, 6.382140625, 6.86034765625, 7.1048681640625, 7.228482666015625, 7.290628479003907, 7.321786026000977, 7.337385959625244, 7.345191216468811, 7.349095167398453, 7.3510474734902385, 7.352023709192872, 7.352511847708374, 7.352755922132172, 7.352877960635582, 7.3529389802101655, 7.352969490078176, 7.352984745032361, 7.352992372514499, 7.352996186256829, 7.35299809312831, 7.352999046564128, 7.352999523282057, 7.352999761641027]</t>
   </si>
   <si>
+    <t>3*[12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12]</t>
+  </si>
+  <si>
     <t>[92.5, 103.25, 108.625, 111.3125, 112.65625, 113.328125, 113.6640625, 113.83203125, 113.916015625, 113.9580078125, 113.97900390625, 113.989501953125, 113.9947509765625, 113.99737548828125, 113.99868774414062, 113.99934387207031, 113.99967193603516, 113.99983596801758, 113.99991798400879, 113.9999589920044, 113.9999794960022, 113.9999897480011, 113.99999487400055, 113.99999743700027, 113.99999871850014]</t>
   </si>
   <si>
@@ -957,6 +1421,9 @@
     <t>[3.08725, 5.11525, 6.256, 6.8580625, 7.167015625, 7.32347265625, 7.4021962890625, 7.441681884765625, 7.461455627441406, 7.471350234985351, 7.476299472808838, 7.47877457523346, 7.48001224732399, 7.48063111358881, 7.480940554276109, 7.48109527650848, 7.7421726380968465, 7.335524116555462, 7.408246358881297, 7.44471300459154, 7.462972708583493, 7.472109155863677, 7.4766790283248215, 7.478964376760657, 7.48010715402989]</t>
   </si>
   <si>
+    <t>3*[15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 14, 15, 15, 15, 15, 15, 15, 15, 15]</t>
+  </si>
+  <si>
     <t>[83.5, 96.5, 103.0, 106.25, 107.875, 108.6875, 109.09375, 109.296875, 109.3984375, 109.44921875, 109.474609375, 109.4873046875, 109.49365234375, 109.496826171875, 109.4984130859375, 109.49920654296875, 112.49960327148438, 108.74980163574219, 109.1249008178711, 109.31245040893555, 109.40622520446777, 109.45311260223389, 109.47655630111694, 109.48827815055847, 109.49413907527924]</t>
   </si>
   <si>
@@ -972,6 +1439,9 @@
     <t>[3.08725, 5.11525, 6.256, 6.8580625, 7.167015625, 7.32347265625, 7.4021962890625, 7.441681884765625, 7.461455627441406, 9.055350234985351, 6.342604160308838, 6.9028507471084595, 7.18978129029274, 7.334948374330997, 7.407957369461656, 7.444568230304867, 7.4629002515459435, 7.472072909871349, 7.476660900960269, 7.478955311986283, 7.480102621369679, 7.480676302028973, 7.48096314885052, 7.481106573884269, 7.481178286806887]</t>
   </si>
   <si>
+    <t>3*[15, 15, 15, 15, 15, 15, 15, 15, 15, 7, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15]</t>
+  </si>
+  <si>
     <t>[83.5, 96.5, 103.0, 106.25, 107.875, 108.6875, 109.09375, 109.296875, 109.3984375, 133.44921875, 103.474609375, 106.4873046875, 107.99365234375, 108.746826171875, 109.1234130859375, 109.31170654296875, 109.40585327148438, 109.45292663574219, 109.4764633178711, 109.48823165893555, 109.49411582946777, 109.49705791473389, 109.49852895736694, 109.49926447868347, 109.49963223934174]</t>
   </si>
   <si>
@@ -990,6 +1460,9 @@
     <t>[3.08725, 5.11525, 6.256, 6.8580625, 7.167015625, 7.32347265625, 7.4021962890625, 7.441681884765625, 7.461455627441406, 7.471350234985351, 7.476299472808838, 7.47877457523346, 7.48001224732399, 7.48063111358881, 7.480940554276109, 7.48109527650848, 7.481172638096846, 7.481211319009075, 7.481230659494701, 7.481240329744891, 7.48124516487183, 7.481247582435762, 8.210248791217841, 8.631561909556398, 7.726640344887975]</t>
   </si>
   <si>
+    <t>3*[15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 12, 7, 7]</t>
+  </si>
+  <si>
     <t>[83.5, 96.5, 103.0, 106.25, 107.875, 108.6875, 109.09375, 109.296875, 109.3984375, 109.44921875, 109.474609375, 109.4873046875, 109.49365234375, 109.496826171875, 109.4984130859375, 109.49920654296875, 109.49960327148438, 109.49980163574219, 109.4999008178711, 109.49995040893555, 109.49997520446777, 109.49998760223389, 118.49999380111694, 131.24999690055847, 126.37499845027924]</t>
   </si>
   <si>
@@ -1005,6 +1478,9 @@
     <t>[3.08725, 5.11525, 6.256, 6.8580625, 7.167015625, 7.32347265625, 7.4021962890625, 7.441681884765625, 7.461455627441406, 7.471350234985351, 7.476299472808838, 7.47877457523346, 7.48001224732399, 7.48063111358881, 7.480940554276109, 7.48109527650848, 7.481172638096846, 7.481211319009075, 7.481230659494701, 7.481240329744891, 7.48124516487183, 8.21024758243576, 7.983561319112816, 8.277890046179303, 6.910066129043701]</t>
   </si>
   <si>
+    <t>3*[15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 12, 11, 7, 11]</t>
+  </si>
+  <si>
     <t>[83.5, 96.5, 103.0, 106.25, 107.875, 108.6875, 109.09375, 109.296875, 109.3984375, 109.44921875, 109.474609375, 109.4873046875, 109.49365234375, 109.496826171875, 109.4984130859375, 109.49920654296875, 109.49960327148438, 109.49980163574219, 109.4999008178711, 109.49995040893555, 109.49997520446777, 118.49998760223389, 119.24999380111694, 129.37499690055847, 113.43749845027924]</t>
   </si>
   <si>
@@ -1023,6 +1499,9 @@
     <t>[4.21225, 5.6205625, 6.388890625, 6.78909765625, 6.9932119140625, 7.096271728515625, 7.148052307128906, 7.1740052642822265, 7.186997409820557, 7.193497399330139, 7.196748373270035, 7.198374105036259, 7.19918703211844, 7.199593510959297, 7.199796754204668, 7.1998983767835885, 7.199949188312108, 7.199974594136132, 7.199987297063086, 7.199993648530298, 7.199996824264837, 7.1999984121323415, 7.199999206066151, 7.199999603033071, 7.199999801516534]</t>
   </si>
   <si>
+    <t>3*[10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10]</t>
+  </si>
+  <si>
     <t>[98.5, 107.75, 112.375, 114.6875, 115.84375, 116.421875, 116.7109375, 116.85546875, 116.927734375, 116.9638671875, 116.98193359375, 116.990966796875, 116.9954833984375, 116.99774169921875, 116.99887084960938, 116.99943542480469, 116.99971771240234, 116.99985885620117, 116.99992942810059, 116.9999647140503, 116.99998235702515, 116.99999117851257, 116.99999558925629, 116.99999779462814, 116.99999889731407]</t>
   </si>
   <si>
@@ -1038,6 +1517,9 @@
     <t>[4.21225, 6.4395625, 5.520015625, 6.33562890625, 6.7617197265625, 6.979336181640625, 7.089287170410156, 7.144548355102539, 7.172250370025635, 7.186119233131409, 7.193058128595352, 7.196528692305088, 7.198264253154397, 7.199132103327662, 7.199566045851447, 7.199783021472627, 7.19989151037304, 5.183945755095701, 8.315971069358643, 7.748985986715271, 7.472243106366623, 7.335559081435559, 7.267638922780841, 7.233784306906186, 7.216883364832034]</t>
   </si>
   <si>
+    <t>3*[10, 3, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 18, 10, 10, 10, 10, 10, 10, 10]</t>
+  </si>
+  <si>
     <t>[98.5, 128.75, 107.125, 112.0625, 114.53125, 115.765625, 116.3828125, 116.69140625, 116.845703125, 116.9228515625, 116.96142578125, 116.980712890625, 116.9903564453125, 116.99517822265625, 116.99758911132812, 116.99879455566406, 116.99939727783203, 92.99969863891602, 122.99984931945801, 119.999924659729, 118.4999623298645, 117.74998116493225, 117.37499058246613, 117.18749529123306, 117.09374764561653]</t>
   </si>
   <si>
@@ -1053,6 +1535,9 @@
     <t>[4.21225, 5.6205625, 6.388890625, 6.78909765625, 6.9932119140625, 7.096271728515625, 7.148052307128906, 7.1740052642822265, 7.186997409820557, 7.193497399330139, 7.196748373270035, 7.198374105036259, 7.19918703211844, 7.199593510959297, 7.199796754204668, 7.1998983767835885, 7.199949188312108, 7.199974594136132, 7.199987297063086, 7.199993648530298, 7.199996824264837, 7.1999984121323415, 7.199999206066151, 8.06399960303307, 6.155999814748765]</t>
   </si>
   <si>
+    <t>3*[10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 2, 10]</t>
+  </si>
+  <si>
     <t>[98.5, 107.75, 112.375, 114.6875, 115.84375, 116.421875, 116.7109375, 116.85546875, 116.927734375, 116.9638671875, 116.98193359375, 116.990966796875, 116.9954833984375, 116.99774169921875, 116.99887084960938, 116.99943542480469, 116.99971771240234, 116.99985885620117, 116.99992942810059, 116.9999647140503, 116.99998235702515, 116.99999117851257, 116.99999558925629, 140.99999779462814, 110.99999889731407]</t>
   </si>
   <si>
@@ -1063,195 +1548,6 @@
   </si>
   <si>
     <t>[200.0, 181.5, 172.25, 167.625, 165.3125, 164.15625, 163.578125, 163.2890625, 163.14453125, 163.072265625, 163.0361328125, 163.01806640625, 163.009033203125, 163.0045166015625, 163.00225830078125, 163.00112915039062, 163.0005645751953, 163.00028228759766, 163.00014114379883, 163.0000705718994, 163.0000352859497, 163.00001764297485, 163.00000882148743, 163.0000044107437, 175.00000220537186, 0]</t>
-  </si>
-  <si>
-    <t>3*[13, 13, 13, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 13, 15, 15]</t>
-  </si>
-  <si>
-    <t>3*[13, 13, 13, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15]</t>
-  </si>
-  <si>
-    <t>3*[2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
-  </si>
-  <si>
-    <t>3*[11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 2]</t>
-  </si>
-  <si>
-    <t>3*[11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11]</t>
-  </si>
-  <si>
-    <t>3*[11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 3, 11, 11, 11]</t>
-  </si>
-  <si>
-    <t>3*[7, 19, 19, 19, 19, 19, 19, 19, 12, 19, 19, 5, 19, 19, 19, 19, 19, 19, 19, 19, 19, 19, 19, 19, 19]</t>
-  </si>
-  <si>
-    <t>3*[7, 19, 19, 19, 19, 19, 19, 19, 19, 19, 19, 19, 19, 19, 19, 19, 19, 19, 19, 19, 19, 19, 19, 19, 19]</t>
-  </si>
-  <si>
-    <t>3*[16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 6, 16, 16, 16, 16, 16, 16, 16, 7]</t>
-  </si>
-  <si>
-    <t>3*[16, 16, 16, 16, 16, 16, 16, 0, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 7]</t>
-  </si>
-  <si>
-    <t>3*[16, 16, 16, 16, 16, 16, 6, 16, 16, 3, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 7]</t>
-  </si>
-  <si>
-    <t>3*[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
-  </si>
-  <si>
-    <t>3*[13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 15, 15, 15, 15, 15, 15, 15, 15, 1, 1, 1]</t>
-  </si>
-  <si>
-    <t>3*[13, 18, 13, 11, 13, 13, 13, 13, 13, 8, 13, 13, 13, 13, 15, 15, 15, 15, 15, 15, 15, 15, 1, 1, 1]</t>
-  </si>
-  <si>
-    <t>3*[13, 13, 13, 14, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 15, 15, 15, 15, 4, 15, 15, 15, 1, 1, 1]</t>
-  </si>
-  <si>
-    <t>3*[14, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16]</t>
-  </si>
-  <si>
-    <t>3*[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 13, 0, 0, 0, 0, 0, 15, 0, 0]</t>
-  </si>
-  <si>
-    <t>3*[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>3*[0, 0, 0, 0, 0, 0, 0, 0, 0, 9, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>3*[15, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 15, 11, 11, 0]</t>
-  </si>
-  <si>
-    <t>3*[15, 13, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 14, 16, 16, 16, 15, 14, 11, 0]</t>
-  </si>
-  <si>
-    <t>3*[15, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 5, 11, 11, 6, 0]</t>
-  </si>
-  <si>
-    <t>3*[13, 13, 13, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14]</t>
-  </si>
-  <si>
-    <t>3*[3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 10, 3, 3, 13, 3, 8]</t>
-  </si>
-  <si>
-    <t>3*[3, 3, 3, 3, 8, 3, 3, 3, 3, 14, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 8]</t>
-  </si>
-  <si>
-    <t>3*[3, 3, 3, 3, 3, 3, 3, 3, 19, 3, 12, 3, 3, 3, 3, 3, 3, 3, 8, 3, 3, 3, 3, 3, 8]</t>
-  </si>
-  <si>
-    <t>3*[1, 1, 1, 5, 8, 1, 9, 9, 8, 1, 5, 8, 7, 8, 8, 9, 8, 8, 5, 8, 8, 8, 8, 9, 8]</t>
-  </si>
-  <si>
-    <t>3*[1, 1, 1, 4, 8, 8, 8, 8, 8, 1, 8, 4, 8, 8, 14, 8, 15, 8, 8, 8, 8, 8, 8, 8, 8]</t>
-  </si>
-  <si>
-    <t>3*[1, 1, 1, 9, 8, 8, 8, 1, 1, 1, 8, 9, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8]</t>
-  </si>
-  <si>
-    <t>3*[8, 8, 8, 8, 8, 8, 8, 8, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 8, 0]</t>
-  </si>
-  <si>
-    <t>3*[8, 8, 8, 8, 8, 8, 8, 8, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 8, 4]</t>
-  </si>
-  <si>
-    <t>3*[8, 8, 8, 8, 8, 8, 8, 8, 4, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 8, 0]</t>
-  </si>
-  <si>
-    <t>3*[4, 7, 5, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 14]</t>
-  </si>
-  <si>
-    <t>3*[13, 7, 7, 7, 7, 7, 7, 7, 18, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 14]</t>
-  </si>
-  <si>
-    <t>3*[4, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 19, 7, 7, 14]</t>
-  </si>
-  <si>
-    <t>3*[15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15]</t>
-  </si>
-  <si>
-    <t>3*[12, 15, 15, 15, 0, 15, 15, 15, 18, 10, 12, 15, 15, 15, 12, 12, 15, 15, 19, 12, 12, 12, 17, 7, 2]</t>
-  </si>
-  <si>
-    <t>3*[12, 15, 15, 15, 15, 15, 18, 18, 18, 18, 4, 15, 15, 15, 12, 12, 15, 15, 12, 12, 12, 12, 8, 3, 2]</t>
-  </si>
-  <si>
-    <t>3*[12, 15, 17, 15, 15, 18, 18, 18, 18, 18, 18, 18, 18, 5, 12, 15, 15, 12, 12, 12, 12, 12, 8, 3, 2]</t>
-  </si>
-  <si>
-    <t>3*[1, 1, 0, 0, 0, 8, 0, 0, 0, 1, 0, 0, 7, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1]</t>
-  </si>
-  <si>
-    <t>3*[1, 1, 0, 0, 1, 0, 1, 9, 7, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 15, 1, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>3*[1, 1, 1, 0, 0, 0, 0, 1, 1, 0, 13, 0, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 11, 0]</t>
-  </si>
-  <si>
-    <t>3*[17, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 1, 7, 7, 7, 7, 7, 7, 9, 7, 7, 7, 7, 7]</t>
-  </si>
-  <si>
-    <t>3*[17, 7, 7, 17, 17, 17, 17, 17, 17, 17, 17, 17, 17, 17, 17, 17, 17, 17, 17, 17, 17, 17, 17, 17, 7]</t>
-  </si>
-  <si>
-    <t>3*[17, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 10, 7, 7, 7, 5, 7, 7]</t>
-  </si>
-  <si>
-    <t>3*[14, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 14, 12, 12, 12]</t>
-  </si>
-  <si>
-    <t>3*[11, 16, 16, 17, 17, 17, 19, 19, 19, 19, 19, 19, 19, 19, 16, 16, 16, 16, 16, 16, 15, 14, 11, 11, 3]</t>
-  </si>
-  <si>
-    <t>3*[11, 16, 16, 17, 17, 17, 19, 19, 14, 19, 19, 17, 17, 16, 16, 16, 16, 16, 16, 16, 14, 11, 11, 9, 3]</t>
-  </si>
-  <si>
-    <t>3*[11, 16, 16, 17, 17, 17, 19, 19, 19, 19, 19, 19, 19, 19, 16, 16, 16, 16, 16, 16, 15, 14, 12, 11, 3]</t>
-  </si>
-  <si>
-    <t>3*[14, 14, 17, 17, 17, 17, 17, 17, 17, 17, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 9, 9, 9, 9]</t>
-  </si>
-  <si>
-    <t>3*[14, 14, 17, 17, 17, 1, 17, 17, 17, 17, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 9, 9, 9, 9]</t>
-  </si>
-  <si>
-    <t>3*[14, 9, 17, 17, 17, 17, 17, 17, 17, 17, 14, 14, 14, 14, 14, 14, 14, 14, 14, 8, 9, 9, 9, 9, 9]</t>
-  </si>
-  <si>
-    <t>3*[12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12]</t>
-  </si>
-  <si>
-    <t>3*[15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 14, 15, 15, 15, 15, 15, 15, 15, 15]</t>
-  </si>
-  <si>
-    <t>3*[15, 15, 15, 15, 15, 15, 15, 15, 15, 7, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15]</t>
-  </si>
-  <si>
-    <t>3*[15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 12, 7, 7]</t>
-  </si>
-  <si>
-    <t>3*[15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 12, 11, 7, 11]</t>
-  </si>
-  <si>
-    <t>3*[10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10]</t>
-  </si>
-  <si>
-    <t>3*[10, 3, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 18, 10, 10, 10, 10, 10, 10, 10]</t>
-  </si>
-  <si>
-    <t>3*[10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 2, 10]</t>
-  </si>
-  <si>
-    <t>seed</t>
-  </si>
-  <si>
-    <t>num_procs</t>
-  </si>
-  <si>
-    <t>running_time</t>
   </si>
 </sst>
 </file>
@@ -1593,11 +1889,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V85"/>
+  <dimension ref="A1:V104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W82" sqref="W82"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1679,54 +1975,54 @@
         <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>403</v>
+        <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>404</v>
+        <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>405</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B2">
-        <v>10000000</v>
+        <v>1000</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2">
-        <v>177.7251464006205</v>
+        <v>140078.08780310579</v>
       </c>
       <c r="F2">
-        <v>42.938145638634751</v>
+        <v>93494.809192972811</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>343</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M2">
-        <v>8.9999999999999998E-4</v>
+        <v>8.0000000000000007E-5</v>
       </c>
       <c r="N2">
         <v>3</v>
@@ -1743,49 +2039,58 @@
       <c r="R2">
         <v>1</v>
       </c>
+      <c r="S2" t="b">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>1692616799</v>
+      </c>
       <c r="U2">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="V2">
+        <v>53.36164402961731</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B3">
         <v>10000000</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>177.6570838796099</v>
+        <v>178.10807467187129</v>
       </c>
       <c r="F3">
-        <v>42.762083117624123</v>
+        <v>47.940198165885228</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>344</v>
+        <v>33</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="K3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="L3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="M3">
-        <v>8.9999999999999998E-4</v>
+        <v>8.0000000000000007E-5</v>
       </c>
       <c r="N3">
         <v>3</v>
@@ -1802,49 +2107,58 @@
       <c r="R3">
         <v>1</v>
       </c>
+      <c r="S3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T3" t="s">
+        <v>38</v>
+      </c>
       <c r="U3">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="V3">
+        <v>255897.14674162859</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B4">
         <v>10000000</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>177.6570838796099</v>
+        <v>178.0928076849813</v>
       </c>
       <c r="F4">
-        <v>42.762083117624123</v>
+        <v>48.105341215990109</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
-        <v>344</v>
+        <v>40</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="J4" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="K4" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="L4" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="M4">
-        <v>8.9999999999999998E-4</v>
+        <v>8.0000000000000007E-5</v>
       </c>
       <c r="N4">
         <v>3</v>
@@ -1861,49 +2175,58 @@
       <c r="R4">
         <v>1</v>
       </c>
+      <c r="S4" t="b">
+        <v>0</v>
+      </c>
+      <c r="T4" t="s">
+        <v>38</v>
+      </c>
       <c r="U4">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="V4">
+        <v>255897.14674162859</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5">
         <v>10000000</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>149.22833339377249</v>
+        <v>177.88544249859399</v>
       </c>
       <c r="F5">
-        <v>85.664333288391418</v>
+        <v>47.920624333878763</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s">
-        <v>345</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="J5" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="K5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="L5" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="M5">
-        <v>8.9999999999999998E-4</v>
+        <v>8.0000000000000007E-5</v>
       </c>
       <c r="N5">
         <v>3</v>
@@ -1920,52 +2243,58 @@
       <c r="R5">
         <v>1</v>
       </c>
-      <c r="S5">
-        <v>3</v>
+      <c r="S5" t="b">
+        <v>0</v>
+      </c>
+      <c r="T5" t="s">
+        <v>38</v>
       </c>
       <c r="U5">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="V5">
+        <v>255897.14674162859</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B6">
         <v>10000000</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>149.22833339377249</v>
+        <v>139.59133336462571</v>
       </c>
       <c r="F6">
-        <v>85.664333288391418</v>
+        <v>93.895333307882126</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="H6" t="s">
-        <v>345</v>
+        <v>53</v>
       </c>
       <c r="I6" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="J6" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="K6" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="L6" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="M6">
-        <v>8.9999999999999998E-4</v>
+        <v>8.0000000000000007E-5</v>
       </c>
       <c r="N6">
         <v>3</v>
@@ -1982,52 +2311,58 @@
       <c r="R6">
         <v>1</v>
       </c>
-      <c r="S6">
-        <v>3</v>
+      <c r="S6" t="b">
+        <v>0</v>
+      </c>
+      <c r="T6" t="s">
+        <v>38</v>
       </c>
       <c r="U6">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="V6">
+        <v>15053.587559938431</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B7">
         <v>10000000</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>149.22833339377249</v>
+        <v>139.59133336462571</v>
       </c>
       <c r="F7">
-        <v>85.664333288391418</v>
+        <v>93.895333307882126</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="H7" t="s">
-        <v>345</v>
+        <v>53</v>
       </c>
       <c r="I7" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="J7" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="K7" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="L7" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="M7">
-        <v>8.9999999999999998E-4</v>
+        <v>8.0000000000000007E-5</v>
       </c>
       <c r="N7">
         <v>3</v>
@@ -2044,238 +2379,262 @@
       <c r="R7">
         <v>1</v>
       </c>
-      <c r="S7">
-        <v>3</v>
+      <c r="S7" t="b">
+        <v>0</v>
+      </c>
+      <c r="T7" t="s">
+        <v>38</v>
       </c>
       <c r="U7">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="V7">
+        <v>15053.587559938431</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8">
+        <v>10000000</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8">
+        <v>139.59133336462571</v>
+      </c>
+      <c r="F8">
+        <v>93.895333307882126</v>
+      </c>
+      <c r="G8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" t="s">
+        <v>57</v>
+      </c>
+      <c r="M8">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="N8">
+        <v>3</v>
+      </c>
+      <c r="O8">
+        <v>25</v>
+      </c>
+      <c r="P8">
+        <v>3</v>
+      </c>
+      <c r="Q8">
+        <v>20</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T8" t="s">
         <v>38</v>
       </c>
-      <c r="B8">
-        <v>10000000</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>176.34758355148631</v>
-      </c>
-      <c r="F8">
-        <v>53.599583227237069</v>
-      </c>
-      <c r="G8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" t="s">
-        <v>346</v>
-      </c>
-      <c r="I8" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" t="s">
-        <v>41</v>
-      </c>
-      <c r="K8" t="s">
-        <v>42</v>
-      </c>
-      <c r="L8" t="s">
-        <v>43</v>
-      </c>
-      <c r="M8">
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="N8">
-        <v>3</v>
-      </c>
-      <c r="O8">
-        <v>25</v>
-      </c>
-      <c r="P8">
-        <v>3</v>
-      </c>
-      <c r="Q8">
-        <v>20</v>
-      </c>
-      <c r="R8">
-        <v>1</v>
-      </c>
-      <c r="S8">
-        <v>3</v>
-      </c>
       <c r="U8">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="V8">
+        <v>15053.587559938431</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9">
+        <v>10000000</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>180.08750181955611</v>
+      </c>
+      <c r="F9">
+        <v>41.135901183823727</v>
+      </c>
+      <c r="G9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" t="s">
+        <v>62</v>
+      </c>
+      <c r="K9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L9" t="s">
+        <v>64</v>
+      </c>
+      <c r="M9">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="N9">
+        <v>3</v>
+      </c>
+      <c r="O9">
+        <v>25</v>
+      </c>
+      <c r="P9">
+        <v>3</v>
+      </c>
+      <c r="Q9">
+        <v>20</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T9" t="s">
         <v>38</v>
       </c>
-      <c r="B9">
-        <v>10000000</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>175.29458355148631</v>
-      </c>
-      <c r="F9">
-        <v>53.599583227237069</v>
-      </c>
-      <c r="G9" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" t="s">
-        <v>347</v>
-      </c>
-      <c r="I9" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" t="s">
-        <v>41</v>
-      </c>
-      <c r="K9" t="s">
-        <v>42</v>
-      </c>
-      <c r="L9" t="s">
-        <v>43</v>
-      </c>
-      <c r="M9">
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="N9">
-        <v>3</v>
-      </c>
-      <c r="O9">
-        <v>25</v>
-      </c>
-      <c r="P9">
-        <v>3</v>
-      </c>
-      <c r="Q9">
-        <v>20</v>
-      </c>
-      <c r="R9">
-        <v>1</v>
-      </c>
-      <c r="S9">
-        <v>3</v>
-      </c>
       <c r="U9">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="V9">
+        <v>14137.146129846569</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10">
+        <v>10000000</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>180.10142707670209</v>
+      </c>
+      <c r="F10">
+        <v>41.20855034394004</v>
+      </c>
+      <c r="G10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" t="s">
+        <v>68</v>
+      </c>
+      <c r="K10" t="s">
+        <v>69</v>
+      </c>
+      <c r="L10" t="s">
+        <v>70</v>
+      </c>
+      <c r="M10">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="N10">
+        <v>3</v>
+      </c>
+      <c r="O10">
+        <v>25</v>
+      </c>
+      <c r="P10">
+        <v>3</v>
+      </c>
+      <c r="Q10">
+        <v>20</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10" t="b">
+        <v>0</v>
+      </c>
+      <c r="T10" t="s">
         <v>38</v>
       </c>
-      <c r="B10">
-        <v>10000000</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>174.4283336265882</v>
-      </c>
-      <c r="F10">
-        <v>54.581333302338919</v>
-      </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>348</v>
-      </c>
-      <c r="I10" t="s">
-        <v>47</v>
-      </c>
-      <c r="J10" t="s">
-        <v>48</v>
-      </c>
-      <c r="K10" t="s">
-        <v>49</v>
-      </c>
-      <c r="L10" t="s">
-        <v>50</v>
-      </c>
-      <c r="M10">
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="N10">
-        <v>3</v>
-      </c>
-      <c r="O10">
-        <v>25</v>
-      </c>
-      <c r="P10">
-        <v>3</v>
-      </c>
-      <c r="Q10">
-        <v>20</v>
-      </c>
-      <c r="R10">
-        <v>1</v>
-      </c>
-      <c r="S10">
-        <v>3</v>
-      </c>
       <c r="U10">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="V10">
+        <v>14137.146129846569</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B11">
         <v>10000000</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>177.6570838796099</v>
+        <v>180.04481587743479</v>
       </c>
       <c r="F11">
-        <v>42.762083117624123</v>
+        <v>41.42854151386733</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="H11" t="s">
-        <v>344</v>
+        <v>72</v>
       </c>
       <c r="I11" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="J11" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="K11" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="L11" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="M11">
-        <v>8.9999999999999998E-4</v>
+        <v>8.0000000000000007E-5</v>
       </c>
       <c r="N11">
         <v>3</v>
@@ -2292,49 +2651,58 @@
       <c r="R11">
         <v>1</v>
       </c>
+      <c r="S11" t="b">
+        <v>0</v>
+      </c>
+      <c r="T11" t="s">
+        <v>38</v>
+      </c>
       <c r="U11">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="V11">
+        <v>14137.146129846569</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="B12">
         <v>10000000</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>177.6570838796099</v>
+        <v>179.14110370762251</v>
       </c>
       <c r="F12">
-        <v>42.762083117624123</v>
+        <v>43.698670812953551</v>
       </c>
       <c r="G12" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s">
-        <v>344</v>
+        <v>79</v>
       </c>
       <c r="I12" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="J12" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="K12" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="L12" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="M12">
-        <v>8.9999999999999998E-4</v>
+        <v>8.0000000000000007E-5</v>
       </c>
       <c r="N12">
         <v>3</v>
@@ -2351,49 +2719,58 @@
       <c r="R12">
         <v>1</v>
       </c>
+      <c r="S12" t="b">
+        <v>0</v>
+      </c>
+      <c r="T12" t="s">
+        <v>38</v>
+      </c>
       <c r="U12">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="V12">
+        <v>21652.891466140751</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="B13">
         <v>10000000</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>177.6570838796099</v>
+        <v>179.1150359084946</v>
       </c>
       <c r="F13">
-        <v>42.762083117624123</v>
+        <v>43.507506653120977</v>
       </c>
       <c r="G13" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="H13" t="s">
-        <v>344</v>
+        <v>85</v>
       </c>
       <c r="I13" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="J13" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="K13" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="L13" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="M13">
-        <v>8.9999999999999998E-4</v>
+        <v>8.0000000000000007E-5</v>
       </c>
       <c r="N13">
         <v>3</v>
@@ -2410,49 +2787,58 @@
       <c r="R13">
         <v>1</v>
       </c>
+      <c r="S13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T13" t="s">
+        <v>38</v>
+      </c>
       <c r="U13">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="V13">
+        <v>21652.891466140751</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="B14">
         <v>10000000</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E14">
-        <v>172.93348173676461</v>
+        <v>179.14104748181779</v>
       </c>
       <c r="F14">
-        <v>35.844740081414898</v>
+        <v>43.515425097978543</v>
       </c>
       <c r="G14" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="H14" t="s">
-        <v>349</v>
+        <v>91</v>
       </c>
       <c r="I14" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="J14" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="K14" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="L14" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="M14">
-        <v>8.9999999999999998E-4</v>
+        <v>8.0000000000000007E-5</v>
       </c>
       <c r="N14">
         <v>3</v>
@@ -2469,49 +2855,58 @@
       <c r="R14">
         <v>1</v>
       </c>
+      <c r="S14" t="b">
+        <v>0</v>
+      </c>
+      <c r="T14" t="s">
+        <v>38</v>
+      </c>
       <c r="U14">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="V14">
+        <v>21652.891466140751</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="B15">
         <v>10000000</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>174.2725839502414</v>
+        <v>144.47766981975391</v>
       </c>
       <c r="F15">
-        <v>33.593583139618211</v>
+        <v>89.820510393033103</v>
       </c>
       <c r="G15" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="H15" t="s">
-        <v>350</v>
+        <v>98</v>
       </c>
       <c r="I15" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="J15" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K15" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="L15" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="M15">
-        <v>8.9999999999999998E-4</v>
+        <v>8.0000000000000007E-5</v>
       </c>
       <c r="N15">
         <v>3</v>
@@ -2528,419 +2923,458 @@
       <c r="R15">
         <v>1</v>
       </c>
+      <c r="S15" t="b">
+        <v>0</v>
+      </c>
+      <c r="T15" t="s">
+        <v>38</v>
+      </c>
       <c r="U15">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="V15">
+        <v>22977.550014019009</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="B16">
         <v>10000000</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>174.2725839502414</v>
+        <v>144.47766428656561</v>
       </c>
       <c r="F16">
-        <v>33.593583139618211</v>
+        <v>89.820515257769927</v>
       </c>
       <c r="G16" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="H16" t="s">
-        <v>350</v>
+        <v>98</v>
       </c>
       <c r="I16" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="J16" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="K16" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="L16" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="M16">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="N16">
+        <v>3</v>
+      </c>
+      <c r="O16">
+        <v>25</v>
+      </c>
+      <c r="P16">
+        <v>3</v>
+      </c>
+      <c r="Q16">
+        <v>20</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16" t="b">
+        <v>0</v>
+      </c>
+      <c r="T16" t="s">
+        <v>38</v>
+      </c>
+      <c r="U16">
+        <v>8</v>
+      </c>
+      <c r="V16">
+        <v>22977.550014019009</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17">
+        <v>10000000</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>144.477660611663</v>
+      </c>
+      <c r="F17">
+        <v>89.820518315928098</v>
+      </c>
+      <c r="G17" t="s">
+        <v>108</v>
+      </c>
+      <c r="H17" t="s">
+        <v>98</v>
+      </c>
+      <c r="I17" t="s">
+        <v>109</v>
+      </c>
+      <c r="J17" t="s">
+        <v>110</v>
+      </c>
+      <c r="K17" t="s">
+        <v>111</v>
+      </c>
+      <c r="L17" t="s">
+        <v>112</v>
+      </c>
+      <c r="M17">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="N17">
+        <v>3</v>
+      </c>
+      <c r="O17">
+        <v>25</v>
+      </c>
+      <c r="P17">
+        <v>3</v>
+      </c>
+      <c r="Q17">
+        <v>20</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17" t="b">
+        <v>0</v>
+      </c>
+      <c r="T17" t="s">
+        <v>38</v>
+      </c>
+      <c r="U17">
+        <v>8</v>
+      </c>
+      <c r="V17">
+        <v>22977.550014019009</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18">
+        <v>10000000</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18">
+        <v>178.0050790411637</v>
+      </c>
+      <c r="F18">
+        <v>43.31403421359753</v>
+      </c>
+      <c r="G18" t="s">
+        <v>114</v>
+      </c>
+      <c r="H18" t="s">
+        <v>115</v>
+      </c>
+      <c r="I18" t="s">
+        <v>116</v>
+      </c>
+      <c r="J18" t="s">
+        <v>117</v>
+      </c>
+      <c r="K18" t="s">
+        <v>118</v>
+      </c>
+      <c r="L18" t="s">
+        <v>119</v>
+      </c>
+      <c r="M18">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="N18">
+        <v>3</v>
+      </c>
+      <c r="O18">
+        <v>25</v>
+      </c>
+      <c r="P18">
+        <v>3</v>
+      </c>
+      <c r="Q18">
+        <v>20</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18" t="b">
+        <v>0</v>
+      </c>
+      <c r="T18" t="s">
+        <v>38</v>
+      </c>
+      <c r="U18">
+        <v>8</v>
+      </c>
+      <c r="V18">
+        <v>17998.21555185318</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19">
+        <v>10000000</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>177.96753214643891</v>
+      </c>
+      <c r="F19">
+        <v>43.46683951003169</v>
+      </c>
+      <c r="G19" t="s">
+        <v>120</v>
+      </c>
+      <c r="H19" t="s">
+        <v>121</v>
+      </c>
+      <c r="I19" t="s">
+        <v>122</v>
+      </c>
+      <c r="J19" t="s">
+        <v>123</v>
+      </c>
+      <c r="K19" t="s">
+        <v>124</v>
+      </c>
+      <c r="L19" t="s">
+        <v>125</v>
+      </c>
+      <c r="M19">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="N19">
+        <v>3</v>
+      </c>
+      <c r="O19">
+        <v>25</v>
+      </c>
+      <c r="P19">
+        <v>3</v>
+      </c>
+      <c r="Q19">
+        <v>20</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19" t="b">
+        <v>0</v>
+      </c>
+      <c r="T19" t="s">
+        <v>38</v>
+      </c>
+      <c r="U19">
+        <v>8</v>
+      </c>
+      <c r="V19">
+        <v>17998.21555185318</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20">
+        <v>10000000</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>178.19264110128111</v>
+      </c>
+      <c r="F20">
+        <v>42.924618739773287</v>
+      </c>
+      <c r="G20" t="s">
+        <v>126</v>
+      </c>
+      <c r="H20" t="s">
+        <v>127</v>
+      </c>
+      <c r="I20" t="s">
+        <v>128</v>
+      </c>
+      <c r="J20" t="s">
+        <v>129</v>
+      </c>
+      <c r="K20" t="s">
+        <v>130</v>
+      </c>
+      <c r="L20" t="s">
+        <v>131</v>
+      </c>
+      <c r="M20">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="N20">
+        <v>3</v>
+      </c>
+      <c r="O20">
+        <v>25</v>
+      </c>
+      <c r="P20">
+        <v>3</v>
+      </c>
+      <c r="Q20">
+        <v>20</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20" t="b">
+        <v>0</v>
+      </c>
+      <c r="T20" t="s">
+        <v>38</v>
+      </c>
+      <c r="U20">
+        <v>8</v>
+      </c>
+      <c r="V20">
+        <v>17998.21555185318</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B21">
+        <v>10000000</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>177.7251464006205</v>
+      </c>
+      <c r="F21">
+        <v>42.938145638634751</v>
+      </c>
+      <c r="G21" t="s">
+        <v>133</v>
+      </c>
+      <c r="H21" t="s">
+        <v>134</v>
+      </c>
+      <c r="I21" t="s">
+        <v>135</v>
+      </c>
+      <c r="J21" t="s">
+        <v>136</v>
+      </c>
+      <c r="K21" t="s">
+        <v>137</v>
+      </c>
+      <c r="L21" t="s">
+        <v>138</v>
+      </c>
+      <c r="M21">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="N16">
-        <v>3</v>
-      </c>
-      <c r="O16">
-        <v>25</v>
-      </c>
-      <c r="P16">
-        <v>3</v>
-      </c>
-      <c r="Q16">
-        <v>20</v>
-      </c>
-      <c r="R16">
-        <v>1</v>
-      </c>
-      <c r="U16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17">
-        <v>10000000</v>
-      </c>
-      <c r="C17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17">
-        <v>178.5029382720744</v>
-      </c>
-      <c r="F17">
-        <v>40.484000326231659</v>
-      </c>
-      <c r="G17" t="s">
-        <v>64</v>
-      </c>
-      <c r="H17" t="s">
-        <v>351</v>
-      </c>
-      <c r="I17" t="s">
-        <v>65</v>
-      </c>
-      <c r="J17" t="s">
-        <v>66</v>
-      </c>
-      <c r="K17" t="s">
-        <v>67</v>
-      </c>
-      <c r="L17" t="s">
-        <v>68</v>
-      </c>
-      <c r="M17">
+      <c r="N21">
+        <v>3</v>
+      </c>
+      <c r="O21">
+        <v>25</v>
+      </c>
+      <c r="P21">
+        <v>3</v>
+      </c>
+      <c r="Q21">
+        <v>20</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22">
+        <v>10000000</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22">
+        <v>177.6570838796099</v>
+      </c>
+      <c r="F22">
+        <v>42.762083117624123</v>
+      </c>
+      <c r="G22" t="s">
+        <v>139</v>
+      </c>
+      <c r="H22" t="s">
+        <v>140</v>
+      </c>
+      <c r="I22" t="s">
+        <v>141</v>
+      </c>
+      <c r="J22" t="s">
+        <v>142</v>
+      </c>
+      <c r="K22" t="s">
+        <v>143</v>
+      </c>
+      <c r="L22" t="s">
+        <v>144</v>
+      </c>
+      <c r="M22">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="N17">
-        <v>3</v>
-      </c>
-      <c r="O17">
-        <v>25</v>
-      </c>
-      <c r="P17">
-        <v>3</v>
-      </c>
-      <c r="Q17">
-        <v>20</v>
-      </c>
-      <c r="R17">
-        <v>1</v>
-      </c>
-      <c r="S17">
-        <v>3</v>
-      </c>
-      <c r="U17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18">
-        <v>10000000</v>
-      </c>
-      <c r="C18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>177.15380741275209</v>
-      </c>
-      <c r="F18">
-        <v>41.274757162221803</v>
-      </c>
-      <c r="G18" t="s">
-        <v>69</v>
-      </c>
-      <c r="H18" t="s">
-        <v>352</v>
-      </c>
-      <c r="I18" t="s">
-        <v>70</v>
-      </c>
-      <c r="J18" t="s">
-        <v>71</v>
-      </c>
-      <c r="K18" t="s">
-        <v>72</v>
-      </c>
-      <c r="L18" t="s">
-        <v>73</v>
-      </c>
-      <c r="M18">
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="N18">
-        <v>3</v>
-      </c>
-      <c r="O18">
-        <v>25</v>
-      </c>
-      <c r="P18">
-        <v>3</v>
-      </c>
-      <c r="Q18">
-        <v>20</v>
-      </c>
-      <c r="R18">
-        <v>1</v>
-      </c>
-      <c r="S18">
-        <v>3</v>
-      </c>
-      <c r="U18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19">
-        <v>10000000</v>
-      </c>
-      <c r="C19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19">
-        <v>177.00958293294559</v>
-      </c>
-      <c r="F19">
-        <v>42.087405057903631</v>
-      </c>
-      <c r="G19" t="s">
-        <v>74</v>
-      </c>
-      <c r="H19" t="s">
-        <v>353</v>
-      </c>
-      <c r="I19" t="s">
-        <v>75</v>
-      </c>
-      <c r="J19" t="s">
-        <v>76</v>
-      </c>
-      <c r="K19" t="s">
-        <v>77</v>
-      </c>
-      <c r="L19" t="s">
-        <v>78</v>
-      </c>
-      <c r="M19">
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="N19">
-        <v>3</v>
-      </c>
-      <c r="O19">
-        <v>25</v>
-      </c>
-      <c r="P19">
-        <v>3</v>
-      </c>
-      <c r="Q19">
-        <v>20</v>
-      </c>
-      <c r="R19">
-        <v>1</v>
-      </c>
-      <c r="S19">
-        <v>3</v>
-      </c>
-      <c r="U19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20">
-        <v>10000000</v>
-      </c>
-      <c r="C20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20">
-        <v>144.58458337893089</v>
-      </c>
-      <c r="F20">
-        <v>89.729583297868587</v>
-      </c>
-      <c r="G20" t="s">
-        <v>80</v>
-      </c>
-      <c r="H20" t="s">
-        <v>354</v>
-      </c>
-      <c r="I20" t="s">
-        <v>81</v>
-      </c>
-      <c r="J20" t="s">
-        <v>82</v>
-      </c>
-      <c r="K20" t="s">
-        <v>83</v>
-      </c>
-      <c r="L20" t="s">
-        <v>84</v>
-      </c>
-      <c r="M20">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="N20">
-        <v>3</v>
-      </c>
-      <c r="O20">
-        <v>25</v>
-      </c>
-      <c r="P20">
-        <v>3</v>
-      </c>
-      <c r="Q20">
-        <v>20</v>
-      </c>
-      <c r="R20">
-        <v>1</v>
-      </c>
-      <c r="S20">
-        <v>3</v>
-      </c>
-      <c r="U20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>79</v>
-      </c>
-      <c r="B21">
-        <v>10000000</v>
-      </c>
-      <c r="C21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21">
-        <v>144.58458337893089</v>
-      </c>
-      <c r="F21">
-        <v>89.729583297868587</v>
-      </c>
-      <c r="G21" t="s">
-        <v>80</v>
-      </c>
-      <c r="H21" t="s">
-        <v>354</v>
-      </c>
-      <c r="I21" t="s">
-        <v>81</v>
-      </c>
-      <c r="J21" t="s">
-        <v>82</v>
-      </c>
-      <c r="K21" t="s">
-        <v>83</v>
-      </c>
-      <c r="L21" t="s">
-        <v>84</v>
-      </c>
-      <c r="M21">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="N21">
-        <v>3</v>
-      </c>
-      <c r="O21">
-        <v>25</v>
-      </c>
-      <c r="P21">
-        <v>3</v>
-      </c>
-      <c r="Q21">
-        <v>20</v>
-      </c>
-      <c r="R21">
-        <v>1</v>
-      </c>
-      <c r="S21">
-        <v>3</v>
-      </c>
-      <c r="U21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22">
-        <v>10000000</v>
-      </c>
-      <c r="C22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22">
-        <v>144.58458337893089</v>
-      </c>
-      <c r="F22">
-        <v>89.729583297868587</v>
-      </c>
-      <c r="G22" t="s">
-        <v>80</v>
-      </c>
-      <c r="H22" t="s">
-        <v>354</v>
-      </c>
-      <c r="I22" t="s">
-        <v>81</v>
-      </c>
-      <c r="J22" t="s">
-        <v>82</v>
-      </c>
-      <c r="K22" t="s">
-        <v>83</v>
-      </c>
-      <c r="L22" t="s">
-        <v>84</v>
-      </c>
-      <c r="M22">
-        <v>2.9999999999999997E-4</v>
-      </c>
       <c r="N22">
         <v>3</v>
       </c>
@@ -2956,49 +3390,46 @@
       <c r="R22">
         <v>1</v>
       </c>
-      <c r="S22">
-        <v>3</v>
-      </c>
       <c r="U22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>85</v>
+        <v>132</v>
       </c>
       <c r="B23">
         <v>10000000</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>178.16492720441749</v>
+        <v>177.6570838796099</v>
       </c>
       <c r="F23">
-        <v>47.793129956530827</v>
+        <v>42.762083117624123</v>
       </c>
       <c r="G23" t="s">
-        <v>86</v>
+        <v>139</v>
       </c>
       <c r="H23" t="s">
-        <v>355</v>
+        <v>140</v>
       </c>
       <c r="I23" t="s">
-        <v>87</v>
+        <v>141</v>
       </c>
       <c r="J23" t="s">
-        <v>88</v>
+        <v>142</v>
       </c>
       <c r="K23" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="L23" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="M23">
         <v>8.9999999999999998E-4</v>
@@ -3022,42 +3453,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="B24">
         <v>10000000</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D24" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>177.56436160549359</v>
+        <v>149.22833339377249</v>
       </c>
       <c r="F24">
-        <v>48.026501955835407</v>
+        <v>85.664333288391418</v>
       </c>
       <c r="G24" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="H24" t="s">
-        <v>356</v>
+        <v>147</v>
       </c>
       <c r="I24" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="J24" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="K24" t="s">
-        <v>94</v>
+        <v>150</v>
       </c>
       <c r="L24" t="s">
-        <v>95</v>
+        <v>151</v>
       </c>
       <c r="M24">
         <v>8.9999999999999998E-4</v>
@@ -3077,46 +3508,49 @@
       <c r="R24">
         <v>1</v>
       </c>
+      <c r="S24">
+        <v>3</v>
+      </c>
       <c r="U24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="B25">
         <v>10000000</v>
       </c>
       <c r="C25" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D25" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E25">
-        <v>177.02881790047411</v>
+        <v>149.22833339377249</v>
       </c>
       <c r="F25">
-        <v>49.028895847137044</v>
+        <v>85.664333288391418</v>
       </c>
       <c r="G25" t="s">
-        <v>96</v>
+        <v>146</v>
       </c>
       <c r="H25" t="s">
-        <v>357</v>
+        <v>147</v>
       </c>
       <c r="I25" t="s">
-        <v>97</v>
+        <v>148</v>
       </c>
       <c r="J25" t="s">
-        <v>98</v>
+        <v>149</v>
       </c>
       <c r="K25" t="s">
-        <v>99</v>
+        <v>150</v>
       </c>
       <c r="L25" t="s">
-        <v>100</v>
+        <v>151</v>
       </c>
       <c r="M25">
         <v>8.9999999999999998E-4</v>
@@ -3136,49 +3570,52 @@
       <c r="R25">
         <v>1</v>
       </c>
+      <c r="S25">
+        <v>3</v>
+      </c>
       <c r="U25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="B26">
         <v>10000000</v>
       </c>
       <c r="C26" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D26" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E26">
-        <v>177.54733369328579</v>
+        <v>149.22833339377249</v>
       </c>
       <c r="F26">
-        <v>39.583333198805647</v>
+        <v>85.664333288391418</v>
       </c>
       <c r="G26" t="s">
-        <v>102</v>
+        <v>146</v>
       </c>
       <c r="H26" t="s">
-        <v>358</v>
+        <v>147</v>
       </c>
       <c r="I26" t="s">
-        <v>103</v>
+        <v>148</v>
       </c>
       <c r="J26" t="s">
-        <v>104</v>
+        <v>149</v>
       </c>
       <c r="K26" t="s">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="L26" t="s">
-        <v>106</v>
+        <v>151</v>
       </c>
       <c r="M26">
-        <v>2.9999999999999997E-4</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="N26">
         <v>3</v>
@@ -3195,49 +3632,52 @@
       <c r="R26">
         <v>1</v>
       </c>
+      <c r="S26">
+        <v>3</v>
+      </c>
       <c r="U26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>101</v>
+        <v>152</v>
       </c>
       <c r="B27">
         <v>10000000</v>
       </c>
       <c r="C27" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E27">
-        <v>177.54733369328579</v>
+        <v>176.34758355148631</v>
       </c>
       <c r="F27">
-        <v>39.583333198805647</v>
+        <v>53.599583227237069</v>
       </c>
       <c r="G27" t="s">
-        <v>102</v>
+        <v>153</v>
       </c>
       <c r="H27" t="s">
-        <v>358</v>
+        <v>154</v>
       </c>
       <c r="I27" t="s">
-        <v>103</v>
+        <v>155</v>
       </c>
       <c r="J27" t="s">
-        <v>104</v>
+        <v>156</v>
       </c>
       <c r="K27" t="s">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="L27" t="s">
-        <v>106</v>
+        <v>158</v>
       </c>
       <c r="M27">
-        <v>2.9999999999999997E-4</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="N27">
         <v>3</v>
@@ -3254,49 +3694,52 @@
       <c r="R27">
         <v>1</v>
       </c>
+      <c r="S27">
+        <v>3</v>
+      </c>
       <c r="U27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>101</v>
+        <v>152</v>
       </c>
       <c r="B28">
         <v>10000000</v>
       </c>
       <c r="C28" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E28">
-        <v>177.54733369328579</v>
+        <v>175.29458355148631</v>
       </c>
       <c r="F28">
-        <v>39.583333198805647</v>
+        <v>53.599583227237069</v>
       </c>
       <c r="G28" t="s">
-        <v>102</v>
+        <v>159</v>
       </c>
       <c r="H28" t="s">
-        <v>358</v>
+        <v>160</v>
       </c>
       <c r="I28" t="s">
-        <v>103</v>
+        <v>161</v>
       </c>
       <c r="J28" t="s">
-        <v>104</v>
+        <v>156</v>
       </c>
       <c r="K28" t="s">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="L28" t="s">
-        <v>106</v>
+        <v>158</v>
       </c>
       <c r="M28">
-        <v>2.9999999999999997E-4</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="N28">
         <v>3</v>
@@ -3313,49 +3756,52 @@
       <c r="R28">
         <v>1</v>
       </c>
+      <c r="S28">
+        <v>3</v>
+      </c>
       <c r="U28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="B29">
         <v>10000000</v>
       </c>
       <c r="C29" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D29" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>141.779392736294</v>
+        <v>174.4283336265882</v>
       </c>
       <c r="F29">
-        <v>89.756111429550415</v>
+        <v>54.581333302338919</v>
       </c>
       <c r="G29" t="s">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="H29" t="s">
-        <v>359</v>
+        <v>163</v>
       </c>
       <c r="I29" t="s">
-        <v>109</v>
+        <v>164</v>
       </c>
       <c r="J29" t="s">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c r="K29" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
       <c r="L29" t="s">
-        <v>112</v>
+        <v>167</v>
       </c>
       <c r="M29">
-        <v>2.9999999999999997E-4</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="N29">
         <v>3</v>
@@ -3379,45 +3825,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>107</v>
+        <v>168</v>
       </c>
       <c r="B30">
         <v>10000000</v>
       </c>
       <c r="C30" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D30" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E30">
-        <v>139.59133336462571</v>
+        <v>177.6570838796099</v>
       </c>
       <c r="F30">
-        <v>93.895333307882126</v>
+        <v>42.762083117624123</v>
       </c>
       <c r="G30" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="H30" t="s">
-        <v>360</v>
+        <v>140</v>
       </c>
       <c r="I30" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="J30" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="K30" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="L30" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="M30">
-        <v>2.9999999999999997E-4</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="N30">
         <v>3</v>
@@ -3434,52 +3880,49 @@
       <c r="R30">
         <v>1</v>
       </c>
-      <c r="S30">
-        <v>3</v>
-      </c>
       <c r="U30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>107</v>
+        <v>168</v>
       </c>
       <c r="B31">
         <v>10000000</v>
       </c>
       <c r="C31" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D31" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E31">
-        <v>140.94796004303601</v>
+        <v>177.6570838796099</v>
       </c>
       <c r="F31">
-        <v>92.309072046839276</v>
+        <v>42.762083117624123</v>
       </c>
       <c r="G31" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="H31" t="s">
-        <v>361</v>
+        <v>140</v>
       </c>
       <c r="I31" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="J31" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="K31" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="L31" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="M31">
-        <v>2.9999999999999997E-4</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="N31">
         <v>3</v>
@@ -3496,52 +3939,49 @@
       <c r="R31">
         <v>1</v>
       </c>
-      <c r="S31">
-        <v>3</v>
-      </c>
       <c r="U31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>123</v>
+        <v>168</v>
       </c>
       <c r="B32">
         <v>10000000</v>
       </c>
       <c r="C32" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D32" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E32">
-        <v>139.59133336462571</v>
+        <v>177.6570838796099</v>
       </c>
       <c r="F32">
-        <v>93.895333307882126</v>
+        <v>42.762083117624123</v>
       </c>
       <c r="G32" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="H32" t="s">
-        <v>360</v>
+        <v>140</v>
       </c>
       <c r="I32" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="J32" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="K32" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="L32" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="M32">
-        <v>2.9999999999999997E-4</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="N32">
         <v>3</v>
@@ -3557,9 +3997,6 @@
       </c>
       <c r="R32">
         <v>1</v>
-      </c>
-      <c r="S32">
-        <v>3</v>
       </c>
       <c r="U32">
         <v>1</v>
@@ -3567,43 +4004,43 @@
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>123</v>
+        <v>169</v>
       </c>
       <c r="B33">
         <v>10000000</v>
       </c>
       <c r="C33" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D33" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E33">
-        <v>139.59133336462571</v>
+        <v>172.93348173676461</v>
       </c>
       <c r="F33">
-        <v>93.895333307882126</v>
+        <v>35.844740081414898</v>
       </c>
       <c r="G33" t="s">
-        <v>113</v>
+        <v>170</v>
       </c>
       <c r="H33" t="s">
-        <v>360</v>
+        <v>171</v>
       </c>
       <c r="I33" t="s">
-        <v>114</v>
+        <v>172</v>
       </c>
       <c r="J33" t="s">
-        <v>115</v>
+        <v>173</v>
       </c>
       <c r="K33" t="s">
-        <v>116</v>
+        <v>174</v>
       </c>
       <c r="L33" t="s">
-        <v>117</v>
+        <v>175</v>
       </c>
       <c r="M33">
-        <v>2.9999999999999997E-4</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="N33">
         <v>3</v>
@@ -3619,9 +4056,6 @@
       </c>
       <c r="R33">
         <v>1</v>
-      </c>
-      <c r="S33">
-        <v>3</v>
       </c>
       <c r="U33">
         <v>1</v>
@@ -3629,43 +4063,43 @@
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>123</v>
+        <v>169</v>
       </c>
       <c r="B34">
         <v>10000000</v>
       </c>
       <c r="C34" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D34" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E34">
-        <v>139.59133336462571</v>
+        <v>174.2725839502414</v>
       </c>
       <c r="F34">
-        <v>93.895333307882126</v>
+        <v>33.593583139618211</v>
       </c>
       <c r="G34" t="s">
-        <v>113</v>
+        <v>176</v>
       </c>
       <c r="H34" t="s">
-        <v>360</v>
+        <v>177</v>
       </c>
       <c r="I34" t="s">
-        <v>114</v>
+        <v>178</v>
       </c>
       <c r="J34" t="s">
-        <v>115</v>
+        <v>179</v>
       </c>
       <c r="K34" t="s">
-        <v>116</v>
+        <v>180</v>
       </c>
       <c r="L34" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
       <c r="M34">
-        <v>2.9999999999999997E-4</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="N34">
         <v>3</v>
@@ -3681,9 +4115,6 @@
       </c>
       <c r="R34">
         <v>1</v>
-      </c>
-      <c r="S34">
-        <v>3</v>
       </c>
       <c r="U34">
         <v>1</v>
@@ -3691,43 +4122,43 @@
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>124</v>
+        <v>169</v>
       </c>
       <c r="B35">
         <v>10000000</v>
       </c>
       <c r="C35" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E35">
-        <v>180.5018220158195</v>
+        <v>174.2725839502414</v>
       </c>
       <c r="F35">
-        <v>40.284821545657998</v>
+        <v>33.593583139618211</v>
       </c>
       <c r="G35" t="s">
-        <v>125</v>
+        <v>176</v>
       </c>
       <c r="H35" t="s">
-        <v>362</v>
+        <v>177</v>
       </c>
       <c r="I35" t="s">
-        <v>126</v>
+        <v>178</v>
       </c>
       <c r="J35" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="K35" t="s">
-        <v>128</v>
+        <v>180</v>
       </c>
       <c r="L35" t="s">
-        <v>129</v>
+        <v>181</v>
       </c>
       <c r="M35">
-        <v>2.9999999999999997E-4</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="N35">
         <v>3</v>
@@ -3750,43 +4181,43 @@
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>124</v>
+        <v>182</v>
       </c>
       <c r="B36">
         <v>10000000</v>
       </c>
       <c r="C36" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D36" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E36">
-        <v>180.36618676936561</v>
+        <v>178.5029382720744</v>
       </c>
       <c r="F36">
-        <v>40.616811153292034</v>
+        <v>40.484000326231659</v>
       </c>
       <c r="G36" t="s">
-        <v>130</v>
+        <v>183</v>
       </c>
       <c r="H36" t="s">
-        <v>363</v>
+        <v>184</v>
       </c>
       <c r="I36" t="s">
-        <v>131</v>
+        <v>185</v>
       </c>
       <c r="J36" t="s">
-        <v>132</v>
+        <v>186</v>
       </c>
       <c r="K36" t="s">
-        <v>133</v>
+        <v>187</v>
       </c>
       <c r="L36" t="s">
-        <v>134</v>
+        <v>188</v>
       </c>
       <c r="M36">
-        <v>2.9999999999999997E-4</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="N36">
         <v>3</v>
@@ -3802,6 +4233,9 @@
       </c>
       <c r="R36">
         <v>1</v>
+      </c>
+      <c r="S36">
+        <v>3</v>
       </c>
       <c r="U36">
         <v>1</v>
@@ -3809,43 +4243,43 @@
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>124</v>
+        <v>182</v>
       </c>
       <c r="B37">
         <v>10000000</v>
       </c>
       <c r="C37" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D37" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E37">
-        <v>179.70350305032861</v>
+        <v>177.15380741275209</v>
       </c>
       <c r="F37">
-        <v>42.362002580167108</v>
+        <v>41.274757162221803</v>
       </c>
       <c r="G37" t="s">
-        <v>135</v>
+        <v>189</v>
       </c>
       <c r="H37" t="s">
-        <v>364</v>
+        <v>190</v>
       </c>
       <c r="I37" t="s">
-        <v>136</v>
+        <v>191</v>
       </c>
       <c r="J37" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="K37" t="s">
-        <v>138</v>
+        <v>193</v>
       </c>
       <c r="L37" t="s">
-        <v>139</v>
+        <v>194</v>
       </c>
       <c r="M37">
-        <v>2.9999999999999997E-4</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="N37">
         <v>3</v>
@@ -3861,6 +4295,9 @@
       </c>
       <c r="R37">
         <v>1</v>
+      </c>
+      <c r="S37">
+        <v>3</v>
       </c>
       <c r="U37">
         <v>1</v>
@@ -3868,43 +4305,43 @@
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>140</v>
+        <v>182</v>
       </c>
       <c r="B38">
         <v>10000000</v>
       </c>
       <c r="C38" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D38" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E38">
-        <v>177.60433373387659</v>
+        <v>177.00958293294559</v>
       </c>
       <c r="F38">
-        <v>45.127333166440323</v>
+        <v>42.087405057903631</v>
       </c>
       <c r="G38" t="s">
-        <v>141</v>
+        <v>195</v>
       </c>
       <c r="H38" t="s">
-        <v>365</v>
+        <v>196</v>
       </c>
       <c r="I38" t="s">
-        <v>142</v>
+        <v>197</v>
       </c>
       <c r="J38" t="s">
-        <v>143</v>
+        <v>198</v>
       </c>
       <c r="K38" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
       <c r="L38" t="s">
-        <v>145</v>
+        <v>200</v>
       </c>
       <c r="M38">
-        <v>2.9999999999999997E-4</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="N38">
         <v>3</v>
@@ -3920,6 +4357,9 @@
       </c>
       <c r="R38">
         <v>1</v>
+      </c>
+      <c r="S38">
+        <v>3</v>
       </c>
       <c r="U38">
         <v>1</v>
@@ -3927,40 +4367,40 @@
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>140</v>
+        <v>201</v>
       </c>
       <c r="B39">
         <v>10000000</v>
       </c>
       <c r="C39" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D39" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E39">
-        <v>177.60433373387659</v>
+        <v>144.58458337893089</v>
       </c>
       <c r="F39">
-        <v>45.127333166440323</v>
+        <v>89.729583297868587</v>
       </c>
       <c r="G39" t="s">
-        <v>141</v>
+        <v>202</v>
       </c>
       <c r="H39" t="s">
-        <v>365</v>
+        <v>203</v>
       </c>
       <c r="I39" t="s">
-        <v>142</v>
+        <v>204</v>
       </c>
       <c r="J39" t="s">
-        <v>143</v>
+        <v>205</v>
       </c>
       <c r="K39" t="s">
-        <v>144</v>
+        <v>206</v>
       </c>
       <c r="L39" t="s">
-        <v>145</v>
+        <v>207</v>
       </c>
       <c r="M39">
         <v>2.9999999999999997E-4</v>
@@ -3980,46 +4420,49 @@
       <c r="R39">
         <v>1</v>
       </c>
+      <c r="S39">
+        <v>3</v>
+      </c>
       <c r="U39">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>140</v>
+        <v>201</v>
       </c>
       <c r="B40">
         <v>10000000</v>
       </c>
       <c r="C40" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D40" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E40">
-        <v>177.60433373387659</v>
+        <v>144.58458337893089</v>
       </c>
       <c r="F40">
-        <v>45.127333166440323</v>
+        <v>89.729583297868587</v>
       </c>
       <c r="G40" t="s">
-        <v>141</v>
+        <v>202</v>
       </c>
       <c r="H40" t="s">
-        <v>365</v>
+        <v>203</v>
       </c>
       <c r="I40" t="s">
-        <v>142</v>
+        <v>204</v>
       </c>
       <c r="J40" t="s">
-        <v>143</v>
+        <v>205</v>
       </c>
       <c r="K40" t="s">
-        <v>144</v>
+        <v>206</v>
       </c>
       <c r="L40" t="s">
-        <v>145</v>
+        <v>207</v>
       </c>
       <c r="M40">
         <v>2.9999999999999997E-4</v>
@@ -4039,46 +4482,49 @@
       <c r="R40">
         <v>1</v>
       </c>
+      <c r="S40">
+        <v>3</v>
+      </c>
       <c r="U40">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>146</v>
+        <v>201</v>
       </c>
       <c r="B41">
         <v>10000000</v>
       </c>
       <c r="C41" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D41" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E41">
-        <v>154.29399270838991</v>
+        <v>144.58458337893089</v>
       </c>
       <c r="F41">
-        <v>79.39824257869023</v>
+        <v>89.729583297868587</v>
       </c>
       <c r="G41" t="s">
-        <v>147</v>
+        <v>202</v>
       </c>
       <c r="H41" t="s">
-        <v>366</v>
+        <v>203</v>
       </c>
       <c r="I41" t="s">
-        <v>148</v>
+        <v>204</v>
       </c>
       <c r="J41" t="s">
-        <v>149</v>
+        <v>205</v>
       </c>
       <c r="K41" t="s">
-        <v>150</v>
+        <v>206</v>
       </c>
       <c r="L41" t="s">
-        <v>151</v>
+        <v>207</v>
       </c>
       <c r="M41">
         <v>2.9999999999999997E-4</v>
@@ -4107,43 +4553,43 @@
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>146</v>
+        <v>208</v>
       </c>
       <c r="B42">
         <v>10000000</v>
       </c>
       <c r="C42" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D42" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E42">
-        <v>154.77490845894081</v>
+        <v>178.16492720441749</v>
       </c>
       <c r="F42">
-        <v>79.097047237627351</v>
+        <v>47.793129956530827</v>
       </c>
       <c r="G42" t="s">
-        <v>152</v>
+        <v>209</v>
       </c>
       <c r="H42" t="s">
-        <v>367</v>
+        <v>210</v>
       </c>
       <c r="I42" t="s">
-        <v>153</v>
+        <v>211</v>
       </c>
       <c r="J42" t="s">
-        <v>154</v>
+        <v>212</v>
       </c>
       <c r="K42" t="s">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="L42" t="s">
-        <v>156</v>
+        <v>214</v>
       </c>
       <c r="M42">
-        <v>2.9999999999999997E-4</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="N42">
         <v>3</v>
@@ -4159,9 +4605,6 @@
       </c>
       <c r="R42">
         <v>1</v>
-      </c>
-      <c r="S42">
-        <v>3</v>
       </c>
       <c r="U42">
         <v>1</v>
@@ -4169,43 +4612,43 @@
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>146</v>
+        <v>208</v>
       </c>
       <c r="B43">
         <v>10000000</v>
       </c>
       <c r="C43" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D43" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E43">
-        <v>155.6110670803811</v>
+        <v>177.56436160549359</v>
       </c>
       <c r="F43">
-        <v>76.953265681150128</v>
+        <v>48.026501955835407</v>
       </c>
       <c r="G43" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="H43" t="s">
-        <v>368</v>
+        <v>216</v>
       </c>
       <c r="I43" t="s">
-        <v>158</v>
+        <v>217</v>
       </c>
       <c r="J43" t="s">
-        <v>159</v>
+        <v>218</v>
       </c>
       <c r="K43" t="s">
-        <v>160</v>
+        <v>219</v>
       </c>
       <c r="L43" t="s">
-        <v>161</v>
+        <v>220</v>
       </c>
       <c r="M43">
-        <v>2.9999999999999997E-4</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="N43">
         <v>3</v>
@@ -4221,9 +4664,6 @@
       </c>
       <c r="R43">
         <v>1</v>
-      </c>
-      <c r="S43">
-        <v>3</v>
       </c>
       <c r="U43">
         <v>1</v>
@@ -4231,43 +4671,43 @@
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="B44">
         <v>10000000</v>
       </c>
       <c r="C44" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D44" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E44">
-        <v>162.9028278669287</v>
+        <v>177.02881790047411</v>
       </c>
       <c r="F44">
-        <v>70.03723546256316</v>
+        <v>49.028895847137044</v>
       </c>
       <c r="G44" t="s">
-        <v>163</v>
+        <v>221</v>
       </c>
       <c r="H44" t="s">
-        <v>369</v>
+        <v>222</v>
       </c>
       <c r="I44" t="s">
-        <v>164</v>
+        <v>223</v>
       </c>
       <c r="J44" t="s">
-        <v>165</v>
+        <v>224</v>
       </c>
       <c r="K44" t="s">
-        <v>166</v>
+        <v>225</v>
       </c>
       <c r="L44" t="s">
-        <v>167</v>
+        <v>226</v>
       </c>
       <c r="M44">
-        <v>8.0000000000000007E-5</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="N44">
         <v>3</v>
@@ -4283,9 +4723,6 @@
       </c>
       <c r="R44">
         <v>1</v>
-      </c>
-      <c r="S44">
-        <v>3</v>
       </c>
       <c r="U44">
         <v>1</v>
@@ -4293,43 +4730,43 @@
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>162</v>
+        <v>227</v>
       </c>
       <c r="B45">
         <v>10000000</v>
       </c>
       <c r="C45" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D45" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E45">
-        <v>164.8158214957765</v>
+        <v>177.54733369328579</v>
       </c>
       <c r="F45">
-        <v>67.350079772715944</v>
+        <v>39.583333198805647</v>
       </c>
       <c r="G45" t="s">
-        <v>168</v>
+        <v>228</v>
       </c>
       <c r="H45" t="s">
-        <v>370</v>
+        <v>229</v>
       </c>
       <c r="I45" t="s">
-        <v>169</v>
+        <v>230</v>
       </c>
       <c r="J45" t="s">
-        <v>170</v>
+        <v>231</v>
       </c>
       <c r="K45" t="s">
-        <v>171</v>
+        <v>232</v>
       </c>
       <c r="L45" t="s">
-        <v>172</v>
+        <v>233</v>
       </c>
       <c r="M45">
-        <v>8.0000000000000007E-5</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="N45">
         <v>3</v>
@@ -4345,9 +4782,6 @@
       </c>
       <c r="R45">
         <v>1</v>
-      </c>
-      <c r="S45">
-        <v>3</v>
       </c>
       <c r="U45">
         <v>1</v>
@@ -4355,43 +4789,43 @@
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>162</v>
+        <v>227</v>
       </c>
       <c r="B46">
         <v>10000000</v>
       </c>
       <c r="C46" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D46" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E46">
-        <v>162.99463763681149</v>
+        <v>177.54733369328579</v>
       </c>
       <c r="F46">
-        <v>69.850533666283852</v>
+        <v>39.583333198805647</v>
       </c>
       <c r="G46" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="H46" t="s">
-        <v>371</v>
+        <v>229</v>
       </c>
       <c r="I46" t="s">
-        <v>174</v>
+        <v>230</v>
       </c>
       <c r="J46" t="s">
-        <v>175</v>
+        <v>231</v>
       </c>
       <c r="K46" t="s">
-        <v>176</v>
+        <v>232</v>
       </c>
       <c r="L46" t="s">
-        <v>177</v>
+        <v>233</v>
       </c>
       <c r="M46">
-        <v>8.0000000000000007E-5</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="N46">
         <v>3</v>
@@ -4407,9 +4841,6 @@
       </c>
       <c r="R46">
         <v>1</v>
-      </c>
-      <c r="S46">
-        <v>3</v>
       </c>
       <c r="U46">
         <v>1</v>
@@ -4417,40 +4848,40 @@
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>178</v>
+        <v>227</v>
       </c>
       <c r="B47">
         <v>10000000</v>
       </c>
       <c r="C47" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D47" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E47">
-        <v>175.8383130337601</v>
+        <v>177.54733369328579</v>
       </c>
       <c r="F47">
-        <v>53.489281654537237</v>
+        <v>39.583333198805647</v>
       </c>
       <c r="G47" t="s">
-        <v>179</v>
+        <v>228</v>
       </c>
       <c r="H47" t="s">
-        <v>372</v>
+        <v>229</v>
       </c>
       <c r="I47" t="s">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="J47" t="s">
-        <v>181</v>
+        <v>231</v>
       </c>
       <c r="K47" t="s">
-        <v>182</v>
+        <v>232</v>
       </c>
       <c r="L47" t="s">
-        <v>183</v>
+        <v>233</v>
       </c>
       <c r="M47">
         <v>2.9999999999999997E-4</v>
@@ -4476,40 +4907,40 @@
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>178</v>
+        <v>234</v>
       </c>
       <c r="B48">
         <v>10000000</v>
       </c>
       <c r="C48" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D48" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E48">
-        <v>175.6943130337601</v>
+        <v>141.779392736294</v>
       </c>
       <c r="F48">
-        <v>53.489281654537237</v>
+        <v>89.756111429550415</v>
       </c>
       <c r="G48" t="s">
-        <v>184</v>
+        <v>235</v>
       </c>
       <c r="H48" t="s">
-        <v>373</v>
+        <v>236</v>
       </c>
       <c r="I48" t="s">
-        <v>185</v>
+        <v>237</v>
       </c>
       <c r="J48" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="K48" t="s">
-        <v>182</v>
+        <v>239</v>
       </c>
       <c r="L48" t="s">
-        <v>183</v>
+        <v>240</v>
       </c>
       <c r="M48">
         <v>2.9999999999999997E-4</v>
@@ -4529,46 +4960,49 @@
       <c r="R48">
         <v>1</v>
       </c>
+      <c r="S48">
+        <v>3</v>
+      </c>
       <c r="U48">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>178</v>
+        <v>234</v>
       </c>
       <c r="B49">
         <v>10000000</v>
       </c>
       <c r="C49" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D49" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E49">
-        <v>174.79264843335781</v>
+        <v>139.59133336462571</v>
       </c>
       <c r="F49">
-        <v>54.738561023861507</v>
+        <v>93.895333307882126</v>
       </c>
       <c r="G49" t="s">
-        <v>186</v>
+        <v>52</v>
       </c>
       <c r="H49" t="s">
-        <v>374</v>
+        <v>241</v>
       </c>
       <c r="I49" t="s">
-        <v>187</v>
+        <v>54</v>
       </c>
       <c r="J49" t="s">
-        <v>188</v>
+        <v>55</v>
       </c>
       <c r="K49" t="s">
-        <v>189</v>
+        <v>56</v>
       </c>
       <c r="L49" t="s">
-        <v>190</v>
+        <v>57</v>
       </c>
       <c r="M49">
         <v>2.9999999999999997E-4</v>
@@ -4588,49 +5022,52 @@
       <c r="R49">
         <v>1</v>
       </c>
+      <c r="S49">
+        <v>3</v>
+      </c>
       <c r="U49">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>191</v>
+        <v>234</v>
       </c>
       <c r="B50">
         <v>10000000</v>
       </c>
       <c r="C50" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D50" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E50">
-        <v>165.1730836442014</v>
+        <v>140.94796004303601</v>
       </c>
       <c r="F50">
-        <v>67.664083149721208</v>
+        <v>92.309072046839276</v>
       </c>
       <c r="G50" t="s">
-        <v>192</v>
+        <v>242</v>
       </c>
       <c r="H50" t="s">
-        <v>375</v>
+        <v>243</v>
       </c>
       <c r="I50" t="s">
-        <v>193</v>
+        <v>244</v>
       </c>
       <c r="J50" t="s">
-        <v>194</v>
+        <v>245</v>
       </c>
       <c r="K50" t="s">
-        <v>195</v>
+        <v>246</v>
       </c>
       <c r="L50" t="s">
-        <v>196</v>
+        <v>247</v>
       </c>
       <c r="M50">
-        <v>8.0000000000000007E-5</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="N50">
         <v>3</v>
@@ -4656,43 +5093,43 @@
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>191</v>
+        <v>248</v>
       </c>
       <c r="B51">
         <v>10000000</v>
       </c>
       <c r="C51" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D51" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E51">
-        <v>166.72057548785091</v>
+        <v>139.59133336462571</v>
       </c>
       <c r="F51">
-        <v>64.303643888233879</v>
+        <v>93.895333307882126</v>
       </c>
       <c r="G51" t="s">
-        <v>197</v>
+        <v>52</v>
       </c>
       <c r="H51" t="s">
-        <v>376</v>
+        <v>241</v>
       </c>
       <c r="I51" t="s">
-        <v>198</v>
+        <v>54</v>
       </c>
       <c r="J51" t="s">
-        <v>199</v>
+        <v>55</v>
       </c>
       <c r="K51" t="s">
-        <v>200</v>
+        <v>56</v>
       </c>
       <c r="L51" t="s">
-        <v>201</v>
+        <v>57</v>
       </c>
       <c r="M51">
-        <v>8.0000000000000007E-5</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="N51">
         <v>3</v>
@@ -4718,43 +5155,43 @@
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>191</v>
+        <v>248</v>
       </c>
       <c r="B52">
         <v>10000000</v>
       </c>
       <c r="C52" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D52" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E52">
-        <v>165.4493959176888</v>
+        <v>139.59133336462571</v>
       </c>
       <c r="F52">
-        <v>65.864395617758234</v>
+        <v>93.895333307882126</v>
       </c>
       <c r="G52" t="s">
-        <v>202</v>
+        <v>52</v>
       </c>
       <c r="H52" t="s">
-        <v>377</v>
+        <v>241</v>
       </c>
       <c r="I52" t="s">
-        <v>203</v>
+        <v>54</v>
       </c>
       <c r="J52" t="s">
-        <v>204</v>
+        <v>55</v>
       </c>
       <c r="K52" t="s">
-        <v>205</v>
+        <v>56</v>
       </c>
       <c r="L52" t="s">
-        <v>206</v>
+        <v>57</v>
       </c>
       <c r="M52">
-        <v>8.0000000000000007E-5</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="N52">
         <v>3</v>
@@ -4780,43 +5217,43 @@
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>207</v>
+        <v>248</v>
       </c>
       <c r="B53">
         <v>10000000</v>
       </c>
       <c r="C53" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D53" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E53">
-        <v>177.7925836355289</v>
+        <v>139.59133336462571</v>
       </c>
       <c r="F53">
-        <v>41.961583214004833</v>
+        <v>93.895333307882126</v>
       </c>
       <c r="G53" t="s">
-        <v>208</v>
+        <v>52</v>
       </c>
       <c r="H53" t="s">
-        <v>378</v>
+        <v>241</v>
       </c>
       <c r="I53" t="s">
-        <v>209</v>
+        <v>54</v>
       </c>
       <c r="J53" t="s">
-        <v>210</v>
+        <v>55</v>
       </c>
       <c r="K53" t="s">
-        <v>211</v>
+        <v>56</v>
       </c>
       <c r="L53" t="s">
-        <v>212</v>
+        <v>57</v>
       </c>
       <c r="M53">
-        <v>8.0000000000000007E-5</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="N53">
         <v>3</v>
@@ -4832,6 +5269,9 @@
       </c>
       <c r="R53">
         <v>1</v>
+      </c>
+      <c r="S53">
+        <v>3</v>
       </c>
       <c r="U53">
         <v>1</v>
@@ -4839,43 +5279,43 @@
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>207</v>
+        <v>249</v>
       </c>
       <c r="B54">
         <v>10000000</v>
       </c>
       <c r="C54" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D54" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E54">
-        <v>177.7925836355289</v>
+        <v>180.5018220158195</v>
       </c>
       <c r="F54">
-        <v>41.961583214004833</v>
+        <v>40.284821545657998</v>
       </c>
       <c r="G54" t="s">
-        <v>208</v>
+        <v>250</v>
       </c>
       <c r="H54" t="s">
-        <v>378</v>
+        <v>251</v>
       </c>
       <c r="I54" t="s">
-        <v>209</v>
+        <v>252</v>
       </c>
       <c r="J54" t="s">
-        <v>210</v>
+        <v>253</v>
       </c>
       <c r="K54" t="s">
-        <v>211</v>
+        <v>254</v>
       </c>
       <c r="L54" t="s">
-        <v>212</v>
+        <v>255</v>
       </c>
       <c r="M54">
-        <v>8.0000000000000007E-5</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="N54">
         <v>3</v>
@@ -4898,43 +5338,43 @@
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>207</v>
+        <v>249</v>
       </c>
       <c r="B55">
         <v>10000000</v>
       </c>
       <c r="C55" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D55" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E55">
-        <v>177.7925836355289</v>
+        <v>180.36618676936561</v>
       </c>
       <c r="F55">
-        <v>41.961583214004833</v>
+        <v>40.616811153292034</v>
       </c>
       <c r="G55" t="s">
-        <v>208</v>
+        <v>256</v>
       </c>
       <c r="H55" t="s">
-        <v>378</v>
+        <v>257</v>
       </c>
       <c r="I55" t="s">
-        <v>209</v>
+        <v>258</v>
       </c>
       <c r="J55" t="s">
-        <v>210</v>
+        <v>259</v>
       </c>
       <c r="K55" t="s">
-        <v>211</v>
+        <v>260</v>
       </c>
       <c r="L55" t="s">
-        <v>212</v>
+        <v>261</v>
       </c>
       <c r="M55">
-        <v>8.0000000000000007E-5</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="N55">
         <v>3</v>
@@ -4957,43 +5397,43 @@
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>213</v>
+        <v>249</v>
       </c>
       <c r="B56">
         <v>10000000</v>
       </c>
       <c r="C56" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D56" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E56">
-        <v>176.8271602672036</v>
+        <v>179.70350305032861</v>
       </c>
       <c r="F56">
-        <v>46.507199712603857</v>
+        <v>42.362002580167108</v>
       </c>
       <c r="G56" t="s">
-        <v>214</v>
+        <v>262</v>
       </c>
       <c r="H56" t="s">
-        <v>379</v>
+        <v>263</v>
       </c>
       <c r="I56" t="s">
-        <v>215</v>
+        <v>264</v>
       </c>
       <c r="J56" t="s">
-        <v>216</v>
+        <v>265</v>
       </c>
       <c r="K56" t="s">
-        <v>217</v>
+        <v>266</v>
       </c>
       <c r="L56" t="s">
-        <v>218</v>
+        <v>267</v>
       </c>
       <c r="M56">
-        <v>8.0000000000000007E-5</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="N56">
         <v>3</v>
@@ -5016,43 +5456,43 @@
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>213</v>
+        <v>268</v>
       </c>
       <c r="B57">
         <v>10000000</v>
       </c>
       <c r="C57" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D57" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E57">
-        <v>178.13879354122619</v>
+        <v>177.60433373387659</v>
       </c>
       <c r="F57">
-        <v>45.965128221306571</v>
+        <v>45.127333166440323</v>
       </c>
       <c r="G57" t="s">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="H57" t="s">
-        <v>380</v>
+        <v>270</v>
       </c>
       <c r="I57" t="s">
-        <v>220</v>
+        <v>271</v>
       </c>
       <c r="J57" t="s">
-        <v>221</v>
+        <v>272</v>
       </c>
       <c r="K57" t="s">
-        <v>222</v>
+        <v>273</v>
       </c>
       <c r="L57" t="s">
-        <v>223</v>
+        <v>274</v>
       </c>
       <c r="M57">
-        <v>8.0000000000000007E-5</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="N57">
         <v>3</v>
@@ -5075,43 +5515,43 @@
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>213</v>
+        <v>268</v>
       </c>
       <c r="B58">
         <v>10000000</v>
       </c>
       <c r="C58" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D58" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E58">
-        <v>178.38484736093051</v>
+        <v>177.60433373387659</v>
       </c>
       <c r="F58">
-        <v>44.30381738265514</v>
+        <v>45.127333166440323</v>
       </c>
       <c r="G58" t="s">
-        <v>224</v>
+        <v>269</v>
       </c>
       <c r="H58" t="s">
-        <v>381</v>
+        <v>270</v>
       </c>
       <c r="I58" t="s">
-        <v>225</v>
+        <v>271</v>
       </c>
       <c r="J58" t="s">
-        <v>226</v>
+        <v>272</v>
       </c>
       <c r="K58" t="s">
-        <v>227</v>
+        <v>273</v>
       </c>
       <c r="L58" t="s">
-        <v>228</v>
+        <v>274</v>
       </c>
       <c r="M58">
-        <v>8.0000000000000007E-5</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="N58">
         <v>3</v>
@@ -5134,43 +5574,43 @@
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>229</v>
+        <v>268</v>
       </c>
       <c r="B59">
         <v>10000000</v>
       </c>
       <c r="C59" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D59" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E59">
-        <v>142.8868135246378</v>
+        <v>177.60433373387659</v>
       </c>
       <c r="F59">
-        <v>90.507904483233162</v>
+        <v>45.127333166440323</v>
       </c>
       <c r="G59" t="s">
-        <v>230</v>
+        <v>269</v>
       </c>
       <c r="H59" t="s">
-        <v>382</v>
+        <v>270</v>
       </c>
       <c r="I59" t="s">
-        <v>231</v>
+        <v>271</v>
       </c>
       <c r="J59" t="s">
-        <v>232</v>
+        <v>272</v>
       </c>
       <c r="K59" t="s">
-        <v>233</v>
+        <v>273</v>
       </c>
       <c r="L59" t="s">
-        <v>234</v>
+        <v>274</v>
       </c>
       <c r="M59">
-        <v>8.0000000000000007E-5</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="N59">
         <v>3</v>
@@ -5186,9 +5626,6 @@
       </c>
       <c r="R59">
         <v>1</v>
-      </c>
-      <c r="S59">
-        <v>3</v>
       </c>
       <c r="U59">
         <v>1</v>
@@ -5196,43 +5633,43 @@
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>229</v>
+        <v>275</v>
       </c>
       <c r="B60">
         <v>10000000</v>
       </c>
       <c r="C60" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D60" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E60">
-        <v>144.76509473116079</v>
+        <v>154.29399270838991</v>
       </c>
       <c r="F60">
-        <v>87.655867505857159</v>
+        <v>79.39824257869023</v>
       </c>
       <c r="G60" t="s">
-        <v>235</v>
+        <v>276</v>
       </c>
       <c r="H60" t="s">
-        <v>383</v>
+        <v>277</v>
       </c>
       <c r="I60" t="s">
-        <v>236</v>
+        <v>278</v>
       </c>
       <c r="J60" t="s">
-        <v>237</v>
+        <v>279</v>
       </c>
       <c r="K60" t="s">
-        <v>238</v>
+        <v>280</v>
       </c>
       <c r="L60" t="s">
-        <v>239</v>
+        <v>281</v>
       </c>
       <c r="M60">
-        <v>8.0000000000000007E-5</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="N60">
         <v>3</v>
@@ -5258,43 +5695,43 @@
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>229</v>
+        <v>275</v>
       </c>
       <c r="B61">
         <v>10000000</v>
       </c>
       <c r="C61" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D61" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E61">
-        <v>143.06348034346209</v>
+        <v>154.77490845894081</v>
       </c>
       <c r="F61">
-        <v>89.276163135172027</v>
+        <v>79.097047237627351</v>
       </c>
       <c r="G61" t="s">
-        <v>240</v>
+        <v>282</v>
       </c>
       <c r="H61" t="s">
-        <v>384</v>
+        <v>283</v>
       </c>
       <c r="I61" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="J61" t="s">
-        <v>242</v>
+        <v>285</v>
       </c>
       <c r="K61" t="s">
-        <v>243</v>
+        <v>286</v>
       </c>
       <c r="L61" t="s">
-        <v>244</v>
+        <v>287</v>
       </c>
       <c r="M61">
-        <v>8.0000000000000007E-5</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="N61">
         <v>3</v>
@@ -5320,43 +5757,43 @@
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="B62">
         <v>10000000</v>
       </c>
       <c r="C62" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D62" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E62">
-        <v>166.67678292556241</v>
+        <v>155.6110670803811</v>
       </c>
       <c r="F62">
-        <v>65.910685285524863</v>
+        <v>76.953265681150128</v>
       </c>
       <c r="G62" t="s">
-        <v>246</v>
+        <v>288</v>
       </c>
       <c r="H62" t="s">
-        <v>385</v>
+        <v>289</v>
       </c>
       <c r="I62" t="s">
-        <v>247</v>
+        <v>290</v>
       </c>
       <c r="J62" t="s">
-        <v>248</v>
+        <v>291</v>
       </c>
       <c r="K62" t="s">
-        <v>249</v>
+        <v>292</v>
       </c>
       <c r="L62" t="s">
-        <v>250</v>
+        <v>293</v>
       </c>
       <c r="M62">
-        <v>8.0000000000000007E-5</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="N62">
         <v>3</v>
@@ -5382,40 +5819,40 @@
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>245</v>
+        <v>294</v>
       </c>
       <c r="B63">
         <v>10000000</v>
       </c>
       <c r="C63" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D63" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E63">
-        <v>177.83708475901679</v>
+        <v>162.9028278669287</v>
       </c>
       <c r="F63">
-        <v>39.318082829733662</v>
+        <v>70.03723546256316</v>
       </c>
       <c r="G63" t="s">
-        <v>251</v>
+        <v>295</v>
       </c>
       <c r="H63" t="s">
-        <v>386</v>
+        <v>296</v>
       </c>
       <c r="I63" t="s">
-        <v>252</v>
+        <v>297</v>
       </c>
       <c r="J63" t="s">
-        <v>253</v>
+        <v>298</v>
       </c>
       <c r="K63" t="s">
-        <v>254</v>
+        <v>299</v>
       </c>
       <c r="L63" t="s">
-        <v>255</v>
+        <v>300</v>
       </c>
       <c r="M63">
         <v>8.0000000000000007E-5</v>
@@ -5444,40 +5881,40 @@
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>245</v>
+        <v>294</v>
       </c>
       <c r="B64">
         <v>10000000</v>
       </c>
       <c r="C64" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D64" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E64">
-        <v>167.68334340493601</v>
+        <v>164.8158214957765</v>
       </c>
       <c r="F64">
-        <v>65.054468421148457</v>
+        <v>67.350079772715944</v>
       </c>
       <c r="G64" t="s">
-        <v>256</v>
+        <v>301</v>
       </c>
       <c r="H64" t="s">
-        <v>387</v>
+        <v>302</v>
       </c>
       <c r="I64" t="s">
-        <v>257</v>
+        <v>303</v>
       </c>
       <c r="J64" t="s">
-        <v>258</v>
+        <v>304</v>
       </c>
       <c r="K64" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="L64" t="s">
-        <v>260</v>
+        <v>306</v>
       </c>
       <c r="M64">
         <v>8.0000000000000007E-5</v>
@@ -5506,40 +5943,40 @@
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="B65">
         <v>10000000</v>
       </c>
       <c r="C65" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D65" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E65">
-        <v>179.1466618850952</v>
+        <v>162.99463763681149</v>
       </c>
       <c r="F65">
-        <v>40.372661390615008</v>
+        <v>69.850533666283852</v>
       </c>
       <c r="G65" t="s">
-        <v>262</v>
+        <v>307</v>
       </c>
       <c r="H65" t="s">
-        <v>388</v>
+        <v>308</v>
       </c>
       <c r="I65" t="s">
-        <v>263</v>
+        <v>309</v>
       </c>
       <c r="J65" t="s">
-        <v>264</v>
+        <v>310</v>
       </c>
       <c r="K65" t="s">
-        <v>265</v>
+        <v>311</v>
       </c>
       <c r="L65" t="s">
-        <v>266</v>
+        <v>312</v>
       </c>
       <c r="M65">
         <v>8.0000000000000007E-5</v>
@@ -5559,49 +5996,52 @@
       <c r="R65">
         <v>1</v>
       </c>
+      <c r="S65">
+        <v>3</v>
+      </c>
       <c r="U65">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>261</v>
+        <v>313</v>
       </c>
       <c r="B66">
         <v>10000000</v>
       </c>
       <c r="C66" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D66" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E66">
-        <v>179.1466618850952</v>
+        <v>175.8383130337601</v>
       </c>
       <c r="F66">
-        <v>40.372661390615008</v>
+        <v>53.489281654537237</v>
       </c>
       <c r="G66" t="s">
-        <v>262</v>
+        <v>314</v>
       </c>
       <c r="H66" t="s">
-        <v>388</v>
+        <v>315</v>
       </c>
       <c r="I66" t="s">
-        <v>263</v>
+        <v>316</v>
       </c>
       <c r="J66" t="s">
-        <v>264</v>
+        <v>317</v>
       </c>
       <c r="K66" t="s">
-        <v>265</v>
+        <v>318</v>
       </c>
       <c r="L66" t="s">
-        <v>266</v>
+        <v>319</v>
       </c>
       <c r="M66">
-        <v>8.0000000000000007E-5</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="N66">
         <v>3</v>
@@ -5624,43 +6064,43 @@
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>261</v>
+        <v>313</v>
       </c>
       <c r="B67">
         <v>10000000</v>
       </c>
       <c r="C67" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D67" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E67">
-        <v>179.1466618850952</v>
+        <v>175.6943130337601</v>
       </c>
       <c r="F67">
-        <v>40.372661390615008</v>
+        <v>53.489281654537237</v>
       </c>
       <c r="G67" t="s">
-        <v>262</v>
+        <v>320</v>
       </c>
       <c r="H67" t="s">
-        <v>388</v>
+        <v>321</v>
       </c>
       <c r="I67" t="s">
-        <v>263</v>
+        <v>322</v>
       </c>
       <c r="J67" t="s">
-        <v>264</v>
+        <v>317</v>
       </c>
       <c r="K67" t="s">
-        <v>265</v>
+        <v>318</v>
       </c>
       <c r="L67" t="s">
-        <v>266</v>
+        <v>319</v>
       </c>
       <c r="M67">
-        <v>8.0000000000000007E-5</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="N67">
         <v>3</v>
@@ -5683,43 +6123,43 @@
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>267</v>
+        <v>313</v>
       </c>
       <c r="B68">
         <v>10000000</v>
       </c>
       <c r="C68" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D68" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E68">
-        <v>180.01335934228271</v>
+        <v>174.79264843335781</v>
       </c>
       <c r="F68">
-        <v>38.209050780003963</v>
+        <v>54.738561023861507</v>
       </c>
       <c r="G68" t="s">
-        <v>268</v>
+        <v>323</v>
       </c>
       <c r="H68" t="s">
-        <v>389</v>
+        <v>324</v>
       </c>
       <c r="I68" t="s">
-        <v>269</v>
+        <v>325</v>
       </c>
       <c r="J68" t="s">
-        <v>270</v>
+        <v>326</v>
       </c>
       <c r="K68" t="s">
-        <v>271</v>
+        <v>327</v>
       </c>
       <c r="L68" t="s">
-        <v>272</v>
+        <v>328</v>
       </c>
       <c r="M68">
-        <v>8.0000000000000007E-5</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="N68">
         <v>3</v>
@@ -5742,40 +6182,40 @@
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>267</v>
+        <v>329</v>
       </c>
       <c r="B69">
         <v>10000000</v>
       </c>
       <c r="C69" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D69" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E69">
-        <v>180.08933066925829</v>
+        <v>165.1730836442014</v>
       </c>
       <c r="F69">
-        <v>40.019594494674919</v>
+        <v>67.664083149721208</v>
       </c>
       <c r="G69" t="s">
-        <v>273</v>
+        <v>330</v>
       </c>
       <c r="H69" t="s">
-        <v>390</v>
+        <v>331</v>
       </c>
       <c r="I69" t="s">
-        <v>274</v>
+        <v>332</v>
       </c>
       <c r="J69" t="s">
-        <v>275</v>
+        <v>333</v>
       </c>
       <c r="K69" t="s">
-        <v>276</v>
+        <v>334</v>
       </c>
       <c r="L69" t="s">
-        <v>277</v>
+        <v>335</v>
       </c>
       <c r="M69">
         <v>8.0000000000000007E-5</v>
@@ -5795,46 +6235,49 @@
       <c r="R69">
         <v>1</v>
       </c>
+      <c r="S69">
+        <v>3</v>
+      </c>
       <c r="U69">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>267</v>
+        <v>329</v>
       </c>
       <c r="B70">
         <v>10000000</v>
       </c>
       <c r="C70" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D70" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E70">
-        <v>180.01822733085419</v>
+        <v>166.72057548785091</v>
       </c>
       <c r="F70">
-        <v>38.114918768575478</v>
+        <v>64.303643888233879</v>
       </c>
       <c r="G70" t="s">
-        <v>278</v>
+        <v>336</v>
       </c>
       <c r="H70" t="s">
-        <v>391</v>
+        <v>337</v>
       </c>
       <c r="I70" t="s">
-        <v>279</v>
+        <v>338</v>
       </c>
       <c r="J70" t="s">
-        <v>280</v>
+        <v>339</v>
       </c>
       <c r="K70" t="s">
-        <v>281</v>
+        <v>340</v>
       </c>
       <c r="L70" t="s">
-        <v>282</v>
+        <v>341</v>
       </c>
       <c r="M70">
         <v>8.0000000000000007E-5</v>
@@ -5854,49 +6297,52 @@
       <c r="R70">
         <v>1</v>
       </c>
+      <c r="S70">
+        <v>3</v>
+      </c>
       <c r="U70">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>283</v>
+        <v>329</v>
       </c>
       <c r="B71">
         <v>10000000</v>
       </c>
       <c r="C71" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D71" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E71">
-        <v>179.17553178179151</v>
+        <v>165.4493959176888</v>
       </c>
       <c r="F71">
-        <v>43.302605799793113</v>
+        <v>65.864395617758234</v>
       </c>
       <c r="G71" t="s">
-        <v>284</v>
+        <v>342</v>
       </c>
       <c r="H71" t="s">
-        <v>392</v>
+        <v>343</v>
       </c>
       <c r="I71" t="s">
-        <v>285</v>
+        <v>344</v>
       </c>
       <c r="J71" t="s">
-        <v>286</v>
+        <v>345</v>
       </c>
       <c r="K71" t="s">
-        <v>287</v>
+        <v>346</v>
       </c>
       <c r="L71" t="s">
-        <v>288</v>
+        <v>347</v>
       </c>
       <c r="M71">
-        <v>2.9999999999999997E-4</v>
+        <v>8.0000000000000007E-5</v>
       </c>
       <c r="N71">
         <v>3</v>
@@ -5911,7 +6357,10 @@
         <v>20</v>
       </c>
       <c r="R71">
-        <v>0.99</v>
+        <v>1</v>
+      </c>
+      <c r="S71">
+        <v>3</v>
       </c>
       <c r="U71">
         <v>1</v>
@@ -5919,43 +6368,43 @@
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>283</v>
+        <v>348</v>
       </c>
       <c r="B72">
         <v>10000000</v>
       </c>
       <c r="C72" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D72" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E72">
-        <v>177.1612935749358</v>
+        <v>177.7925836355289</v>
       </c>
       <c r="F72">
-        <v>45.224355141765429</v>
+        <v>41.961583214004833</v>
       </c>
       <c r="G72" t="s">
-        <v>289</v>
+        <v>349</v>
       </c>
       <c r="H72" t="s">
-        <v>393</v>
+        <v>350</v>
       </c>
       <c r="I72" t="s">
-        <v>290</v>
+        <v>351</v>
       </c>
       <c r="J72" t="s">
-        <v>291</v>
+        <v>352</v>
       </c>
       <c r="K72" t="s">
-        <v>292</v>
+        <v>353</v>
       </c>
       <c r="L72" t="s">
-        <v>293</v>
+        <v>354</v>
       </c>
       <c r="M72">
-        <v>2.9999999999999997E-4</v>
+        <v>8.0000000000000007E-5</v>
       </c>
       <c r="N72">
         <v>3</v>
@@ -5970,7 +6419,7 @@
         <v>20</v>
       </c>
       <c r="R72">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="U72">
         <v>1</v>
@@ -5978,43 +6427,43 @@
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>283</v>
+        <v>348</v>
       </c>
       <c r="B73">
         <v>10000000</v>
       </c>
       <c r="C73" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D73" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E73">
-        <v>178.1443275135523</v>
+        <v>177.7925836355289</v>
       </c>
       <c r="F73">
-        <v>45.337401288366877</v>
+        <v>41.961583214004833</v>
       </c>
       <c r="G73" t="s">
-        <v>294</v>
+        <v>349</v>
       </c>
       <c r="H73" t="s">
-        <v>394</v>
+        <v>350</v>
       </c>
       <c r="I73" t="s">
-        <v>295</v>
+        <v>351</v>
       </c>
       <c r="J73" t="s">
-        <v>296</v>
+        <v>352</v>
       </c>
       <c r="K73" t="s">
-        <v>297</v>
+        <v>353</v>
       </c>
       <c r="L73" t="s">
-        <v>298</v>
+        <v>354</v>
       </c>
       <c r="M73">
-        <v>2.9999999999999997E-4</v>
+        <v>8.0000000000000007E-5</v>
       </c>
       <c r="N73">
         <v>3</v>
@@ -6029,7 +6478,7 @@
         <v>20</v>
       </c>
       <c r="R73">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="U73">
         <v>1</v>
@@ -6037,40 +6486,40 @@
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>299</v>
+        <v>348</v>
       </c>
       <c r="B74">
         <v>10000000</v>
       </c>
       <c r="C74" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D74" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E74">
-        <v>176.44333357169231</v>
+        <v>177.7925836355289</v>
       </c>
       <c r="F74">
-        <v>50.539333223124338</v>
+        <v>41.961583214004833</v>
       </c>
       <c r="G74" t="s">
-        <v>300</v>
+        <v>349</v>
       </c>
       <c r="H74" t="s">
-        <v>395</v>
+        <v>350</v>
       </c>
       <c r="I74" t="s">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="J74" t="s">
-        <v>302</v>
+        <v>352</v>
       </c>
       <c r="K74" t="s">
-        <v>303</v>
+        <v>353</v>
       </c>
       <c r="L74" t="s">
-        <v>304</v>
+        <v>354</v>
       </c>
       <c r="M74">
         <v>8.0000000000000007E-5</v>
@@ -6088,7 +6537,7 @@
         <v>20</v>
       </c>
       <c r="R74">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="U74">
         <v>1</v>
@@ -6096,40 +6545,40 @@
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>299</v>
+        <v>355</v>
       </c>
       <c r="B75">
         <v>10000000</v>
       </c>
       <c r="C75" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D75" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E75">
-        <v>176.44333357169231</v>
+        <v>176.8271602672036</v>
       </c>
       <c r="F75">
-        <v>50.539333223124338</v>
+        <v>46.507199712603857</v>
       </c>
       <c r="G75" t="s">
-        <v>300</v>
+        <v>356</v>
       </c>
       <c r="H75" t="s">
-        <v>395</v>
+        <v>357</v>
       </c>
       <c r="I75" t="s">
-        <v>301</v>
+        <v>358</v>
       </c>
       <c r="J75" t="s">
-        <v>302</v>
+        <v>359</v>
       </c>
       <c r="K75" t="s">
-        <v>303</v>
+        <v>360</v>
       </c>
       <c r="L75" t="s">
-        <v>304</v>
+        <v>361</v>
       </c>
       <c r="M75">
         <v>8.0000000000000007E-5</v>
@@ -6147,7 +6596,7 @@
         <v>20</v>
       </c>
       <c r="R75">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="U75">
         <v>1</v>
@@ -6155,40 +6604,40 @@
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>299</v>
+        <v>355</v>
       </c>
       <c r="B76">
         <v>10000000</v>
       </c>
       <c r="C76" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D76" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E76">
-        <v>176.44333357169231</v>
+        <v>178.13879354122619</v>
       </c>
       <c r="F76">
-        <v>50.539333223124338</v>
+        <v>45.965128221306571</v>
       </c>
       <c r="G76" t="s">
-        <v>300</v>
+        <v>362</v>
       </c>
       <c r="H76" t="s">
-        <v>395</v>
+        <v>363</v>
       </c>
       <c r="I76" t="s">
-        <v>301</v>
+        <v>364</v>
       </c>
       <c r="J76" t="s">
-        <v>302</v>
+        <v>365</v>
       </c>
       <c r="K76" t="s">
-        <v>303</v>
+        <v>366</v>
       </c>
       <c r="L76" t="s">
-        <v>304</v>
+        <v>367</v>
       </c>
       <c r="M76">
         <v>8.0000000000000007E-5</v>
@@ -6206,7 +6655,7 @@
         <v>20</v>
       </c>
       <c r="R76">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="U76">
         <v>1</v>
@@ -6214,40 +6663,40 @@
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>305</v>
+        <v>355</v>
       </c>
       <c r="B77">
         <v>10000000</v>
       </c>
       <c r="C77" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D77" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E77">
-        <v>177.7629765989322</v>
+        <v>178.38484736093051</v>
       </c>
       <c r="F77">
-        <v>42.07738242740821</v>
+        <v>44.30381738265514</v>
       </c>
       <c r="G77" t="s">
-        <v>306</v>
+        <v>368</v>
       </c>
       <c r="H77" t="s">
-        <v>396</v>
+        <v>369</v>
       </c>
       <c r="I77" t="s">
-        <v>307</v>
+        <v>370</v>
       </c>
       <c r="J77" t="s">
-        <v>308</v>
+        <v>371</v>
       </c>
       <c r="K77" t="s">
-        <v>309</v>
+        <v>372</v>
       </c>
       <c r="L77" t="s">
-        <v>310</v>
+        <v>373</v>
       </c>
       <c r="M77">
         <v>8.0000000000000007E-5</v>
@@ -6265,7 +6714,7 @@
         <v>20</v>
       </c>
       <c r="R77">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="U77">
         <v>1</v>
@@ -6273,40 +6722,40 @@
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>305</v>
+        <v>374</v>
       </c>
       <c r="B78">
         <v>10000000</v>
       </c>
       <c r="C78" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D78" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E78">
-        <v>177.7925836355289</v>
+        <v>142.8868135246378</v>
       </c>
       <c r="F78">
-        <v>41.961583214004833</v>
+        <v>90.507904483233162</v>
       </c>
       <c r="G78" t="s">
-        <v>208</v>
+        <v>375</v>
       </c>
       <c r="H78" t="s">
+        <v>376</v>
+      </c>
+      <c r="I78" t="s">
+        <v>377</v>
+      </c>
+      <c r="J78" t="s">
         <v>378</v>
       </c>
-      <c r="I78" t="s">
-        <v>209</v>
-      </c>
-      <c r="J78" t="s">
-        <v>210</v>
-      </c>
       <c r="K78" t="s">
-        <v>211</v>
+        <v>379</v>
       </c>
       <c r="L78" t="s">
-        <v>212</v>
+        <v>380</v>
       </c>
       <c r="M78">
         <v>8.0000000000000007E-5</v>
@@ -6324,7 +6773,10 @@
         <v>20</v>
       </c>
       <c r="R78">
-        <v>0.99</v>
+        <v>1</v>
+      </c>
+      <c r="S78">
+        <v>3</v>
       </c>
       <c r="U78">
         <v>1</v>
@@ -6332,40 +6784,40 @@
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>305</v>
+        <v>374</v>
       </c>
       <c r="B79">
         <v>10000000</v>
       </c>
       <c r="C79" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D79" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E79">
-        <v>177.0850612966166</v>
+        <v>144.76509473116079</v>
       </c>
       <c r="F79">
-        <v>42.933961265717564</v>
+        <v>87.655867505857159</v>
       </c>
       <c r="G79" t="s">
-        <v>311</v>
+        <v>381</v>
       </c>
       <c r="H79" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="I79" t="s">
-        <v>312</v>
+        <v>383</v>
       </c>
       <c r="J79" t="s">
-        <v>313</v>
+        <v>384</v>
       </c>
       <c r="K79" t="s">
-        <v>314</v>
+        <v>385</v>
       </c>
       <c r="L79" t="s">
-        <v>315</v>
+        <v>386</v>
       </c>
       <c r="M79">
         <v>8.0000000000000007E-5</v>
@@ -6383,7 +6835,10 @@
         <v>20</v>
       </c>
       <c r="R79">
-        <v>0.99</v>
+        <v>1</v>
+      </c>
+      <c r="S79">
+        <v>3</v>
       </c>
       <c r="U79">
         <v>1</v>
@@ -6391,40 +6846,40 @@
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>316</v>
+        <v>374</v>
       </c>
       <c r="B80">
         <v>10000000</v>
       </c>
       <c r="C80" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D80" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E80">
-        <v>179.91728679655989</v>
+        <v>143.06348034346209</v>
       </c>
       <c r="F80">
-        <v>42.739286375035839</v>
+        <v>89.276163135172027</v>
       </c>
       <c r="G80" t="s">
-        <v>317</v>
+        <v>387</v>
       </c>
       <c r="H80" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="I80" t="s">
-        <v>318</v>
+        <v>389</v>
       </c>
       <c r="J80" t="s">
-        <v>319</v>
+        <v>390</v>
       </c>
       <c r="K80" t="s">
-        <v>320</v>
+        <v>391</v>
       </c>
       <c r="L80" t="s">
-        <v>321</v>
+        <v>392</v>
       </c>
       <c r="M80">
         <v>8.0000000000000007E-5</v>
@@ -6442,7 +6897,10 @@
         <v>20</v>
       </c>
       <c r="R80">
-        <v>0.99</v>
+        <v>1</v>
+      </c>
+      <c r="S80">
+        <v>3</v>
       </c>
       <c r="U80">
         <v>1</v>
@@ -6450,40 +6908,40 @@
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>316</v>
+        <v>393</v>
       </c>
       <c r="B81">
         <v>10000000</v>
       </c>
       <c r="C81" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D81" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E81">
-        <v>179.24935324523349</v>
+        <v>166.67678292556241</v>
       </c>
       <c r="F81">
-        <v>43.160352823709452</v>
+        <v>65.910685285524863</v>
       </c>
       <c r="G81" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
       <c r="H81" t="s">
+        <v>395</v>
+      </c>
+      <c r="I81" t="s">
+        <v>396</v>
+      </c>
+      <c r="J81" t="s">
+        <v>397</v>
+      </c>
+      <c r="K81" t="s">
+        <v>398</v>
+      </c>
+      <c r="L81" t="s">
         <v>399</v>
-      </c>
-      <c r="I81" t="s">
-        <v>323</v>
-      </c>
-      <c r="J81" t="s">
-        <v>324</v>
-      </c>
-      <c r="K81" t="s">
-        <v>325</v>
-      </c>
-      <c r="L81" t="s">
-        <v>326</v>
       </c>
       <c r="M81">
         <v>8.0000000000000007E-5</v>
@@ -6501,7 +6959,10 @@
         <v>20</v>
       </c>
       <c r="R81">
-        <v>0.99</v>
+        <v>1</v>
+      </c>
+      <c r="S81">
+        <v>3</v>
       </c>
       <c r="U81">
         <v>1</v>
@@ -6509,40 +6970,40 @@
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>316</v>
+        <v>393</v>
       </c>
       <c r="B82">
         <v>10000000</v>
       </c>
       <c r="C82" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D82" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E82">
-        <v>179.91728679655989</v>
+        <v>177.83708475901679</v>
       </c>
       <c r="F82">
-        <v>42.739286375035839</v>
+        <v>39.318082829733662</v>
       </c>
       <c r="G82" t="s">
-        <v>317</v>
+        <v>400</v>
       </c>
       <c r="H82" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="I82" t="s">
-        <v>318</v>
+        <v>402</v>
       </c>
       <c r="J82" t="s">
-        <v>319</v>
+        <v>403</v>
       </c>
       <c r="K82" t="s">
-        <v>320</v>
+        <v>404</v>
       </c>
       <c r="L82" t="s">
-        <v>321</v>
+        <v>405</v>
       </c>
       <c r="M82">
         <v>8.0000000000000007E-5</v>
@@ -6560,7 +7021,10 @@
         <v>20</v>
       </c>
       <c r="R82">
-        <v>0.99</v>
+        <v>1</v>
+      </c>
+      <c r="S82">
+        <v>3</v>
       </c>
       <c r="U82">
         <v>1</v>
@@ -6568,40 +7032,40 @@
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>327</v>
+        <v>393</v>
       </c>
       <c r="B83">
         <v>10000000</v>
       </c>
       <c r="C83" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D83" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E83">
-        <v>173.7963335318168</v>
+        <v>167.68334340493601</v>
       </c>
       <c r="F83">
-        <v>56.760333231886207</v>
+        <v>65.054468421148457</v>
       </c>
       <c r="G83" t="s">
-        <v>328</v>
+        <v>406</v>
       </c>
       <c r="H83" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="I83" t="s">
-        <v>329</v>
+        <v>408</v>
       </c>
       <c r="J83" t="s">
-        <v>330</v>
+        <v>409</v>
       </c>
       <c r="K83" t="s">
-        <v>331</v>
+        <v>410</v>
       </c>
       <c r="L83" t="s">
-        <v>332</v>
+        <v>411</v>
       </c>
       <c r="M83">
         <v>8.0000000000000007E-5</v>
@@ -6619,7 +7083,10 @@
         <v>20</v>
       </c>
       <c r="R83">
-        <v>0.99</v>
+        <v>1</v>
+      </c>
+      <c r="S83">
+        <v>3</v>
       </c>
       <c r="U83">
         <v>1</v>
@@ -6627,40 +7094,40 @@
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>327</v>
+        <v>412</v>
       </c>
       <c r="B84">
         <v>10000000</v>
       </c>
       <c r="C84" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D84" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E84">
-        <v>173.00195341669331</v>
+        <v>179.1466618850952</v>
       </c>
       <c r="F84">
-        <v>56.780452776301033</v>
+        <v>40.372661390615008</v>
       </c>
       <c r="G84" t="s">
-        <v>333</v>
+        <v>413</v>
       </c>
       <c r="H84" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="I84" t="s">
-        <v>334</v>
+        <v>415</v>
       </c>
       <c r="J84" t="s">
-        <v>335</v>
+        <v>416</v>
       </c>
       <c r="K84" t="s">
-        <v>336</v>
+        <v>417</v>
       </c>
       <c r="L84" t="s">
-        <v>337</v>
+        <v>418</v>
       </c>
       <c r="M84">
         <v>8.0000000000000007E-5</v>
@@ -6678,7 +7145,7 @@
         <v>20</v>
       </c>
       <c r="R84">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="U84">
         <v>1</v>
@@ -6686,40 +7153,40 @@
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>327</v>
+        <v>412</v>
       </c>
       <c r="B85">
         <v>10000000</v>
       </c>
       <c r="C85" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D85" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E85">
-        <v>173.616333545049</v>
+        <v>179.1466618850952</v>
       </c>
       <c r="F85">
-        <v>57.348333245118447</v>
+        <v>40.372661390615008</v>
       </c>
       <c r="G85" t="s">
-        <v>338</v>
+        <v>413</v>
       </c>
       <c r="H85" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="I85" t="s">
-        <v>339</v>
+        <v>415</v>
       </c>
       <c r="J85" t="s">
-        <v>340</v>
+        <v>416</v>
       </c>
       <c r="K85" t="s">
-        <v>341</v>
+        <v>417</v>
       </c>
       <c r="L85" t="s">
-        <v>342</v>
+        <v>418</v>
       </c>
       <c r="M85">
         <v>8.0000000000000007E-5</v>
@@ -6737,9 +7204,1130 @@
         <v>20</v>
       </c>
       <c r="R85">
+        <v>1</v>
+      </c>
+      <c r="U85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>412</v>
+      </c>
+      <c r="B86">
+        <v>10000000</v>
+      </c>
+      <c r="C86" t="s">
+        <v>22</v>
+      </c>
+      <c r="D86" t="s">
+        <v>23</v>
+      </c>
+      <c r="E86">
+        <v>179.1466618850952</v>
+      </c>
+      <c r="F86">
+        <v>40.372661390615008</v>
+      </c>
+      <c r="G86" t="s">
+        <v>413</v>
+      </c>
+      <c r="H86" t="s">
+        <v>414</v>
+      </c>
+      <c r="I86" t="s">
+        <v>415</v>
+      </c>
+      <c r="J86" t="s">
+        <v>416</v>
+      </c>
+      <c r="K86" t="s">
+        <v>417</v>
+      </c>
+      <c r="L86" t="s">
+        <v>418</v>
+      </c>
+      <c r="M86">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="N86">
+        <v>3</v>
+      </c>
+      <c r="O86">
+        <v>25</v>
+      </c>
+      <c r="P86">
+        <v>3</v>
+      </c>
+      <c r="Q86">
+        <v>20</v>
+      </c>
+      <c r="R86">
+        <v>1</v>
+      </c>
+      <c r="U86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>419</v>
+      </c>
+      <c r="B87">
+        <v>10000000</v>
+      </c>
+      <c r="C87" t="s">
+        <v>22</v>
+      </c>
+      <c r="D87" t="s">
+        <v>23</v>
+      </c>
+      <c r="E87">
+        <v>180.01335934228271</v>
+      </c>
+      <c r="F87">
+        <v>38.209050780003963</v>
+      </c>
+      <c r="G87" t="s">
+        <v>420</v>
+      </c>
+      <c r="H87" t="s">
+        <v>421</v>
+      </c>
+      <c r="I87" t="s">
+        <v>422</v>
+      </c>
+      <c r="J87" t="s">
+        <v>423</v>
+      </c>
+      <c r="K87" t="s">
+        <v>424</v>
+      </c>
+      <c r="L87" t="s">
+        <v>425</v>
+      </c>
+      <c r="M87">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="N87">
+        <v>3</v>
+      </c>
+      <c r="O87">
+        <v>25</v>
+      </c>
+      <c r="P87">
+        <v>3</v>
+      </c>
+      <c r="Q87">
+        <v>20</v>
+      </c>
+      <c r="R87">
+        <v>1</v>
+      </c>
+      <c r="U87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>419</v>
+      </c>
+      <c r="B88">
+        <v>10000000</v>
+      </c>
+      <c r="C88" t="s">
+        <v>22</v>
+      </c>
+      <c r="D88" t="s">
+        <v>23</v>
+      </c>
+      <c r="E88">
+        <v>180.08933066925829</v>
+      </c>
+      <c r="F88">
+        <v>40.019594494674919</v>
+      </c>
+      <c r="G88" t="s">
+        <v>426</v>
+      </c>
+      <c r="H88" t="s">
+        <v>427</v>
+      </c>
+      <c r="I88" t="s">
+        <v>428</v>
+      </c>
+      <c r="J88" t="s">
+        <v>429</v>
+      </c>
+      <c r="K88" t="s">
+        <v>430</v>
+      </c>
+      <c r="L88" t="s">
+        <v>431</v>
+      </c>
+      <c r="M88">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="N88">
+        <v>3</v>
+      </c>
+      <c r="O88">
+        <v>25</v>
+      </c>
+      <c r="P88">
+        <v>3</v>
+      </c>
+      <c r="Q88">
+        <v>20</v>
+      </c>
+      <c r="R88">
+        <v>1</v>
+      </c>
+      <c r="U88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>419</v>
+      </c>
+      <c r="B89">
+        <v>10000000</v>
+      </c>
+      <c r="C89" t="s">
+        <v>22</v>
+      </c>
+      <c r="D89" t="s">
+        <v>23</v>
+      </c>
+      <c r="E89">
+        <v>180.01822733085419</v>
+      </c>
+      <c r="F89">
+        <v>38.114918768575478</v>
+      </c>
+      <c r="G89" t="s">
+        <v>432</v>
+      </c>
+      <c r="H89" t="s">
+        <v>433</v>
+      </c>
+      <c r="I89" t="s">
+        <v>434</v>
+      </c>
+      <c r="J89" t="s">
+        <v>435</v>
+      </c>
+      <c r="K89" t="s">
+        <v>436</v>
+      </c>
+      <c r="L89" t="s">
+        <v>437</v>
+      </c>
+      <c r="M89">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="N89">
+        <v>3</v>
+      </c>
+      <c r="O89">
+        <v>25</v>
+      </c>
+      <c r="P89">
+        <v>3</v>
+      </c>
+      <c r="Q89">
+        <v>20</v>
+      </c>
+      <c r="R89">
+        <v>1</v>
+      </c>
+      <c r="U89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>438</v>
+      </c>
+      <c r="B90">
+        <v>10000000</v>
+      </c>
+      <c r="C90" t="s">
+        <v>22</v>
+      </c>
+      <c r="D90" t="s">
+        <v>23</v>
+      </c>
+      <c r="E90">
+        <v>179.17553178179151</v>
+      </c>
+      <c r="F90">
+        <v>43.302605799793113</v>
+      </c>
+      <c r="G90" t="s">
+        <v>439</v>
+      </c>
+      <c r="H90" t="s">
+        <v>440</v>
+      </c>
+      <c r="I90" t="s">
+        <v>441</v>
+      </c>
+      <c r="J90" t="s">
+        <v>442</v>
+      </c>
+      <c r="K90" t="s">
+        <v>443</v>
+      </c>
+      <c r="L90" t="s">
+        <v>444</v>
+      </c>
+      <c r="M90">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="N90">
+        <v>3</v>
+      </c>
+      <c r="O90">
+        <v>25</v>
+      </c>
+      <c r="P90">
+        <v>3</v>
+      </c>
+      <c r="Q90">
+        <v>20</v>
+      </c>
+      <c r="R90">
         <v>0.99</v>
       </c>
-      <c r="U85">
+      <c r="U90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>438</v>
+      </c>
+      <c r="B91">
+        <v>10000000</v>
+      </c>
+      <c r="C91" t="s">
+        <v>22</v>
+      </c>
+      <c r="D91" t="s">
+        <v>23</v>
+      </c>
+      <c r="E91">
+        <v>177.1612935749358</v>
+      </c>
+      <c r="F91">
+        <v>45.224355141765429</v>
+      </c>
+      <c r="G91" t="s">
+        <v>445</v>
+      </c>
+      <c r="H91" t="s">
+        <v>446</v>
+      </c>
+      <c r="I91" t="s">
+        <v>447</v>
+      </c>
+      <c r="J91" t="s">
+        <v>448</v>
+      </c>
+      <c r="K91" t="s">
+        <v>449</v>
+      </c>
+      <c r="L91" t="s">
+        <v>450</v>
+      </c>
+      <c r="M91">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="N91">
+        <v>3</v>
+      </c>
+      <c r="O91">
+        <v>25</v>
+      </c>
+      <c r="P91">
+        <v>3</v>
+      </c>
+      <c r="Q91">
+        <v>20</v>
+      </c>
+      <c r="R91">
+        <v>0.99</v>
+      </c>
+      <c r="U91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>438</v>
+      </c>
+      <c r="B92">
+        <v>10000000</v>
+      </c>
+      <c r="C92" t="s">
+        <v>22</v>
+      </c>
+      <c r="D92" t="s">
+        <v>23</v>
+      </c>
+      <c r="E92">
+        <v>178.1443275135523</v>
+      </c>
+      <c r="F92">
+        <v>45.337401288366877</v>
+      </c>
+      <c r="G92" t="s">
+        <v>451</v>
+      </c>
+      <c r="H92" t="s">
+        <v>452</v>
+      </c>
+      <c r="I92" t="s">
+        <v>453</v>
+      </c>
+      <c r="J92" t="s">
+        <v>454</v>
+      </c>
+      <c r="K92" t="s">
+        <v>455</v>
+      </c>
+      <c r="L92" t="s">
+        <v>456</v>
+      </c>
+      <c r="M92">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="N92">
+        <v>3</v>
+      </c>
+      <c r="O92">
+        <v>25</v>
+      </c>
+      <c r="P92">
+        <v>3</v>
+      </c>
+      <c r="Q92">
+        <v>20</v>
+      </c>
+      <c r="R92">
+        <v>0.99</v>
+      </c>
+      <c r="U92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>457</v>
+      </c>
+      <c r="B93">
+        <v>10000000</v>
+      </c>
+      <c r="C93" t="s">
+        <v>22</v>
+      </c>
+      <c r="D93" t="s">
+        <v>23</v>
+      </c>
+      <c r="E93">
+        <v>176.44333357169231</v>
+      </c>
+      <c r="F93">
+        <v>50.539333223124338</v>
+      </c>
+      <c r="G93" t="s">
+        <v>458</v>
+      </c>
+      <c r="H93" t="s">
+        <v>459</v>
+      </c>
+      <c r="I93" t="s">
+        <v>460</v>
+      </c>
+      <c r="J93" t="s">
+        <v>461</v>
+      </c>
+      <c r="K93" t="s">
+        <v>462</v>
+      </c>
+      <c r="L93" t="s">
+        <v>463</v>
+      </c>
+      <c r="M93">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="N93">
+        <v>3</v>
+      </c>
+      <c r="O93">
+        <v>25</v>
+      </c>
+      <c r="P93">
+        <v>3</v>
+      </c>
+      <c r="Q93">
+        <v>20</v>
+      </c>
+      <c r="R93">
+        <v>0.99</v>
+      </c>
+      <c r="U93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>457</v>
+      </c>
+      <c r="B94">
+        <v>10000000</v>
+      </c>
+      <c r="C94" t="s">
+        <v>22</v>
+      </c>
+      <c r="D94" t="s">
+        <v>23</v>
+      </c>
+      <c r="E94">
+        <v>176.44333357169231</v>
+      </c>
+      <c r="F94">
+        <v>50.539333223124338</v>
+      </c>
+      <c r="G94" t="s">
+        <v>458</v>
+      </c>
+      <c r="H94" t="s">
+        <v>459</v>
+      </c>
+      <c r="I94" t="s">
+        <v>460</v>
+      </c>
+      <c r="J94" t="s">
+        <v>461</v>
+      </c>
+      <c r="K94" t="s">
+        <v>462</v>
+      </c>
+      <c r="L94" t="s">
+        <v>463</v>
+      </c>
+      <c r="M94">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="N94">
+        <v>3</v>
+      </c>
+      <c r="O94">
+        <v>25</v>
+      </c>
+      <c r="P94">
+        <v>3</v>
+      </c>
+      <c r="Q94">
+        <v>20</v>
+      </c>
+      <c r="R94">
+        <v>0.99</v>
+      </c>
+      <c r="U94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>457</v>
+      </c>
+      <c r="B95">
+        <v>10000000</v>
+      </c>
+      <c r="C95" t="s">
+        <v>22</v>
+      </c>
+      <c r="D95" t="s">
+        <v>23</v>
+      </c>
+      <c r="E95">
+        <v>176.44333357169231</v>
+      </c>
+      <c r="F95">
+        <v>50.539333223124338</v>
+      </c>
+      <c r="G95" t="s">
+        <v>458</v>
+      </c>
+      <c r="H95" t="s">
+        <v>459</v>
+      </c>
+      <c r="I95" t="s">
+        <v>460</v>
+      </c>
+      <c r="J95" t="s">
+        <v>461</v>
+      </c>
+      <c r="K95" t="s">
+        <v>462</v>
+      </c>
+      <c r="L95" t="s">
+        <v>463</v>
+      </c>
+      <c r="M95">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="N95">
+        <v>3</v>
+      </c>
+      <c r="O95">
+        <v>25</v>
+      </c>
+      <c r="P95">
+        <v>3</v>
+      </c>
+      <c r="Q95">
+        <v>20</v>
+      </c>
+      <c r="R95">
+        <v>0.99</v>
+      </c>
+      <c r="U95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>464</v>
+      </c>
+      <c r="B96">
+        <v>10000000</v>
+      </c>
+      <c r="C96" t="s">
+        <v>22</v>
+      </c>
+      <c r="D96" t="s">
+        <v>23</v>
+      </c>
+      <c r="E96">
+        <v>177.7629765989322</v>
+      </c>
+      <c r="F96">
+        <v>42.07738242740821</v>
+      </c>
+      <c r="G96" t="s">
+        <v>465</v>
+      </c>
+      <c r="H96" t="s">
+        <v>466</v>
+      </c>
+      <c r="I96" t="s">
+        <v>467</v>
+      </c>
+      <c r="J96" t="s">
+        <v>468</v>
+      </c>
+      <c r="K96" t="s">
+        <v>469</v>
+      </c>
+      <c r="L96" t="s">
+        <v>470</v>
+      </c>
+      <c r="M96">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="N96">
+        <v>3</v>
+      </c>
+      <c r="O96">
+        <v>25</v>
+      </c>
+      <c r="P96">
+        <v>3</v>
+      </c>
+      <c r="Q96">
+        <v>20</v>
+      </c>
+      <c r="R96">
+        <v>0.99</v>
+      </c>
+      <c r="U96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>464</v>
+      </c>
+      <c r="B97">
+        <v>10000000</v>
+      </c>
+      <c r="C97" t="s">
+        <v>22</v>
+      </c>
+      <c r="D97" t="s">
+        <v>23</v>
+      </c>
+      <c r="E97">
+        <v>177.7925836355289</v>
+      </c>
+      <c r="F97">
+        <v>41.961583214004833</v>
+      </c>
+      <c r="G97" t="s">
+        <v>349</v>
+      </c>
+      <c r="H97" t="s">
+        <v>350</v>
+      </c>
+      <c r="I97" t="s">
+        <v>351</v>
+      </c>
+      <c r="J97" t="s">
+        <v>352</v>
+      </c>
+      <c r="K97" t="s">
+        <v>353</v>
+      </c>
+      <c r="L97" t="s">
+        <v>354</v>
+      </c>
+      <c r="M97">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="N97">
+        <v>3</v>
+      </c>
+      <c r="O97">
+        <v>25</v>
+      </c>
+      <c r="P97">
+        <v>3</v>
+      </c>
+      <c r="Q97">
+        <v>20</v>
+      </c>
+      <c r="R97">
+        <v>0.99</v>
+      </c>
+      <c r="U97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>464</v>
+      </c>
+      <c r="B98">
+        <v>10000000</v>
+      </c>
+      <c r="C98" t="s">
+        <v>22</v>
+      </c>
+      <c r="D98" t="s">
+        <v>23</v>
+      </c>
+      <c r="E98">
+        <v>177.0850612966166</v>
+      </c>
+      <c r="F98">
+        <v>42.933961265717564</v>
+      </c>
+      <c r="G98" t="s">
+        <v>471</v>
+      </c>
+      <c r="H98" t="s">
+        <v>472</v>
+      </c>
+      <c r="I98" t="s">
+        <v>473</v>
+      </c>
+      <c r="J98" t="s">
+        <v>474</v>
+      </c>
+      <c r="K98" t="s">
+        <v>475</v>
+      </c>
+      <c r="L98" t="s">
+        <v>476</v>
+      </c>
+      <c r="M98">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="N98">
+        <v>3</v>
+      </c>
+      <c r="O98">
+        <v>25</v>
+      </c>
+      <c r="P98">
+        <v>3</v>
+      </c>
+      <c r="Q98">
+        <v>20</v>
+      </c>
+      <c r="R98">
+        <v>0.99</v>
+      </c>
+      <c r="U98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>477</v>
+      </c>
+      <c r="B99">
+        <v>10000000</v>
+      </c>
+      <c r="C99" t="s">
+        <v>22</v>
+      </c>
+      <c r="D99" t="s">
+        <v>23</v>
+      </c>
+      <c r="E99">
+        <v>179.91728679655989</v>
+      </c>
+      <c r="F99">
+        <v>42.739286375035839</v>
+      </c>
+      <c r="G99" t="s">
+        <v>478</v>
+      </c>
+      <c r="H99" t="s">
+        <v>479</v>
+      </c>
+      <c r="I99" t="s">
+        <v>480</v>
+      </c>
+      <c r="J99" t="s">
+        <v>481</v>
+      </c>
+      <c r="K99" t="s">
+        <v>482</v>
+      </c>
+      <c r="L99" t="s">
+        <v>483</v>
+      </c>
+      <c r="M99">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="N99">
+        <v>3</v>
+      </c>
+      <c r="O99">
+        <v>25</v>
+      </c>
+      <c r="P99">
+        <v>3</v>
+      </c>
+      <c r="Q99">
+        <v>20</v>
+      </c>
+      <c r="R99">
+        <v>0.99</v>
+      </c>
+      <c r="U99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>477</v>
+      </c>
+      <c r="B100">
+        <v>10000000</v>
+      </c>
+      <c r="C100" t="s">
+        <v>22</v>
+      </c>
+      <c r="D100" t="s">
+        <v>23</v>
+      </c>
+      <c r="E100">
+        <v>179.24935324523349</v>
+      </c>
+      <c r="F100">
+        <v>43.160352823709452</v>
+      </c>
+      <c r="G100" t="s">
+        <v>484</v>
+      </c>
+      <c r="H100" t="s">
+        <v>485</v>
+      </c>
+      <c r="I100" t="s">
+        <v>486</v>
+      </c>
+      <c r="J100" t="s">
+        <v>487</v>
+      </c>
+      <c r="K100" t="s">
+        <v>488</v>
+      </c>
+      <c r="L100" t="s">
+        <v>489</v>
+      </c>
+      <c r="M100">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="N100">
+        <v>3</v>
+      </c>
+      <c r="O100">
+        <v>25</v>
+      </c>
+      <c r="P100">
+        <v>3</v>
+      </c>
+      <c r="Q100">
+        <v>20</v>
+      </c>
+      <c r="R100">
+        <v>0.99</v>
+      </c>
+      <c r="U100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>477</v>
+      </c>
+      <c r="B101">
+        <v>10000000</v>
+      </c>
+      <c r="C101" t="s">
+        <v>22</v>
+      </c>
+      <c r="D101" t="s">
+        <v>23</v>
+      </c>
+      <c r="E101">
+        <v>179.91728679655989</v>
+      </c>
+      <c r="F101">
+        <v>42.739286375035839</v>
+      </c>
+      <c r="G101" t="s">
+        <v>478</v>
+      </c>
+      <c r="H101" t="s">
+        <v>479</v>
+      </c>
+      <c r="I101" t="s">
+        <v>480</v>
+      </c>
+      <c r="J101" t="s">
+        <v>481</v>
+      </c>
+      <c r="K101" t="s">
+        <v>482</v>
+      </c>
+      <c r="L101" t="s">
+        <v>483</v>
+      </c>
+      <c r="M101">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="N101">
+        <v>3</v>
+      </c>
+      <c r="O101">
+        <v>25</v>
+      </c>
+      <c r="P101">
+        <v>3</v>
+      </c>
+      <c r="Q101">
+        <v>20</v>
+      </c>
+      <c r="R101">
+        <v>0.99</v>
+      </c>
+      <c r="U101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>490</v>
+      </c>
+      <c r="B102">
+        <v>10000000</v>
+      </c>
+      <c r="C102" t="s">
+        <v>22</v>
+      </c>
+      <c r="D102" t="s">
+        <v>23</v>
+      </c>
+      <c r="E102">
+        <v>173.7963335318168</v>
+      </c>
+      <c r="F102">
+        <v>56.760333231886207</v>
+      </c>
+      <c r="G102" t="s">
+        <v>491</v>
+      </c>
+      <c r="H102" t="s">
+        <v>492</v>
+      </c>
+      <c r="I102" t="s">
+        <v>493</v>
+      </c>
+      <c r="J102" t="s">
+        <v>494</v>
+      </c>
+      <c r="K102" t="s">
+        <v>495</v>
+      </c>
+      <c r="L102" t="s">
+        <v>496</v>
+      </c>
+      <c r="M102">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="N102">
+        <v>3</v>
+      </c>
+      <c r="O102">
+        <v>25</v>
+      </c>
+      <c r="P102">
+        <v>3</v>
+      </c>
+      <c r="Q102">
+        <v>20</v>
+      </c>
+      <c r="R102">
+        <v>0.99</v>
+      </c>
+      <c r="U102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>490</v>
+      </c>
+      <c r="B103">
+        <v>10000000</v>
+      </c>
+      <c r="C103" t="s">
+        <v>22</v>
+      </c>
+      <c r="D103" t="s">
+        <v>23</v>
+      </c>
+      <c r="E103">
+        <v>173.00195341669331</v>
+      </c>
+      <c r="F103">
+        <v>56.780452776301033</v>
+      </c>
+      <c r="G103" t="s">
+        <v>497</v>
+      </c>
+      <c r="H103" t="s">
+        <v>498</v>
+      </c>
+      <c r="I103" t="s">
+        <v>499</v>
+      </c>
+      <c r="J103" t="s">
+        <v>500</v>
+      </c>
+      <c r="K103" t="s">
+        <v>501</v>
+      </c>
+      <c r="L103" t="s">
+        <v>502</v>
+      </c>
+      <c r="M103">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="N103">
+        <v>3</v>
+      </c>
+      <c r="O103">
+        <v>25</v>
+      </c>
+      <c r="P103">
+        <v>3</v>
+      </c>
+      <c r="Q103">
+        <v>20</v>
+      </c>
+      <c r="R103">
+        <v>0.99</v>
+      </c>
+      <c r="U103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>490</v>
+      </c>
+      <c r="B104">
+        <v>10000000</v>
+      </c>
+      <c r="C104" t="s">
+        <v>22</v>
+      </c>
+      <c r="D104" t="s">
+        <v>23</v>
+      </c>
+      <c r="E104">
+        <v>173.616333545049</v>
+      </c>
+      <c r="F104">
+        <v>57.348333245118447</v>
+      </c>
+      <c r="G104" t="s">
+        <v>503</v>
+      </c>
+      <c r="H104" t="s">
+        <v>504</v>
+      </c>
+      <c r="I104" t="s">
+        <v>505</v>
+      </c>
+      <c r="J104" t="s">
+        <v>506</v>
+      </c>
+      <c r="K104" t="s">
+        <v>507</v>
+      </c>
+      <c r="L104" t="s">
+        <v>508</v>
+      </c>
+      <c r="M104">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="N104">
+        <v>3</v>
+      </c>
+      <c r="O104">
+        <v>25</v>
+      </c>
+      <c r="P104">
+        <v>3</v>
+      </c>
+      <c r="Q104">
+        <v>20</v>
+      </c>
+      <c r="R104">
+        <v>0.99</v>
+      </c>
+      <c r="U104">
         <v>1</v>
       </c>
     </row>
@@ -6750,7 +8338,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{024FF425-14A0-41CE-9E19-7F64D3A9CD46}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="E1:E84"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
@@ -6761,422 +8349,422 @@
   <sheetData>
     <row r="1" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E1" t="s">
-        <v>343</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E2" t="s">
-        <v>344</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E3" t="s">
-        <v>344</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E4" t="s">
-        <v>345</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E5" t="s">
-        <v>345</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E6" t="s">
-        <v>345</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E7" t="s">
-        <v>346</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E8" t="s">
-        <v>347</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E9" t="s">
-        <v>348</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E10" t="s">
-        <v>344</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E11" t="s">
-        <v>344</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E12" t="s">
-        <v>344</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E13" t="s">
-        <v>349</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E14" t="s">
-        <v>350</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E15" t="s">
-        <v>350</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E16" t="s">
-        <v>351</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E17" t="s">
-        <v>352</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E18" t="s">
-        <v>353</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E19" t="s">
-        <v>354</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E20" t="s">
-        <v>354</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E21" t="s">
-        <v>354</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E22" t="s">
-        <v>355</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E23" t="s">
-        <v>356</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E24" t="s">
-        <v>357</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E25" t="s">
-        <v>358</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E26" t="s">
-        <v>358</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E27" t="s">
-        <v>358</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E28" t="s">
-        <v>359</v>
+        <v>236</v>
       </c>
     </row>
     <row r="29" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E29" t="s">
-        <v>360</v>
+        <v>241</v>
       </c>
     </row>
     <row r="30" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E30" t="s">
-        <v>361</v>
+        <v>243</v>
       </c>
     </row>
     <row r="31" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E31" t="s">
-        <v>360</v>
+        <v>241</v>
       </c>
     </row>
     <row r="32" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E32" t="s">
-        <v>360</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E33" t="s">
-        <v>360</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E34" t="s">
-        <v>362</v>
+        <v>251</v>
       </c>
     </row>
     <row r="35" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E35" t="s">
-        <v>363</v>
+        <v>257</v>
       </c>
     </row>
     <row r="36" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E36" t="s">
-        <v>364</v>
+        <v>263</v>
       </c>
     </row>
     <row r="37" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E37" t="s">
-        <v>365</v>
+        <v>270</v>
       </c>
     </row>
     <row r="38" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E38" t="s">
-        <v>365</v>
+        <v>270</v>
       </c>
     </row>
     <row r="39" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E39" t="s">
-        <v>365</v>
+        <v>270</v>
       </c>
     </row>
     <row r="40" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E40" t="s">
-        <v>366</v>
+        <v>277</v>
       </c>
     </row>
     <row r="41" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E41" t="s">
-        <v>367</v>
+        <v>283</v>
       </c>
     </row>
     <row r="42" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E42" t="s">
-        <v>368</v>
+        <v>289</v>
       </c>
     </row>
     <row r="43" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E43" t="s">
-        <v>369</v>
+        <v>296</v>
       </c>
     </row>
     <row r="44" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E44" t="s">
-        <v>370</v>
+        <v>302</v>
       </c>
     </row>
     <row r="45" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E45" t="s">
-        <v>371</v>
+        <v>308</v>
       </c>
     </row>
     <row r="46" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E46" t="s">
-        <v>372</v>
+        <v>315</v>
       </c>
     </row>
     <row r="47" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E47" t="s">
-        <v>373</v>
+        <v>321</v>
       </c>
     </row>
     <row r="48" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E48" t="s">
-        <v>374</v>
+        <v>324</v>
       </c>
     </row>
     <row r="49" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E49" t="s">
-        <v>375</v>
+        <v>331</v>
       </c>
     </row>
     <row r="50" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E50" t="s">
-        <v>376</v>
+        <v>337</v>
       </c>
     </row>
     <row r="51" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E51" t="s">
-        <v>377</v>
+        <v>343</v>
       </c>
     </row>
     <row r="52" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E52" t="s">
-        <v>378</v>
+        <v>350</v>
       </c>
     </row>
     <row r="53" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E53" t="s">
-        <v>378</v>
+        <v>350</v>
       </c>
     </row>
     <row r="54" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E54" t="s">
-        <v>378</v>
+        <v>350</v>
       </c>
     </row>
     <row r="55" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E55" t="s">
-        <v>379</v>
+        <v>357</v>
       </c>
     </row>
     <row r="56" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E56" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
     </row>
     <row r="57" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E57" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
     </row>
     <row r="58" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E58" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="59" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E59" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="60" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E60" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="61" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E61" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
     </row>
     <row r="62" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E62" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
     </row>
     <row r="63" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E63" t="s">
-        <v>387</v>
+        <v>407</v>
       </c>
     </row>
     <row r="64" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E64" t="s">
-        <v>388</v>
+        <v>414</v>
       </c>
     </row>
     <row r="65" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E65" t="s">
-        <v>388</v>
+        <v>414</v>
       </c>
     </row>
     <row r="66" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E66" t="s">
-        <v>388</v>
+        <v>414</v>
       </c>
     </row>
     <row r="67" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E67" t="s">
-        <v>389</v>
+        <v>421</v>
       </c>
     </row>
     <row r="68" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E68" t="s">
-        <v>390</v>
+        <v>427</v>
       </c>
     </row>
     <row r="69" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E69" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
     </row>
     <row r="70" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E70" t="s">
-        <v>392</v>
+        <v>440</v>
       </c>
     </row>
     <row r="71" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E71" t="s">
-        <v>393</v>
+        <v>446</v>
       </c>
     </row>
     <row r="72" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E72" t="s">
-        <v>394</v>
+        <v>452</v>
       </c>
     </row>
     <row r="73" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E73" t="s">
-        <v>395</v>
+        <v>459</v>
       </c>
     </row>
     <row r="74" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E74" t="s">
-        <v>395</v>
+        <v>459</v>
       </c>
     </row>
     <row r="75" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E75" t="s">
-        <v>395</v>
+        <v>459</v>
       </c>
     </row>
     <row r="76" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E76" t="s">
-        <v>396</v>
+        <v>466</v>
       </c>
     </row>
     <row r="77" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E77" t="s">
-        <v>378</v>
+        <v>350</v>
       </c>
     </row>
     <row r="78" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E78" t="s">
-        <v>397</v>
+        <v>472</v>
       </c>
     </row>
     <row r="79" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E79" t="s">
-        <v>398</v>
+        <v>479</v>
       </c>
     </row>
     <row r="80" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E80" t="s">
-        <v>399</v>
+        <v>485</v>
       </c>
     </row>
     <row r="81" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E81" t="s">
-        <v>398</v>
+        <v>479</v>
       </c>
     </row>
     <row r="82" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E82" t="s">
-        <v>400</v>
+        <v>492</v>
       </c>
     </row>
     <row r="83" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E83" t="s">
-        <v>401</v>
+        <v>498</v>
       </c>
     </row>
     <row r="84" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E84" t="s">
-        <v>402</v>
+        <v>504</v>
       </c>
     </row>
   </sheetData>
